--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4126,17 +4126,13 @@
         <v>11.7406666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K107" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
@@ -4165,280 +4161,236 @@
         <v>11.73733333333336</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C109" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E109" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F109" t="n">
+        <v>48195.8077</v>
+      </c>
+      <c r="G109" t="n">
+        <v>11.7341666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C110" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D110" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E110" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F110" t="n">
+        <v>30051.2177</v>
+      </c>
+      <c r="G110" t="n">
+        <v>11.7296666666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F111" t="n">
+        <v>17591.4425</v>
+      </c>
+      <c r="G111" t="n">
+        <v>11.7281666666667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F112" t="n">
+        <v>95626.8493</v>
+      </c>
+      <c r="G112" t="n">
+        <v>11.72650000000003</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E113" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3495.5741</v>
+      </c>
+      <c r="G113" t="n">
+        <v>11.72500000000003</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K113" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C114" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E114" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F114" t="n">
+        <v>45</v>
+      </c>
+      <c r="G114" t="n">
+        <v>11.72333333333336</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K114" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C109" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D109" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E109" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F109" t="n">
-        <v>48195.8077</v>
-      </c>
-      <c r="G109" t="n">
-        <v>11.7341666666667</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C110" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D110" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E110" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F110" t="n">
-        <v>30051.2177</v>
-      </c>
-      <c r="G110" t="n">
-        <v>11.7296666666667</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K110" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C111" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D111" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E111" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F111" t="n">
-        <v>17591.4425</v>
-      </c>
-      <c r="G111" t="n">
-        <v>11.7281666666667</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K111" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C112" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D112" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E112" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F112" t="n">
-        <v>95626.8493</v>
-      </c>
-      <c r="G112" t="n">
-        <v>11.72650000000003</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K112" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C113" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D113" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E113" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3495.5741</v>
-      </c>
-      <c r="G113" t="n">
-        <v>11.72500000000003</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K113" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C114" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D114" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="E114" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F114" t="n">
-        <v>45</v>
-      </c>
-      <c r="G114" t="n">
-        <v>11.72333333333336</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="K114" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4472,14 +4424,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="K115" t="n">
         <v>11.65</v>
-      </c>
-      <c r="K115" t="n">
-        <v>11.7</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M115" t="n">
@@ -4515,16 +4467,12 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="K116" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.65</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>11.7</v>
       </c>
       <c r="F2" t="n">
-        <v>91.8304</v>
+        <v>163.1726</v>
       </c>
       <c r="G2" t="n">
-        <v>11.81400000000001</v>
+        <v>11.81233333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>11.7</v>
       </c>
       <c r="F3" t="n">
-        <v>7199.2027</v>
+        <v>91.8304</v>
       </c>
       <c r="G3" t="n">
-        <v>11.81566666666667</v>
+        <v>11.81400000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>11.7</v>
       </c>
       <c r="C4" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="D4" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="E4" t="n">
         <v>11.7</v>
       </c>
       <c r="F4" t="n">
-        <v>18012.8154</v>
+        <v>7199.2027</v>
       </c>
       <c r="G4" t="n">
-        <v>11.81866666666667</v>
+        <v>11.81566666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="C5" t="n">
-        <v>11.79</v>
+        <v>11.77</v>
       </c>
       <c r="D5" t="n">
-        <v>11.79</v>
+        <v>11.77</v>
       </c>
       <c r="E5" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="F5" t="n">
-        <v>236.6424</v>
+        <v>18012.8154</v>
       </c>
       <c r="G5" t="n">
-        <v>11.82233333333334</v>
+        <v>11.81866666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.77</v>
+        <v>11.79</v>
       </c>
       <c r="C6" t="n">
-        <v>11.77</v>
+        <v>11.79</v>
       </c>
       <c r="D6" t="n">
-        <v>11.77</v>
+        <v>11.79</v>
       </c>
       <c r="E6" t="n">
-        <v>11.77</v>
+        <v>11.79</v>
       </c>
       <c r="F6" t="n">
-        <v>36687.8368</v>
+        <v>236.6424</v>
       </c>
       <c r="G6" t="n">
-        <v>11.826</v>
+        <v>11.82233333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>11.77</v>
       </c>
       <c r="F7" t="n">
-        <v>9363.270500000001</v>
+        <v>36687.8368</v>
       </c>
       <c r="G7" t="n">
-        <v>11.82616666666667</v>
+        <v>11.826</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="C8" t="n">
-        <v>11.69</v>
+        <v>11.77</v>
       </c>
       <c r="D8" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="E8" t="n">
-        <v>11.69</v>
+        <v>11.77</v>
       </c>
       <c r="F8" t="n">
-        <v>21157.3828</v>
+        <v>9363.270500000001</v>
       </c>
       <c r="G8" t="n">
         <v>11.82616666666667</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.76</v>
+        <v>11.7</v>
       </c>
       <c r="C9" t="n">
-        <v>11.76</v>
+        <v>11.69</v>
       </c>
       <c r="D9" t="n">
-        <v>11.76</v>
+        <v>11.7</v>
       </c>
       <c r="E9" t="n">
-        <v>11.76</v>
+        <v>11.69</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>21157.3828</v>
       </c>
       <c r="G9" t="n">
-        <v>11.82533333333334</v>
+        <v>11.82616666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="C10" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="D10" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="E10" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="F10" t="n">
-        <v>8912.5996</v>
+        <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>11.82183333333334</v>
+        <v>11.82533333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.76</v>
+        <v>11.69</v>
       </c>
       <c r="C11" t="n">
-        <v>11.76</v>
+        <v>11.69</v>
       </c>
       <c r="D11" t="n">
-        <v>11.76</v>
+        <v>11.69</v>
       </c>
       <c r="E11" t="n">
-        <v>11.76</v>
+        <v>11.69</v>
       </c>
       <c r="F11" t="n">
-        <v>56650.48</v>
+        <v>8912.5996</v>
       </c>
       <c r="G11" t="n">
-        <v>11.81800000000001</v>
+        <v>11.82183333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>11.76</v>
       </c>
       <c r="F12" t="n">
-        <v>86</v>
+        <v>56650.48</v>
       </c>
       <c r="G12" t="n">
-        <v>11.81416666666667</v>
+        <v>11.81800000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="D13" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="E13" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="F13" t="n">
-        <v>26083.1437</v>
+        <v>86</v>
       </c>
       <c r="G13" t="n">
-        <v>11.81033333333334</v>
+        <v>11.81416666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="C14" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="D14" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="E14" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="F14" t="n">
-        <v>4081.9701</v>
+        <v>26083.1437</v>
       </c>
       <c r="G14" t="n">
-        <v>11.80666666666667</v>
+        <v>11.81033333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.76</v>
+        <v>11.68</v>
       </c>
       <c r="C15" t="n">
-        <v>11.76</v>
+        <v>11.68</v>
       </c>
       <c r="D15" t="n">
-        <v>11.76</v>
+        <v>11.68</v>
       </c>
       <c r="E15" t="n">
-        <v>11.76</v>
+        <v>11.68</v>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>4081.9701</v>
       </c>
       <c r="G15" t="n">
-        <v>11.80433333333334</v>
+        <v>11.80666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>11.76</v>
       </c>
       <c r="F16" t="n">
-        <v>1229264.8005</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>11.80466666666667</v>
+        <v>11.80433333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.79</v>
+        <v>11.76</v>
       </c>
       <c r="C17" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="D17" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="E17" t="n">
-        <v>11.79</v>
+        <v>11.76</v>
       </c>
       <c r="F17" t="n">
-        <v>29203.3429</v>
+        <v>1229264.8005</v>
       </c>
       <c r="G17" t="n">
         <v>11.80466666666667</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.89</v>
+        <v>11.79</v>
       </c>
       <c r="C18" t="n">
-        <v>11.89</v>
+        <v>11.8</v>
       </c>
       <c r="D18" t="n">
-        <v>11.89</v>
+        <v>11.8</v>
       </c>
       <c r="E18" t="n">
-        <v>11.89</v>
+        <v>11.79</v>
       </c>
       <c r="F18" t="n">
-        <v>896.4351</v>
+        <v>29203.3429</v>
       </c>
       <c r="G18" t="n">
-        <v>11.80933333333334</v>
+        <v>11.80466666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.98</v>
+        <v>11.89</v>
       </c>
       <c r="C19" t="n">
-        <v>11.98</v>
+        <v>11.89</v>
       </c>
       <c r="D19" t="n">
-        <v>11.98</v>
+        <v>11.89</v>
       </c>
       <c r="E19" t="n">
-        <v>11.98</v>
+        <v>11.89</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>896.4351</v>
       </c>
       <c r="G19" t="n">
-        <v>11.81633333333334</v>
+        <v>11.80933333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>11.98</v>
       </c>
       <c r="F20" t="n">
-        <v>17890.0403</v>
+        <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>11.82333333333334</v>
+        <v>11.81633333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="C21" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="D21" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="E21" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="F21" t="n">
-        <v>636.419</v>
+        <v>17890.0403</v>
       </c>
       <c r="G21" t="n">
-        <v>11.82550000000001</v>
+        <v>11.82333333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="C22" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="D22" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="E22" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="F22" t="n">
-        <v>739.2152</v>
+        <v>636.419</v>
       </c>
       <c r="G22" t="n">
-        <v>11.82700000000001</v>
+        <v>11.82550000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>11.89</v>
       </c>
       <c r="F23" t="n">
-        <v>59.6917</v>
+        <v>739.2152</v>
       </c>
       <c r="G23" t="n">
-        <v>11.82866666666668</v>
+        <v>11.82700000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.81</v>
+        <v>11.89</v>
       </c>
       <c r="C24" t="n">
-        <v>11.81</v>
+        <v>11.89</v>
       </c>
       <c r="D24" t="n">
-        <v>11.81</v>
+        <v>11.89</v>
       </c>
       <c r="E24" t="n">
-        <v>11.81</v>
+        <v>11.89</v>
       </c>
       <c r="F24" t="n">
-        <v>20745.131</v>
+        <v>59.6917</v>
       </c>
       <c r="G24" t="n">
-        <v>11.82900000000001</v>
+        <v>11.82866666666668</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>11.81</v>
       </c>
       <c r="F25" t="n">
-        <v>196.3248</v>
+        <v>20745.131</v>
       </c>
       <c r="G25" t="n">
-        <v>11.82750000000001</v>
+        <v>11.82900000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>11.81</v>
       </c>
       <c r="F26" t="n">
-        <v>8679.080900000001</v>
+        <v>196.3248</v>
       </c>
       <c r="G26" t="n">
-        <v>11.82783333333334</v>
+        <v>11.82750000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.96</v>
+        <v>11.81</v>
       </c>
       <c r="C27" t="n">
-        <v>11.96</v>
+        <v>11.81</v>
       </c>
       <c r="D27" t="n">
-        <v>11.96</v>
+        <v>11.81</v>
       </c>
       <c r="E27" t="n">
-        <v>11.96</v>
+        <v>11.81</v>
       </c>
       <c r="F27" t="n">
-        <v>196.3248</v>
+        <v>8679.080900000001</v>
       </c>
       <c r="G27" t="n">
-        <v>11.83066666666668</v>
+        <v>11.82783333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.98</v>
+        <v>11.96</v>
       </c>
       <c r="C28" t="n">
-        <v>11.98</v>
+        <v>11.96</v>
       </c>
       <c r="D28" t="n">
-        <v>11.98</v>
+        <v>11.96</v>
       </c>
       <c r="E28" t="n">
-        <v>11.98</v>
+        <v>11.96</v>
       </c>
       <c r="F28" t="n">
-        <v>9175.5394</v>
+        <v>196.3248</v>
       </c>
       <c r="G28" t="n">
-        <v>11.83200000000001</v>
+        <v>11.83066666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>11.98</v>
       </c>
       <c r="C29" t="n">
-        <v>12.18</v>
+        <v>11.98</v>
       </c>
       <c r="D29" t="n">
-        <v>12.18</v>
+        <v>11.98</v>
       </c>
       <c r="E29" t="n">
         <v>11.98</v>
       </c>
       <c r="F29" t="n">
-        <v>3597.169466502463</v>
+        <v>9175.5394</v>
       </c>
       <c r="G29" t="n">
-        <v>11.83850000000001</v>
+        <v>11.83200000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.91</v>
+        <v>11.98</v>
       </c>
       <c r="C30" t="n">
-        <v>11.91</v>
+        <v>12.18</v>
       </c>
       <c r="D30" t="n">
-        <v>11.91</v>
+        <v>12.18</v>
       </c>
       <c r="E30" t="n">
-        <v>11.91</v>
+        <v>11.98</v>
       </c>
       <c r="F30" t="n">
-        <v>212.3437</v>
+        <v>3597.169466502463</v>
       </c>
       <c r="G30" t="n">
-        <v>11.83866666666668</v>
+        <v>11.83850000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.18</v>
+        <v>11.91</v>
       </c>
       <c r="C31" t="n">
-        <v>12.18</v>
+        <v>11.91</v>
       </c>
       <c r="D31" t="n">
-        <v>12.18</v>
+        <v>11.91</v>
       </c>
       <c r="E31" t="n">
-        <v>12.18</v>
+        <v>11.91</v>
       </c>
       <c r="F31" t="n">
-        <v>42</v>
+        <v>212.3437</v>
       </c>
       <c r="G31" t="n">
-        <v>11.84183333333334</v>
+        <v>11.83866666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.95</v>
+        <v>12.18</v>
       </c>
       <c r="C32" t="n">
-        <v>11.8</v>
+        <v>12.18</v>
       </c>
       <c r="D32" t="n">
-        <v>11.95</v>
+        <v>12.18</v>
       </c>
       <c r="E32" t="n">
-        <v>11.8</v>
+        <v>12.18</v>
       </c>
       <c r="F32" t="n">
-        <v>300013.4274</v>
+        <v>42</v>
       </c>
       <c r="G32" t="n">
-        <v>11.83866666666668</v>
+        <v>11.84183333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,28 +1518,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.8</v>
+        <v>11.95</v>
       </c>
       <c r="C33" t="n">
         <v>11.8</v>
       </c>
       <c r="D33" t="n">
-        <v>11.8</v>
+        <v>11.95</v>
       </c>
       <c r="E33" t="n">
         <v>11.8</v>
       </c>
       <c r="F33" t="n">
-        <v>5271.7874</v>
+        <v>300013.4274</v>
       </c>
       <c r="G33" t="n">
-        <v>11.83550000000001</v>
+        <v>11.83866666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1565,16 +1565,16 @@
         <v>11.8</v>
       </c>
       <c r="F34" t="n">
-        <v>11710.0562</v>
+        <v>5271.7874</v>
       </c>
       <c r="G34" t="n">
-        <v>11.83383333333334</v>
+        <v>11.83550000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1597,19 +1597,19 @@
         <v>11.8</v>
       </c>
       <c r="E35" t="n">
-        <v>11.72</v>
+        <v>11.8</v>
       </c>
       <c r="F35" t="n">
-        <v>2900.2859</v>
+        <v>11710.0562</v>
       </c>
       <c r="G35" t="n">
-        <v>11.83066666666667</v>
+        <v>11.83383333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1632,19 +1632,19 @@
         <v>11.8</v>
       </c>
       <c r="E36" t="n">
-        <v>11.8</v>
+        <v>11.72</v>
       </c>
       <c r="F36" t="n">
-        <v>200560.3043</v>
+        <v>2900.2859</v>
       </c>
       <c r="G36" t="n">
-        <v>11.82750000000001</v>
+        <v>11.83066666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1670,10 +1670,10 @@
         <v>11.8</v>
       </c>
       <c r="F37" t="n">
-        <v>317803.0321</v>
+        <v>200560.3043</v>
       </c>
       <c r="G37" t="n">
-        <v>11.82766666666667</v>
+        <v>11.82750000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.79</v>
+        <v>11.8</v>
       </c>
       <c r="C38" t="n">
-        <v>11.72</v>
+        <v>11.8</v>
       </c>
       <c r="D38" t="n">
         <v>11.8</v>
       </c>
       <c r="E38" t="n">
-        <v>11.72</v>
+        <v>11.8</v>
       </c>
       <c r="F38" t="n">
-        <v>103012.6074</v>
+        <v>317803.0321</v>
       </c>
       <c r="G38" t="n">
-        <v>11.82316666666667</v>
+        <v>11.82766666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.9</v>
+        <v>11.79</v>
       </c>
       <c r="C39" t="n">
-        <v>11.9</v>
+        <v>11.72</v>
       </c>
       <c r="D39" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E39" t="n">
-        <v>11.9</v>
+        <v>11.72</v>
       </c>
       <c r="F39" t="n">
-        <v>18050.7965</v>
+        <v>103012.6074</v>
       </c>
       <c r="G39" t="n">
-        <v>11.82150000000001</v>
+        <v>11.82316666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.73</v>
+        <v>11.9</v>
       </c>
       <c r="C40" t="n">
-        <v>11.73</v>
+        <v>11.9</v>
       </c>
       <c r="D40" t="n">
-        <v>11.73</v>
+        <v>11.9</v>
       </c>
       <c r="E40" t="n">
-        <v>11.73</v>
+        <v>11.9</v>
       </c>
       <c r="F40" t="n">
-        <v>18315.9625</v>
+        <v>18050.7965</v>
       </c>
       <c r="G40" t="n">
-        <v>11.81700000000001</v>
+        <v>11.82150000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.89</v>
+        <v>11.73</v>
       </c>
       <c r="C41" t="n">
-        <v>11.89</v>
+        <v>11.73</v>
       </c>
       <c r="D41" t="n">
-        <v>11.89</v>
+        <v>11.73</v>
       </c>
       <c r="E41" t="n">
-        <v>11.89</v>
+        <v>11.73</v>
       </c>
       <c r="F41" t="n">
-        <v>42.0522</v>
+        <v>18315.9625</v>
       </c>
       <c r="G41" t="n">
-        <v>11.81533333333334</v>
+        <v>11.81700000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>11.89</v>
       </c>
       <c r="C42" t="n">
-        <v>11.74</v>
+        <v>11.89</v>
       </c>
       <c r="D42" t="n">
         <v>11.89</v>
       </c>
       <c r="E42" t="n">
-        <v>11.74</v>
+        <v>11.89</v>
       </c>
       <c r="F42" t="n">
-        <v>167455.9039</v>
+        <v>42.0522</v>
       </c>
       <c r="G42" t="n">
-        <v>11.81116666666667</v>
+        <v>11.81533333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C43" t="n">
         <v>11.74</v>
       </c>
-      <c r="C43" t="n">
-        <v>11.88</v>
-      </c>
       <c r="D43" t="n">
-        <v>11.88</v>
+        <v>11.89</v>
       </c>
       <c r="E43" t="n">
         <v>11.74</v>
       </c>
       <c r="F43" t="n">
-        <v>12914.5437</v>
+        <v>167455.9039</v>
       </c>
       <c r="G43" t="n">
-        <v>11.80933333333334</v>
+        <v>11.81116666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.95</v>
+        <v>11.74</v>
       </c>
       <c r="C44" t="n">
-        <v>11.95</v>
+        <v>11.88</v>
       </c>
       <c r="D44" t="n">
-        <v>11.95</v>
+        <v>11.88</v>
       </c>
       <c r="E44" t="n">
-        <v>11.95</v>
+        <v>11.74</v>
       </c>
       <c r="F44" t="n">
-        <v>41.8411</v>
+        <v>12914.5437</v>
       </c>
       <c r="G44" t="n">
-        <v>11.81200000000001</v>
+        <v>11.80933333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.89</v>
+        <v>11.95</v>
       </c>
       <c r="C45" t="n">
-        <v>11.89</v>
+        <v>11.95</v>
       </c>
       <c r="D45" t="n">
-        <v>11.89</v>
+        <v>11.95</v>
       </c>
       <c r="E45" t="n">
-        <v>11.89</v>
+        <v>11.95</v>
       </c>
       <c r="F45" t="n">
-        <v>7440.9644</v>
+        <v>41.8411</v>
       </c>
       <c r="G45" t="n">
-        <v>11.81366666666667</v>
+        <v>11.81200000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.93</v>
+        <v>11.89</v>
       </c>
       <c r="C46" t="n">
-        <v>11.93</v>
+        <v>11.89</v>
       </c>
       <c r="D46" t="n">
-        <v>11.93</v>
+        <v>11.89</v>
       </c>
       <c r="E46" t="n">
-        <v>11.93</v>
+        <v>11.89</v>
       </c>
       <c r="F46" t="n">
-        <v>43</v>
+        <v>7440.9644</v>
       </c>
       <c r="G46" t="n">
-        <v>11.81266666666667</v>
+        <v>11.81366666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.9</v>
+        <v>11.93</v>
       </c>
       <c r="C47" t="n">
-        <v>11.88</v>
+        <v>11.93</v>
       </c>
       <c r="D47" t="n">
-        <v>11.9</v>
+        <v>11.93</v>
       </c>
       <c r="E47" t="n">
-        <v>11.88</v>
+        <v>11.93</v>
       </c>
       <c r="F47" t="n">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="G47" t="n">
-        <v>11.81416666666667</v>
+        <v>11.81266666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>11.9</v>
       </c>
       <c r="C48" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="D48" t="n">
         <v>11.9</v>
       </c>
       <c r="E48" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="G48" t="n">
-        <v>11.81650000000001</v>
+        <v>11.81416666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>11.9</v>
       </c>
       <c r="C49" t="n">
-        <v>11.85</v>
+        <v>11.9</v>
       </c>
       <c r="D49" t="n">
         <v>11.9</v>
       </c>
       <c r="E49" t="n">
-        <v>11.85</v>
+        <v>11.9</v>
       </c>
       <c r="F49" t="n">
-        <v>89.43600000000001</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>11.81800000000001</v>
+        <v>11.81650000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
       <c r="C50" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="D50" t="n">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
       <c r="E50" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="F50" t="n">
-        <v>42</v>
+        <v>89.43600000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>11.82100000000001</v>
+        <v>11.81800000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.77</v>
+        <v>11.93</v>
       </c>
       <c r="C51" t="n">
-        <v>11.74</v>
+        <v>11.93</v>
       </c>
       <c r="D51" t="n">
-        <v>11.77</v>
+        <v>11.93</v>
       </c>
       <c r="E51" t="n">
-        <v>11.74</v>
+        <v>11.93</v>
       </c>
       <c r="F51" t="n">
-        <v>388221.2182</v>
+        <v>42</v>
       </c>
       <c r="G51" t="n">
-        <v>11.81883333333334</v>
+        <v>11.82100000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.75</v>
+        <v>11.77</v>
       </c>
       <c r="C52" t="n">
-        <v>11.75</v>
+        <v>11.74</v>
       </c>
       <c r="D52" t="n">
-        <v>11.75</v>
+        <v>11.77</v>
       </c>
       <c r="E52" t="n">
-        <v>11.75</v>
+        <v>11.74</v>
       </c>
       <c r="F52" t="n">
-        <v>141.9677</v>
+        <v>388221.2182</v>
       </c>
       <c r="G52" t="n">
-        <v>11.81683333333334</v>
+        <v>11.81883333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.74</v>
+        <v>11.75</v>
       </c>
       <c r="C53" t="n">
-        <v>11.74</v>
+        <v>11.75</v>
       </c>
       <c r="D53" t="n">
-        <v>11.74</v>
+        <v>11.75</v>
       </c>
       <c r="E53" t="n">
-        <v>11.74</v>
+        <v>11.75</v>
       </c>
       <c r="F53" t="n">
-        <v>207.8034</v>
+        <v>141.9677</v>
       </c>
       <c r="G53" t="n">
-        <v>11.81300000000001</v>
+        <v>11.81683333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.75</v>
+        <v>11.74</v>
       </c>
       <c r="C54" t="n">
         <v>11.74</v>
       </c>
       <c r="D54" t="n">
-        <v>11.75</v>
+        <v>11.74</v>
       </c>
       <c r="E54" t="n">
         <v>11.74</v>
       </c>
       <c r="F54" t="n">
-        <v>52129.185</v>
+        <v>207.8034</v>
       </c>
       <c r="G54" t="n">
-        <v>11.81416666666667</v>
+        <v>11.81300000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C55" t="n">
         <v>11.74</v>
       </c>
-      <c r="C55" t="n">
-        <v>11.72</v>
-      </c>
       <c r="D55" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E55" t="n">
         <v>11.74</v>
       </c>
-      <c r="E55" t="n">
-        <v>11.72</v>
-      </c>
       <c r="F55" t="n">
-        <v>113162.9885</v>
+        <v>52129.185</v>
       </c>
       <c r="G55" t="n">
-        <v>11.81483333333334</v>
+        <v>11.81416666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.72</v>
+        <v>11.74</v>
       </c>
       <c r="C56" t="n">
         <v>11.72</v>
       </c>
       <c r="D56" t="n">
-        <v>11.72</v>
+        <v>11.74</v>
       </c>
       <c r="E56" t="n">
         <v>11.72</v>
       </c>
       <c r="F56" t="n">
-        <v>14359.5957</v>
+        <v>113162.9885</v>
       </c>
       <c r="G56" t="n">
-        <v>11.81600000000001</v>
+        <v>11.81483333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>11.72</v>
       </c>
       <c r="F57" t="n">
-        <v>9013.5967</v>
+        <v>14359.5957</v>
       </c>
       <c r="G57" t="n">
-        <v>11.81750000000001</v>
+        <v>11.81600000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.69</v>
+        <v>11.72</v>
       </c>
       <c r="C58" t="n">
         <v>11.72</v>
@@ -2402,13 +2402,13 @@
         <v>11.72</v>
       </c>
       <c r="E58" t="n">
-        <v>11.69</v>
+        <v>11.72</v>
       </c>
       <c r="F58" t="n">
-        <v>963.6743</v>
+        <v>9013.5967</v>
       </c>
       <c r="G58" t="n">
-        <v>11.81883333333334</v>
+        <v>11.81750000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.72</v>
+        <v>11.69</v>
       </c>
       <c r="C59" t="n">
         <v>11.72</v>
@@ -2437,13 +2437,13 @@
         <v>11.72</v>
       </c>
       <c r="E59" t="n">
-        <v>11.72</v>
+        <v>11.69</v>
       </c>
       <c r="F59" t="n">
-        <v>51.2281</v>
+        <v>963.6743</v>
       </c>
       <c r="G59" t="n">
-        <v>11.81616666666668</v>
+        <v>11.81883333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>11.72</v>
       </c>
       <c r="C60" t="n">
-        <v>11.94</v>
+        <v>11.72</v>
       </c>
       <c r="D60" t="n">
-        <v>11.94</v>
+        <v>11.72</v>
       </c>
       <c r="E60" t="n">
         <v>11.72</v>
       </c>
       <c r="F60" t="n">
-        <v>100914.9724</v>
+        <v>51.2281</v>
       </c>
       <c r="G60" t="n">
-        <v>11.82033333333334</v>
+        <v>11.81616666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.8</v>
+        <v>11.72</v>
       </c>
       <c r="C61" t="n">
-        <v>11.8</v>
+        <v>11.94</v>
       </c>
       <c r="D61" t="n">
-        <v>11.8</v>
+        <v>11.94</v>
       </c>
       <c r="E61" t="n">
-        <v>11.8</v>
+        <v>11.72</v>
       </c>
       <c r="F61" t="n">
-        <v>86311.5744</v>
+        <v>100914.9724</v>
       </c>
       <c r="G61" t="n">
-        <v>11.82200000000001</v>
+        <v>11.82033333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,19 +2533,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C62" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D62" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E62" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F62" t="n">
-        <v>113688.4256</v>
+        <v>86311.5744</v>
       </c>
       <c r="G62" t="n">
         <v>11.82200000000001</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C63" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="D63" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E63" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="F63" t="n">
-        <v>91766.3458</v>
+        <v>113688.4256</v>
       </c>
       <c r="G63" t="n">
-        <v>11.82166666666667</v>
+        <v>11.82200000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>11.9</v>
       </c>
       <c r="C64" t="n">
-        <v>11.9</v>
+        <v>11.68</v>
       </c>
       <c r="D64" t="n">
         <v>11.9</v>
       </c>
       <c r="E64" t="n">
-        <v>11.9</v>
+        <v>11.68</v>
       </c>
       <c r="F64" t="n">
-        <v>43</v>
+        <v>91766.3458</v>
       </c>
       <c r="G64" t="n">
-        <v>11.82383333333334</v>
+        <v>11.82166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>11.9</v>
       </c>
       <c r="F65" t="n">
-        <v>46188.1296</v>
+        <v>43</v>
       </c>
       <c r="G65" t="n">
-        <v>11.82566666666667</v>
+        <v>11.82383333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.92</v>
+        <v>11.9</v>
       </c>
       <c r="C66" t="n">
-        <v>11.92</v>
+        <v>11.9</v>
       </c>
       <c r="D66" t="n">
-        <v>11.92</v>
+        <v>11.9</v>
       </c>
       <c r="E66" t="n">
-        <v>11.92</v>
+        <v>11.9</v>
       </c>
       <c r="F66" t="n">
-        <v>42</v>
+        <v>46188.1296</v>
       </c>
       <c r="G66" t="n">
-        <v>11.82816666666667</v>
+        <v>11.82566666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.73</v>
+        <v>11.92</v>
       </c>
       <c r="C67" t="n">
-        <v>11.73</v>
+        <v>11.92</v>
       </c>
       <c r="D67" t="n">
-        <v>11.73</v>
+        <v>11.92</v>
       </c>
       <c r="E67" t="n">
-        <v>11.73</v>
+        <v>11.92</v>
       </c>
       <c r="F67" t="n">
-        <v>65.7826</v>
+        <v>42</v>
       </c>
       <c r="G67" t="n">
-        <v>11.82750000000001</v>
+        <v>11.82816666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>11.73</v>
       </c>
       <c r="F68" t="n">
-        <v>51.3966</v>
+        <v>65.7826</v>
       </c>
       <c r="G68" t="n">
-        <v>11.82816666666667</v>
+        <v>11.82750000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.72</v>
+        <v>11.73</v>
       </c>
       <c r="C69" t="n">
-        <v>11.7</v>
+        <v>11.73</v>
       </c>
       <c r="D69" t="n">
-        <v>11.72</v>
+        <v>11.73</v>
       </c>
       <c r="E69" t="n">
-        <v>11.7</v>
+        <v>11.73</v>
       </c>
       <c r="F69" t="n">
-        <v>78223.58809999999</v>
+        <v>51.3966</v>
       </c>
       <c r="G69" t="n">
-        <v>11.82716666666667</v>
+        <v>11.82816666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="C70" t="n">
         <v>11.7</v>
       </c>
       <c r="D70" t="n">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="E70" t="n">
         <v>11.7</v>
       </c>
       <c r="F70" t="n">
-        <v>1470.9124</v>
+        <v>78223.58809999999</v>
       </c>
       <c r="G70" t="n">
-        <v>11.82733333333334</v>
+        <v>11.82716666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>11.7</v>
       </c>
       <c r="F71" t="n">
-        <v>13841.7187</v>
+        <v>1470.9124</v>
       </c>
       <c r="G71" t="n">
-        <v>11.82633333333334</v>
+        <v>11.82733333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="C72" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="D72" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="E72" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="F72" t="n">
-        <v>45</v>
+        <v>13841.7187</v>
       </c>
       <c r="G72" t="n">
-        <v>11.82516666666668</v>
+        <v>11.82633333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C73" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="D73" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="E73" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="F73" t="n">
-        <v>445.9176</v>
+        <v>45</v>
       </c>
       <c r="G73" t="n">
-        <v>11.82533333333334</v>
+        <v>11.82516666666668</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>11.7</v>
       </c>
       <c r="F74" t="n">
-        <v>28932.1365</v>
+        <v>445.9176</v>
       </c>
       <c r="G74" t="n">
-        <v>11.82566666666668</v>
+        <v>11.82533333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="C75" t="n">
         <v>11.7</v>
@@ -2997,13 +2997,13 @@
         <v>11.7</v>
       </c>
       <c r="E75" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="F75" t="n">
-        <v>106328.5879</v>
+        <v>28932.1365</v>
       </c>
       <c r="G75" t="n">
-        <v>11.82466666666668</v>
+        <v>11.82566666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C76" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="D76" t="n">
         <v>11.7</v>
       </c>
       <c r="E76" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="F76" t="n">
-        <v>59752.8523</v>
+        <v>106328.5879</v>
       </c>
       <c r="G76" t="n">
-        <v>11.82316666666668</v>
+        <v>11.82466666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>11.7</v>
       </c>
       <c r="C77" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="D77" t="n">
         <v>11.7</v>
       </c>
       <c r="E77" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="F77" t="n">
-        <v>114.052</v>
+        <v>59752.8523</v>
       </c>
       <c r="G77" t="n">
-        <v>11.82150000000001</v>
+        <v>11.82316666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="C78" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="D78" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="E78" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="F78" t="n">
-        <v>45</v>
+        <v>114.052</v>
       </c>
       <c r="G78" t="n">
-        <v>11.81783333333335</v>
+        <v>11.82150000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.68</v>
+        <v>11.67</v>
       </c>
       <c r="C79" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="D79" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="E79" t="n">
-        <v>11.68</v>
+        <v>11.67</v>
       </c>
       <c r="F79" t="n">
-        <v>199.3744</v>
+        <v>45</v>
       </c>
       <c r="G79" t="n">
-        <v>11.81483333333335</v>
+        <v>11.81783333333335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.79</v>
+        <v>11.68</v>
       </c>
       <c r="C80" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="D80" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="E80" t="n">
-        <v>11.79</v>
+        <v>11.68</v>
       </c>
       <c r="F80" t="n">
-        <v>1430</v>
+        <v>199.3744</v>
       </c>
       <c r="G80" t="n">
-        <v>11.81300000000001</v>
+        <v>11.81483333333335</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.67</v>
+        <v>11.79</v>
       </c>
       <c r="C81" t="n">
-        <v>11.67</v>
+        <v>11.87</v>
       </c>
       <c r="D81" t="n">
-        <v>11.67</v>
+        <v>11.87</v>
       </c>
       <c r="E81" t="n">
-        <v>11.67</v>
+        <v>11.79</v>
       </c>
       <c r="F81" t="n">
-        <v>45</v>
+        <v>1430</v>
       </c>
       <c r="G81" t="n">
-        <v>11.80916666666668</v>
+        <v>11.81300000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="C82" t="n">
-        <v>11.68</v>
+        <v>11.67</v>
       </c>
       <c r="D82" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="E82" t="n">
-        <v>11.68</v>
+        <v>11.67</v>
       </c>
       <c r="F82" t="n">
-        <v>348.8704</v>
+        <v>45</v>
       </c>
       <c r="G82" t="n">
-        <v>11.80566666666668</v>
+        <v>11.80916666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>11.7</v>
       </c>
       <c r="C83" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="D83" t="n">
         <v>11.7</v>
       </c>
       <c r="E83" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="F83" t="n">
-        <v>556.5667</v>
+        <v>348.8704</v>
       </c>
       <c r="G83" t="n">
-        <v>11.80250000000001</v>
+        <v>11.80566666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="C84" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="D84" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="E84" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="F84" t="n">
-        <v>45</v>
+        <v>556.5667</v>
       </c>
       <c r="G84" t="n">
-        <v>11.80033333333335</v>
+        <v>11.80250000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="C85" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="D85" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="E85" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="F85" t="n">
-        <v>43456.5603</v>
+        <v>45</v>
       </c>
       <c r="G85" t="n">
-        <v>11.79850000000001</v>
+        <v>11.80033333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>11.7</v>
       </c>
       <c r="F86" t="n">
-        <v>55416.9708</v>
+        <v>43456.5603</v>
       </c>
       <c r="G86" t="n">
-        <v>11.79666666666668</v>
+        <v>11.79850000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="C87" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="D87" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="E87" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="F87" t="n">
-        <v>45</v>
+        <v>55416.9708</v>
       </c>
       <c r="G87" t="n">
-        <v>11.79216666666668</v>
+        <v>11.79666666666668</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="C88" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="D88" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="E88" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="F88" t="n">
         <v>45</v>
       </c>
       <c r="G88" t="n">
-        <v>11.78716666666668</v>
+        <v>11.79216666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="C89" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="D89" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="E89" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="F89" t="n">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="G89" t="n">
-        <v>11.77916666666668</v>
+        <v>11.78716666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>11.7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9798</v>
+        <v>151</v>
       </c>
       <c r="G90" t="n">
-        <v>11.77566666666668</v>
+        <v>11.77916666666668</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>11.7</v>
       </c>
       <c r="F91" t="n">
-        <v>137.778</v>
+        <v>0.9798</v>
       </c>
       <c r="G91" t="n">
-        <v>11.76766666666668</v>
+        <v>11.77566666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>11.7</v>
       </c>
       <c r="F92" t="n">
-        <v>138.8426</v>
+        <v>137.778</v>
       </c>
       <c r="G92" t="n">
-        <v>11.76600000000002</v>
+        <v>11.76766666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>11.7</v>
       </c>
       <c r="F93" t="n">
-        <v>23.3794</v>
+        <v>138.8426</v>
       </c>
       <c r="G93" t="n">
-        <v>11.76433333333335</v>
+        <v>11.76600000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>11.7</v>
       </c>
       <c r="C94" t="n">
-        <v>11.84</v>
+        <v>11.7</v>
       </c>
       <c r="D94" t="n">
-        <v>11.84</v>
+        <v>11.7</v>
       </c>
       <c r="E94" t="n">
         <v>11.7</v>
       </c>
       <c r="F94" t="n">
-        <v>143</v>
+        <v>23.3794</v>
       </c>
       <c r="G94" t="n">
-        <v>11.76500000000002</v>
+        <v>11.76433333333335</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.83</v>
+        <v>11.7</v>
       </c>
       <c r="C95" t="n">
-        <v>11.83</v>
+        <v>11.84</v>
       </c>
       <c r="D95" t="n">
-        <v>11.83</v>
+        <v>11.84</v>
       </c>
       <c r="E95" t="n">
-        <v>11.83</v>
+        <v>11.7</v>
       </c>
       <c r="F95" t="n">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="G95" t="n">
-        <v>11.76550000000002</v>
+        <v>11.76500000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.7</v>
+        <v>11.83</v>
       </c>
       <c r="C96" t="n">
-        <v>11.7</v>
+        <v>11.83</v>
       </c>
       <c r="D96" t="n">
-        <v>11.7</v>
+        <v>11.83</v>
       </c>
       <c r="E96" t="n">
-        <v>11.7</v>
+        <v>11.83</v>
       </c>
       <c r="F96" t="n">
-        <v>5496.9448</v>
+        <v>43</v>
       </c>
       <c r="G96" t="n">
-        <v>11.76383333333336</v>
+        <v>11.76550000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.83</v>
+        <v>11.7</v>
       </c>
       <c r="C97" t="n">
-        <v>11.84</v>
+        <v>11.7</v>
       </c>
       <c r="D97" t="n">
-        <v>11.84</v>
+        <v>11.7</v>
       </c>
       <c r="E97" t="n">
-        <v>11.83</v>
+        <v>11.7</v>
       </c>
       <c r="F97" t="n">
-        <v>85.03410422297297</v>
+        <v>5496.9448</v>
       </c>
       <c r="G97" t="n">
-        <v>11.76450000000003</v>
+        <v>11.76383333333336</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.82</v>
+        <v>11.83</v>
       </c>
       <c r="C98" t="n">
-        <v>11.82</v>
+        <v>11.84</v>
       </c>
       <c r="D98" t="n">
-        <v>11.82</v>
+        <v>11.84</v>
       </c>
       <c r="E98" t="n">
-        <v>11.82</v>
+        <v>11.83</v>
       </c>
       <c r="F98" t="n">
-        <v>298</v>
+        <v>85.03410422297297</v>
       </c>
       <c r="G98" t="n">
-        <v>11.76616666666669</v>
+        <v>11.76450000000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.7</v>
+        <v>11.82</v>
       </c>
       <c r="C99" t="n">
-        <v>11.7</v>
+        <v>11.82</v>
       </c>
       <c r="D99" t="n">
-        <v>11.7</v>
+        <v>11.82</v>
       </c>
       <c r="E99" t="n">
-        <v>11.7</v>
+        <v>11.82</v>
       </c>
       <c r="F99" t="n">
-        <v>10298.3164</v>
+        <v>298</v>
       </c>
       <c r="G99" t="n">
-        <v>11.76283333333336</v>
+        <v>11.76616666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>11.7</v>
       </c>
       <c r="F100" t="n">
-        <v>332023.5931</v>
+        <v>10298.3164</v>
       </c>
       <c r="G100" t="n">
-        <v>11.76233333333336</v>
+        <v>11.76283333333336</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>11.7</v>
       </c>
       <c r="F101" t="n">
-        <v>55.9865</v>
+        <v>332023.5931</v>
       </c>
       <c r="G101" t="n">
-        <v>11.7591666666667</v>
+        <v>11.76233333333336</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="C102" t="n">
-        <v>11.78</v>
+        <v>11.7</v>
       </c>
       <c r="D102" t="n">
-        <v>11.78</v>
+        <v>11.7</v>
       </c>
       <c r="E102" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="F102" t="n">
-        <v>1050</v>
+        <v>55.9865</v>
       </c>
       <c r="G102" t="n">
-        <v>11.75983333333336</v>
+        <v>11.7591666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3971,19 @@
         <v>11.69</v>
       </c>
       <c r="C103" t="n">
-        <v>11.69</v>
+        <v>11.78</v>
       </c>
       <c r="D103" t="n">
-        <v>11.69</v>
+        <v>11.78</v>
       </c>
       <c r="E103" t="n">
         <v>11.69</v>
       </c>
       <c r="F103" t="n">
-        <v>49924.8912</v>
+        <v>1050</v>
       </c>
       <c r="G103" t="n">
-        <v>11.7566666666667</v>
+        <v>11.75983333333336</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4006,19 @@
         <v>11.69</v>
       </c>
       <c r="C104" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="D104" t="n">
         <v>11.69</v>
       </c>
       <c r="E104" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="F104" t="n">
-        <v>86715.0543</v>
+        <v>49924.8912</v>
       </c>
       <c r="G104" t="n">
-        <v>11.75200000000003</v>
+        <v>11.7566666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.66</v>
+        <v>11.69</v>
       </c>
       <c r="C105" t="n">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="D105" t="n">
-        <v>11.66</v>
+        <v>11.69</v>
       </c>
       <c r="E105" t="n">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="F105" t="n">
-        <v>59470.0104</v>
+        <v>86715.0543</v>
       </c>
       <c r="G105" t="n">
-        <v>11.74816666666669</v>
+        <v>11.75200000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>11.66</v>
       </c>
       <c r="F106" t="n">
-        <v>146.6596</v>
+        <v>59470.0104</v>
       </c>
       <c r="G106" t="n">
-        <v>11.74366666666669</v>
+        <v>11.74816666666669</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,31 +4108,35 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.7</v>
+        <v>11.66</v>
       </c>
       <c r="C107" t="n">
-        <v>11.7</v>
+        <v>11.66</v>
       </c>
       <c r="D107" t="n">
-        <v>11.7</v>
+        <v>11.66</v>
       </c>
       <c r="E107" t="n">
-        <v>11.7</v>
+        <v>11.66</v>
       </c>
       <c r="F107" t="n">
-        <v>50</v>
+        <v>146.6596</v>
       </c>
       <c r="G107" t="n">
-        <v>11.7406666666667</v>
+        <v>11.74366666666669</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K107" t="n">
+        <v>11.66</v>
+      </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
@@ -4155,20 +4159,28 @@
         <v>11.7</v>
       </c>
       <c r="F108" t="n">
-        <v>893.8201</v>
+        <v>50</v>
       </c>
       <c r="G108" t="n">
-        <v>11.73733333333336</v>
+        <v>11.7406666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K108" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,32 +4190,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="C109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>893.8201</v>
+      </c>
+      <c r="G109" t="n">
+        <v>11.73733333333336</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K109" t="n">
         <v>11.66</v>
       </c>
-      <c r="D109" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E109" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F109" t="n">
-        <v>48195.8077</v>
-      </c>
-      <c r="G109" t="n">
-        <v>11.7341666666667</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4233,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="C110" t="n">
         <v>11.66</v>
       </c>
       <c r="D110" t="n">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="E110" t="n">
         <v>11.66</v>
       </c>
       <c r="F110" t="n">
-        <v>30051.2177</v>
+        <v>48195.8077</v>
       </c>
       <c r="G110" t="n">
-        <v>11.7296666666667</v>
+        <v>11.7341666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4268,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.65</v>
+        <v>11.66</v>
       </c>
       <c r="C111" t="n">
-        <v>11.65</v>
+        <v>11.66</v>
       </c>
       <c r="D111" t="n">
-        <v>11.65</v>
+        <v>11.66</v>
       </c>
       <c r="E111" t="n">
-        <v>11.65</v>
+        <v>11.66</v>
       </c>
       <c r="F111" t="n">
-        <v>17591.4425</v>
+        <v>30051.2177</v>
       </c>
       <c r="G111" t="n">
-        <v>11.7281666666667</v>
+        <v>11.7296666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4315,10 @@
         <v>11.65</v>
       </c>
       <c r="F112" t="n">
-        <v>95626.8493</v>
+        <v>17591.4425</v>
       </c>
       <c r="G112" t="n">
-        <v>11.72650000000003</v>
+        <v>11.7281666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,23 +4350,19 @@
         <v>11.65</v>
       </c>
       <c r="F113" t="n">
-        <v>3495.5741</v>
+        <v>95626.8493</v>
       </c>
       <c r="G113" t="n">
-        <v>11.72500000000003</v>
+        <v>11.72650000000003</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K113" t="n">
-        <v>11.65</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
@@ -4357,40 +4373,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.64</v>
+        <v>11.65</v>
       </c>
       <c r="C114" t="n">
-        <v>11.64</v>
+        <v>11.65</v>
       </c>
       <c r="D114" t="n">
-        <v>11.64</v>
+        <v>11.65</v>
       </c>
       <c r="E114" t="n">
-        <v>11.64</v>
+        <v>11.65</v>
       </c>
       <c r="F114" t="n">
-        <v>45</v>
+        <v>3495.5741</v>
       </c>
       <c r="G114" t="n">
-        <v>11.72333333333336</v>
+        <v>11.72500000000003</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K114" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4400,40 +4408,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.65</v>
+        <v>11.64</v>
       </c>
       <c r="C115" t="n">
-        <v>11.65</v>
+        <v>11.64</v>
       </c>
       <c r="D115" t="n">
-        <v>11.65</v>
+        <v>11.64</v>
       </c>
       <c r="E115" t="n">
-        <v>11.65</v>
+        <v>11.64</v>
       </c>
       <c r="F115" t="n">
-        <v>4806.1848</v>
+        <v>45</v>
       </c>
       <c r="G115" t="n">
-        <v>11.72216666666669</v>
+        <v>11.72333333333336</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="K115" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4443,37 +4443,72 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="C116" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="D116" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="E116" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="F116" t="n">
-        <v>45</v>
+        <v>4806.1848</v>
       </c>
       <c r="G116" t="n">
-        <v>11.72133333333336</v>
+        <v>11.72216666666669</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K116" t="n">
-        <v>11.65</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C117" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E117" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F117" t="n">
+        <v>45</v>
+      </c>
+      <c r="G117" t="n">
+        <v>11.72133333333336</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K117" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>163.1726</v>
       </c>
       <c r="G2" t="n">
+        <v>11.754</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.81233333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>91.8304</v>
       </c>
       <c r="G3" t="n">
+        <v>11.748</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.81400000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>7199.2027</v>
       </c>
       <c r="G4" t="n">
+        <v>11.744</v>
+      </c>
+      <c r="H4" t="n">
         <v>11.81566666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>18012.8154</v>
       </c>
       <c r="G5" t="n">
+        <v>11.74466666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.81866666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>236.6424</v>
       </c>
       <c r="G6" t="n">
+        <v>11.74733333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.82233333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>36687.8368</v>
       </c>
       <c r="G7" t="n">
+        <v>11.74066666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.826</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>9363.270500000001</v>
       </c>
       <c r="G8" t="n">
+        <v>11.734</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.82616666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>21157.3828</v>
       </c>
       <c r="G9" t="n">
+        <v>11.71533333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.82616666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>43</v>
       </c>
       <c r="G10" t="n">
+        <v>11.72133333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.82533333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>8912.5996</v>
       </c>
       <c r="G11" t="n">
+        <v>11.722</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.82183333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>56650.48</v>
       </c>
       <c r="G12" t="n">
+        <v>11.72933333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.81800000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>86</v>
       </c>
       <c r="G13" t="n">
+        <v>11.738</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.81416666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>26083.1437</v>
       </c>
       <c r="G14" t="n">
+        <v>11.74133333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.81033333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>4081.9701</v>
       </c>
       <c r="G15" t="n">
+        <v>11.728</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.80666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>43</v>
       </c>
       <c r="G16" t="n">
+        <v>11.73266666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.80433333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1229264.8005</v>
       </c>
       <c r="G17" t="n">
+        <v>11.73666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.80466666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>29203.3429</v>
       </c>
       <c r="G18" t="n">
+        <v>11.74333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.80466666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>896.4351</v>
       </c>
       <c r="G19" t="n">
+        <v>11.756</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.80933333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>50</v>
       </c>
       <c r="G20" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.81633333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>17890.0403</v>
       </c>
       <c r="G21" t="n">
+        <v>11.78266666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.82333333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>636.419</v>
       </c>
       <c r="G22" t="n">
+        <v>11.79133333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.82550000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>739.2152</v>
       </c>
       <c r="G23" t="n">
+        <v>11.79933333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.82700000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>59.6917</v>
       </c>
       <c r="G24" t="n">
+        <v>11.81266666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.82866666666668</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>20745.131</v>
       </c>
       <c r="G25" t="n">
+        <v>11.816</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.82900000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>196.3248</v>
       </c>
       <c r="G26" t="n">
+        <v>11.824</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.82750000000001</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>8679.080900000001</v>
       </c>
       <c r="G27" t="n">
+        <v>11.82733333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.82783333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>196.3248</v>
       </c>
       <c r="G28" t="n">
+        <v>11.84066666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.83066666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>9175.5394</v>
       </c>
       <c r="G29" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.83200000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>3597.169466502463</v>
       </c>
       <c r="G30" t="n">
+        <v>11.89333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.83850000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>212.3437</v>
       </c>
       <c r="G31" t="n">
+        <v>11.90333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.83866666666668</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>42</v>
       </c>
       <c r="G32" t="n">
+        <v>11.93133333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.84183333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>300013.4274</v>
       </c>
       <c r="G33" t="n">
+        <v>11.93133333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.83866666666668</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>5271.7874</v>
       </c>
       <c r="G34" t="n">
+        <v>11.92533333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.83550000000001</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>11710.0562</v>
       </c>
       <c r="G35" t="n">
+        <v>11.91333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.83383333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2900.2859</v>
       </c>
       <c r="G36" t="n">
+        <v>11.90133333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>11.83066666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>200560.3043</v>
       </c>
       <c r="G37" t="n">
+        <v>11.89466666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>11.82750000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>317803.0321</v>
       </c>
       <c r="G38" t="n">
+        <v>11.88866666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>11.82766666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>103012.6074</v>
       </c>
       <c r="G39" t="n">
+        <v>11.87733333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>11.82316666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>18050.7965</v>
       </c>
       <c r="G40" t="n">
+        <v>11.88333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>11.82150000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>18315.9625</v>
       </c>
       <c r="G41" t="n">
+        <v>11.87800000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>11.81700000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>42.0522</v>
       </c>
       <c r="G42" t="n">
+        <v>11.88333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.81533333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>167455.9039</v>
       </c>
       <c r="G43" t="n">
+        <v>11.86866666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.81116666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>12914.5437</v>
       </c>
       <c r="G44" t="n">
+        <v>11.862</v>
+      </c>
+      <c r="H44" t="n">
         <v>11.80933333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>41.8411</v>
       </c>
       <c r="G45" t="n">
+        <v>11.84666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>11.81200000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>7440.9644</v>
       </c>
       <c r="G46" t="n">
+        <v>11.84533333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>11.81366666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>43</v>
       </c>
       <c r="G47" t="n">
+        <v>11.82866666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>11.81266666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>202</v>
       </c>
       <c r="G48" t="n">
+        <v>11.834</v>
+      </c>
+      <c r="H48" t="n">
         <v>11.81416666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>100</v>
       </c>
       <c r="G49" t="n">
+        <v>11.84066666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>11.81650000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>89.43600000000001</v>
       </c>
       <c r="G50" t="n">
+        <v>11.844</v>
+      </c>
+      <c r="H50" t="n">
         <v>11.81800000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>42</v>
       </c>
       <c r="G51" t="n">
+        <v>11.85266666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>11.82100000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>388221.2182</v>
       </c>
       <c r="G52" t="n">
+        <v>11.84866666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>11.81883333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>141.9677</v>
       </c>
       <c r="G53" t="n">
+        <v>11.84533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>11.81683333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>207.8034</v>
       </c>
       <c r="G54" t="n">
+        <v>11.84666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>11.81300000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>52129.185</v>
       </c>
       <c r="G55" t="n">
+        <v>11.836</v>
+      </c>
+      <c r="H55" t="n">
         <v>11.81416666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>113162.9885</v>
       </c>
       <c r="G56" t="n">
+        <v>11.83533333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>11.81483333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>14359.5957</v>
       </c>
       <c r="G57" t="n">
+        <v>11.824</v>
+      </c>
+      <c r="H57" t="n">
         <v>11.81600000000001</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>9013.5967</v>
       </c>
       <c r="G58" t="n">
+        <v>11.82266666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>11.81750000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>963.6743</v>
       </c>
       <c r="G59" t="n">
+        <v>11.812</v>
+      </c>
+      <c r="H59" t="n">
         <v>11.81883333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>51.2281</v>
       </c>
       <c r="G60" t="n">
+        <v>11.79666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>11.81616666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>100914.9724</v>
       </c>
       <c r="G61" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H61" t="n">
         <v>11.82033333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>86311.5744</v>
       </c>
       <c r="G62" t="n">
+        <v>11.79133333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>11.82200000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>113688.4256</v>
       </c>
       <c r="G63" t="n">
+        <v>11.77933333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>11.82200000000001</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>91766.3458</v>
       </c>
       <c r="G64" t="n">
+        <v>11.76466666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>11.82166666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>43</v>
       </c>
       <c r="G65" t="n">
+        <v>11.768</v>
+      </c>
+      <c r="H65" t="n">
         <v>11.82383333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>46188.1296</v>
       </c>
       <c r="G66" t="n">
+        <v>11.766</v>
+      </c>
+      <c r="H66" t="n">
         <v>11.82566666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>42</v>
       </c>
       <c r="G67" t="n">
+        <v>11.778</v>
+      </c>
+      <c r="H67" t="n">
         <v>11.82816666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>65.7826</v>
       </c>
       <c r="G68" t="n">
+        <v>11.77666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>11.82750000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>51.3966</v>
       </c>
       <c r="G69" t="n">
+        <v>11.776</v>
+      </c>
+      <c r="H69" t="n">
         <v>11.82816666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>78223.58809999999</v>
       </c>
       <c r="G70" t="n">
+        <v>11.77333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>11.82716666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1470.9124</v>
       </c>
       <c r="G71" t="n">
+        <v>11.77199999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>11.82733333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>13841.7187</v>
       </c>
       <c r="G72" t="n">
+        <v>11.77066666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>11.82633333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>45</v>
       </c>
       <c r="G73" t="n">
+        <v>11.76866666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>11.82516666666668</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>445.9176</v>
       </c>
       <c r="G74" t="n">
+        <v>11.76733333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>11.82533333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>28932.1365</v>
       </c>
       <c r="G75" t="n">
+        <v>11.76599999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>11.82566666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>106328.5879</v>
       </c>
       <c r="G76" t="n">
+        <v>11.74999999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>11.82466666666668</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>59752.8523</v>
       </c>
       <c r="G77" t="n">
+        <v>11.74133333333332</v>
+      </c>
+      <c r="H77" t="n">
         <v>11.82316666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>114.052</v>
       </c>
       <c r="G78" t="n">
+        <v>11.74133333333332</v>
+      </c>
+      <c r="H78" t="n">
         <v>11.82150000000001</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>45</v>
       </c>
       <c r="G79" t="n">
+        <v>11.74066666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>11.81783333333335</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>199.3744</v>
       </c>
       <c r="G80" t="n">
+        <v>11.73399999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>11.81483333333335</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>1430</v>
       </c>
       <c r="G81" t="n">
+        <v>11.73199999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>11.81300000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>45</v>
       </c>
       <c r="G82" t="n">
+        <v>11.71533333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>11.80916666666668</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>348.8704</v>
       </c>
       <c r="G83" t="n">
+        <v>11.71199999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>11.80566666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>556.5667</v>
       </c>
       <c r="G84" t="n">
+        <v>11.70999999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>11.80250000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>45</v>
       </c>
       <c r="G85" t="n">
+        <v>11.70866666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>11.80033333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>43456.5603</v>
       </c>
       <c r="G86" t="n">
+        <v>11.70866666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>11.79850000000001</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,25 @@
         <v>55416.9708</v>
       </c>
       <c r="G87" t="n">
+        <v>11.70866666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>11.79666666666668</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L87" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3725,27 @@
         <v>45</v>
       </c>
       <c r="G88" t="n">
+        <v>11.70866666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>11.79216666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3769,27 @@
         <v>45</v>
       </c>
       <c r="G89" t="n">
+        <v>11.70733333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>11.78716666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3813,25 @@
         <v>151</v>
       </c>
       <c r="G90" t="n">
+        <v>11.70733333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>11.77916666666668</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L90" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3855,27 @@
         <v>0.9798</v>
       </c>
       <c r="G91" t="n">
+        <v>11.70733333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>11.77566666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3899,27 @@
         <v>137.778</v>
       </c>
       <c r="G92" t="n">
+        <v>11.70933333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>11.76766666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3943,21 @@
         <v>138.8426</v>
       </c>
       <c r="G93" t="n">
+        <v>11.70933333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>11.76600000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3981,21 @@
         <v>23.3794</v>
       </c>
       <c r="G94" t="n">
+        <v>11.71133333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>11.76433333333335</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4019,21 @@
         <v>143</v>
       </c>
       <c r="G95" t="n">
+        <v>11.71399999999999</v>
+      </c>
+      <c r="H95" t="n">
         <v>11.76500000000002</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4057,21 @@
         <v>43</v>
       </c>
       <c r="G96" t="n">
+        <v>11.71133333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>11.76550000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4095,21 @@
         <v>5496.9448</v>
       </c>
       <c r="G97" t="n">
+        <v>11.71333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>11.76383333333336</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4133,21 @@
         <v>85.03410422297297</v>
       </c>
       <c r="G98" t="n">
+        <v>11.72399999999999</v>
+      </c>
+      <c r="H98" t="n">
         <v>11.76450000000003</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4171,21 @@
         <v>298</v>
       </c>
       <c r="G99" t="n">
+        <v>11.73199999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>11.76616666666669</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4209,21 @@
         <v>10298.3164</v>
       </c>
       <c r="G100" t="n">
+        <v>11.73333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>11.76283333333336</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4247,21 @@
         <v>332023.5931</v>
       </c>
       <c r="G101" t="n">
+        <v>11.73333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>11.76233333333336</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4285,21 @@
         <v>55.9865</v>
       </c>
       <c r="G102" t="n">
+        <v>11.73333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>11.7591666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4323,21 @@
         <v>1050</v>
       </c>
       <c r="G103" t="n">
+        <v>11.73933333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>11.75983333333336</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4361,21 @@
         <v>49924.8912</v>
       </c>
       <c r="G104" t="n">
+        <v>11.73999999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>11.7566666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4399,21 @@
         <v>86715.0543</v>
       </c>
       <c r="G105" t="n">
+        <v>11.73799999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>11.75200000000003</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4437,21 @@
         <v>59470.0104</v>
       </c>
       <c r="G106" t="n">
+        <v>11.73533333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>11.74816666666669</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,22 +4475,21 @@
         <v>146.6596</v>
       </c>
       <c r="G107" t="n">
+        <v>11.73266666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>11.74366666666669</v>
       </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K107" t="n">
-        <v>11.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,69 +4513,71 @@
         <v>50</v>
       </c>
       <c r="G108" t="n">
+        <v>11.73266666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>11.7406666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>11.66</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
         <v>11.66</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>893.8201</v>
+      </c>
+      <c r="G109" t="n">
+        <v>11.73266666666666</v>
+      </c>
+      <c r="H109" t="n">
+        <v>11.73733333333336</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L109" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F109" t="n">
-        <v>893.8201</v>
-      </c>
-      <c r="G109" t="n">
-        <v>11.73733333333336</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K109" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,18 +4601,27 @@
         <v>48195.8077</v>
       </c>
       <c r="G110" t="n">
+        <v>11.72066666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>11.7341666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,18 +4645,27 @@
         <v>30051.2177</v>
       </c>
       <c r="G111" t="n">
+        <v>11.70933333333332</v>
+      </c>
+      <c r="H111" t="n">
         <v>11.7296666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,18 +4689,27 @@
         <v>17591.4425</v>
       </c>
       <c r="G112" t="n">
+        <v>11.70599999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>11.7281666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,18 +4733,27 @@
         <v>95626.8493</v>
       </c>
       <c r="G113" t="n">
+        <v>11.69333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>11.72650000000003</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,18 +4777,27 @@
         <v>3495.5741</v>
       </c>
       <c r="G114" t="n">
+        <v>11.68199999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>11.72500000000003</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,18 +4821,29 @@
         <v>45</v>
       </c>
       <c r="G115" t="n">
+        <v>11.67799999999999</v>
+      </c>
+      <c r="H115" t="n">
         <v>11.72333333333336</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L115" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,18 +4867,29 @@
         <v>4806.1848</v>
       </c>
       <c r="G116" t="n">
+        <v>11.67466666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>11.72216666666669</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="L116" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,22 +4913,489 @@
         <v>45</v>
       </c>
       <c r="G117" t="n">
+        <v>11.67266666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>11.72133333333336</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>11.65</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>11.65</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C118" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D118" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F118" t="n">
+        <v>53587.8672</v>
+      </c>
+      <c r="G118" t="n">
+        <v>11.66533333333333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>11.72050000000002</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L118" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E119" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F119" t="n">
+        <v>45</v>
+      </c>
+      <c r="G119" t="n">
+        <v>11.66199999999999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>11.71916666666669</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L119" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>11.66199999999999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>11.71833333333336</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="L120" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E121" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>11.66266666666666</v>
+      </c>
+      <c r="H121" t="n">
+        <v>11.71383333333335</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L121" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C122" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E122" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21070.3002</v>
+      </c>
+      <c r="G122" t="n">
+        <v>11.66466666666666</v>
+      </c>
+      <c r="H122" t="n">
+        <v>11.71200000000002</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L122" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C123" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>11.66399999999999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>11.71183333333336</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L123" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>11.66333333333333</v>
+      </c>
+      <c r="H124" t="n">
+        <v>11.71200000000002</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L124" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F125" t="n">
+        <v>57813.0389</v>
+      </c>
+      <c r="G125" t="n">
+        <v>11.66866666666666</v>
+      </c>
+      <c r="H125" t="n">
+        <v>11.70933333333336</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L125" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C126" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>11.674</v>
+      </c>
+      <c r="H126" t="n">
+        <v>11.70666666666669</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="L126" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F127" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="H127" t="n">
+        <v>11.70366666666669</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="L127" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="D2" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="E2" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="F2" t="n">
-        <v>163.1726</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>11.754</v>
+        <v>-918407.4174332117</v>
       </c>
       <c r="H2" t="n">
-        <v>11.81233333333334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="D3" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="E3" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="F3" t="n">
-        <v>91.8304</v>
+        <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>11.748</v>
+        <v>-918407.4174332117</v>
       </c>
       <c r="H3" t="n">
-        <v>11.81400000000001</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C4" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D4" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E4" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F4" t="n">
-        <v>7199.2027</v>
+        <v>25675.9086</v>
       </c>
       <c r="G4" t="n">
-        <v>11.744</v>
+        <v>-944083.3260332117</v>
       </c>
       <c r="H4" t="n">
-        <v>11.81566666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="C5" t="n">
-        <v>11.77</v>
+        <v>11.99</v>
       </c>
       <c r="D5" t="n">
-        <v>11.77</v>
+        <v>11.99</v>
       </c>
       <c r="E5" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="F5" t="n">
-        <v>18012.8154</v>
+        <v>50482.9519</v>
       </c>
       <c r="G5" t="n">
-        <v>11.74466666666667</v>
+        <v>-893600.3741332117</v>
       </c>
       <c r="H5" t="n">
-        <v>11.81866666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.79</v>
+        <v>11.9</v>
       </c>
       <c r="C6" t="n">
-        <v>11.79</v>
+        <v>11.99</v>
       </c>
       <c r="D6" t="n">
-        <v>11.79</v>
+        <v>11.99</v>
       </c>
       <c r="E6" t="n">
-        <v>11.79</v>
+        <v>11.9</v>
       </c>
       <c r="F6" t="n">
-        <v>236.6424</v>
+        <v>1182.7173</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74733333333333</v>
+        <v>-893600.3741332117</v>
       </c>
       <c r="H6" t="n">
-        <v>11.82233333333334</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="C7" t="n">
-        <v>11.77</v>
+        <v>11.79</v>
       </c>
       <c r="D7" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="E7" t="n">
-        <v>11.77</v>
+        <v>11.79</v>
       </c>
       <c r="F7" t="n">
-        <v>36687.8368</v>
+        <v>40822.3338</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74066666666667</v>
+        <v>-934422.7079332117</v>
       </c>
       <c r="H7" t="n">
-        <v>11.826</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.77</v>
+        <v>11.99</v>
       </c>
       <c r="C8" t="n">
-        <v>11.77</v>
+        <v>11.99</v>
       </c>
       <c r="D8" t="n">
-        <v>11.77</v>
+        <v>11.99</v>
       </c>
       <c r="E8" t="n">
-        <v>11.77</v>
+        <v>11.99</v>
       </c>
       <c r="F8" t="n">
-        <v>9363.270500000001</v>
+        <v>42</v>
       </c>
       <c r="G8" t="n">
-        <v>11.734</v>
+        <v>-934380.7079332117</v>
       </c>
       <c r="H8" t="n">
-        <v>11.82616666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="C9" t="n">
-        <v>11.69</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>11.69</v>
+        <v>11.99</v>
       </c>
       <c r="F9" t="n">
-        <v>21157.3828</v>
+        <v>30039.6757</v>
       </c>
       <c r="G9" t="n">
-        <v>11.71533333333334</v>
+        <v>-904341.0322332117</v>
       </c>
       <c r="H9" t="n">
-        <v>11.82616666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.76</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>11.76</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>11.76</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>11.76</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>136421.0897</v>
       </c>
       <c r="G10" t="n">
-        <v>11.72133333333334</v>
+        <v>-904341.0322332117</v>
       </c>
       <c r="H10" t="n">
-        <v>11.82533333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.69</v>
+        <v>11.99</v>
       </c>
       <c r="C11" t="n">
-        <v>11.69</v>
+        <v>11.99</v>
       </c>
       <c r="D11" t="n">
-        <v>11.69</v>
+        <v>11.99</v>
       </c>
       <c r="E11" t="n">
-        <v>11.69</v>
+        <v>11.99</v>
       </c>
       <c r="F11" t="n">
-        <v>8912.5996</v>
+        <v>364.4738</v>
       </c>
       <c r="G11" t="n">
-        <v>11.722</v>
+        <v>-904705.5060332117</v>
       </c>
       <c r="H11" t="n">
-        <v>11.82183333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.76</v>
+        <v>11.99</v>
       </c>
       <c r="C12" t="n">
-        <v>11.76</v>
+        <v>11.99</v>
       </c>
       <c r="D12" t="n">
-        <v>11.76</v>
+        <v>11.99</v>
       </c>
       <c r="E12" t="n">
-        <v>11.76</v>
+        <v>11.99</v>
       </c>
       <c r="F12" t="n">
-        <v>56650.48</v>
+        <v>196.9341</v>
       </c>
       <c r="G12" t="n">
-        <v>11.72933333333333</v>
+        <v>-904705.5060332117</v>
       </c>
       <c r="H12" t="n">
-        <v>11.81800000000001</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.76</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>11.76</v>
+        <v>11.99</v>
       </c>
       <c r="D13" t="n">
-        <v>11.76</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>11.76</v>
+        <v>11.99</v>
       </c>
       <c r="F13" t="n">
-        <v>86</v>
+        <v>243.0763</v>
       </c>
       <c r="G13" t="n">
-        <v>11.738</v>
+        <v>-904705.5060332117</v>
       </c>
       <c r="H13" t="n">
-        <v>11.81416666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.69</v>
+        <v>11.9</v>
       </c>
       <c r="C14" t="n">
-        <v>11.69</v>
+        <v>11.79</v>
       </c>
       <c r="D14" t="n">
-        <v>11.69</v>
+        <v>11.9</v>
       </c>
       <c r="E14" t="n">
-        <v>11.69</v>
+        <v>11.79</v>
       </c>
       <c r="F14" t="n">
-        <v>26083.1437</v>
+        <v>95340.5229</v>
       </c>
       <c r="G14" t="n">
-        <v>11.74133333333333</v>
+        <v>-1000046.028933212</v>
       </c>
       <c r="H14" t="n">
-        <v>11.81033333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.68</v>
+        <v>11.79</v>
       </c>
       <c r="C15" t="n">
-        <v>11.68</v>
+        <v>11.79</v>
       </c>
       <c r="D15" t="n">
-        <v>11.68</v>
+        <v>11.79</v>
       </c>
       <c r="E15" t="n">
-        <v>11.68</v>
+        <v>11.79</v>
       </c>
       <c r="F15" t="n">
-        <v>4081.9701</v>
+        <v>93891.5295</v>
       </c>
       <c r="G15" t="n">
-        <v>11.728</v>
+        <v>-1000046.028933212</v>
       </c>
       <c r="H15" t="n">
-        <v>11.80666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.76</v>
+        <v>11.99</v>
       </c>
       <c r="C16" t="n">
-        <v>11.76</v>
+        <v>11.99</v>
       </c>
       <c r="D16" t="n">
-        <v>11.76</v>
+        <v>11.99</v>
       </c>
       <c r="E16" t="n">
-        <v>11.76</v>
+        <v>11.99</v>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" t="n">
-        <v>11.73266666666667</v>
+        <v>-1000004.028933212</v>
       </c>
       <c r="H16" t="n">
-        <v>11.80433333333334</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.76</v>
+        <v>11.79</v>
       </c>
       <c r="C17" t="n">
-        <v>11.76</v>
+        <v>11.79</v>
       </c>
       <c r="D17" t="n">
-        <v>11.76</v>
+        <v>11.79</v>
       </c>
       <c r="E17" t="n">
-        <v>11.76</v>
+        <v>11.79</v>
       </c>
       <c r="F17" t="n">
-        <v>1229264.8005</v>
+        <v>2166.5412</v>
       </c>
       <c r="G17" t="n">
-        <v>11.73666666666667</v>
+        <v>-1002170.570133212</v>
       </c>
       <c r="H17" t="n">
-        <v>11.80466666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.79</v>
+        <v>11.76</v>
       </c>
       <c r="C18" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="D18" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="E18" t="n">
-        <v>11.79</v>
+        <v>11.76</v>
       </c>
       <c r="F18" t="n">
-        <v>29203.3429</v>
+        <v>10611.8934</v>
       </c>
       <c r="G18" t="n">
-        <v>11.74333333333334</v>
+        <v>-1012782.463533212</v>
       </c>
       <c r="H18" t="n">
-        <v>11.80466666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="C19" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="D19" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="E19" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="F19" t="n">
-        <v>896.4351</v>
+        <v>4550.7041</v>
       </c>
       <c r="G19" t="n">
-        <v>11.756</v>
+        <v>-1012782.463533212</v>
       </c>
       <c r="H19" t="n">
-        <v>11.80933333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.98</v>
+        <v>11.75</v>
       </c>
       <c r="C20" t="n">
-        <v>11.98</v>
+        <v>11.75</v>
       </c>
       <c r="D20" t="n">
-        <v>11.98</v>
+        <v>11.75</v>
       </c>
       <c r="E20" t="n">
-        <v>11.98</v>
+        <v>11.75</v>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>3768.6869</v>
       </c>
       <c r="G20" t="n">
-        <v>11.77</v>
+        <v>-1016551.150433212</v>
       </c>
       <c r="H20" t="n">
-        <v>11.81633333333334</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.98</v>
+        <v>11.87</v>
       </c>
       <c r="C21" t="n">
-        <v>11.98</v>
+        <v>11.87</v>
       </c>
       <c r="D21" t="n">
-        <v>11.98</v>
+        <v>11.87</v>
       </c>
       <c r="E21" t="n">
-        <v>11.98</v>
+        <v>11.87</v>
       </c>
       <c r="F21" t="n">
-        <v>17890.0403</v>
+        <v>22556.1611</v>
       </c>
       <c r="G21" t="n">
-        <v>11.78266666666667</v>
+        <v>-993994.9893332117</v>
       </c>
       <c r="H21" t="n">
-        <v>11.82333333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="C22" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="D22" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="E22" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="F22" t="n">
-        <v>636.419</v>
+        <v>35901</v>
       </c>
       <c r="G22" t="n">
-        <v>11.79133333333333</v>
+        <v>-993994.9893332117</v>
       </c>
       <c r="H22" t="n">
-        <v>11.82550000000001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.89</v>
+        <v>11.97</v>
       </c>
       <c r="C23" t="n">
-        <v>11.89</v>
+        <v>11.97</v>
       </c>
       <c r="D23" t="n">
-        <v>11.89</v>
+        <v>11.97</v>
       </c>
       <c r="E23" t="n">
-        <v>11.89</v>
+        <v>11.97</v>
       </c>
       <c r="F23" t="n">
-        <v>739.2152</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
-        <v>11.79933333333333</v>
+        <v>-993952.9893332117</v>
       </c>
       <c r="H23" t="n">
-        <v>11.82700000000001</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.89</v>
+        <v>11.87</v>
       </c>
       <c r="C24" t="n">
-        <v>11.89</v>
+        <v>11.67</v>
       </c>
       <c r="D24" t="n">
-        <v>11.89</v>
+        <v>11.87</v>
       </c>
       <c r="E24" t="n">
-        <v>11.89</v>
+        <v>11.67</v>
       </c>
       <c r="F24" t="n">
-        <v>59.6917</v>
+        <v>9673.2376</v>
       </c>
       <c r="G24" t="n">
-        <v>11.81266666666667</v>
+        <v>-1003626.226933212</v>
       </c>
       <c r="H24" t="n">
-        <v>11.82866666666668</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.81</v>
+        <v>11.68</v>
       </c>
       <c r="C25" t="n">
-        <v>11.81</v>
+        <v>11.68</v>
       </c>
       <c r="D25" t="n">
-        <v>11.81</v>
+        <v>11.68</v>
       </c>
       <c r="E25" t="n">
-        <v>11.81</v>
+        <v>11.68</v>
       </c>
       <c r="F25" t="n">
-        <v>20745.131</v>
+        <v>386.5928</v>
       </c>
       <c r="G25" t="n">
-        <v>11.816</v>
+        <v>-1003239.634133212</v>
       </c>
       <c r="H25" t="n">
-        <v>11.82900000000001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.81</v>
+        <v>11.67</v>
       </c>
       <c r="C26" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="D26" t="n">
-        <v>11.81</v>
+        <v>11.67</v>
       </c>
       <c r="E26" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="F26" t="n">
-        <v>196.3248</v>
+        <v>55122.9253</v>
       </c>
       <c r="G26" t="n">
-        <v>11.824</v>
+        <v>-1058362.559433212</v>
       </c>
       <c r="H26" t="n">
-        <v>11.82750000000001</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="C27" t="n">
-        <v>11.81</v>
+        <v>11.63</v>
       </c>
       <c r="D27" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="E27" t="n">
-        <v>11.81</v>
+        <v>11.63</v>
       </c>
       <c r="F27" t="n">
-        <v>8679.080900000001</v>
+        <v>78417.0729</v>
       </c>
       <c r="G27" t="n">
-        <v>11.82733333333334</v>
+        <v>-1136779.632333212</v>
       </c>
       <c r="H27" t="n">
-        <v>11.82783333333334</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.96</v>
+        <v>11.7</v>
       </c>
       <c r="C28" t="n">
-        <v>11.96</v>
+        <v>11.64</v>
       </c>
       <c r="D28" t="n">
-        <v>11.96</v>
+        <v>11.7</v>
       </c>
       <c r="E28" t="n">
-        <v>11.96</v>
+        <v>11.64</v>
       </c>
       <c r="F28" t="n">
-        <v>196.3248</v>
+        <v>14576.0323</v>
       </c>
       <c r="G28" t="n">
-        <v>11.84066666666667</v>
+        <v>-1122203.600033212</v>
       </c>
       <c r="H28" t="n">
-        <v>11.83066666666668</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.98</v>
+        <v>11.57</v>
       </c>
       <c r="C29" t="n">
-        <v>11.98</v>
+        <v>11.88</v>
       </c>
       <c r="D29" t="n">
-        <v>11.98</v>
+        <v>11.88</v>
       </c>
       <c r="E29" t="n">
-        <v>11.98</v>
+        <v>11.56</v>
       </c>
       <c r="F29" t="n">
-        <v>9175.5394</v>
+        <v>14795.2141</v>
       </c>
       <c r="G29" t="n">
-        <v>11.86</v>
+        <v>-1107408.385933212</v>
       </c>
       <c r="H29" t="n">
-        <v>11.83200000000001</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="C30" t="n">
-        <v>12.18</v>
+        <v>11.69</v>
       </c>
       <c r="D30" t="n">
-        <v>12.18</v>
+        <v>11.69</v>
       </c>
       <c r="E30" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="F30" t="n">
-        <v>3597.169466502463</v>
+        <v>15077.597</v>
       </c>
       <c r="G30" t="n">
-        <v>11.89333333333334</v>
+        <v>-1122485.982933212</v>
       </c>
       <c r="H30" t="n">
-        <v>11.83850000000001</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.91</v>
+        <v>11.7</v>
       </c>
       <c r="C31" t="n">
-        <v>11.91</v>
+        <v>11.7</v>
       </c>
       <c r="D31" t="n">
-        <v>11.91</v>
+        <v>11.7</v>
       </c>
       <c r="E31" t="n">
-        <v>11.91</v>
+        <v>11.7</v>
       </c>
       <c r="F31" t="n">
-        <v>212.3437</v>
+        <v>163.1726</v>
       </c>
       <c r="G31" t="n">
-        <v>11.90333333333334</v>
+        <v>-1122322.810333212</v>
       </c>
       <c r="H31" t="n">
-        <v>11.83866666666668</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.18</v>
+        <v>11.7</v>
       </c>
       <c r="C32" t="n">
-        <v>12.18</v>
+        <v>11.7</v>
       </c>
       <c r="D32" t="n">
-        <v>12.18</v>
+        <v>11.7</v>
       </c>
       <c r="E32" t="n">
-        <v>12.18</v>
+        <v>11.7</v>
       </c>
       <c r="F32" t="n">
-        <v>42</v>
+        <v>91.8304</v>
       </c>
       <c r="G32" t="n">
-        <v>11.93133333333334</v>
+        <v>-1122322.810333212</v>
       </c>
       <c r="H32" t="n">
-        <v>11.84183333333334</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1522,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.95</v>
+        <v>11.7</v>
       </c>
       <c r="C33" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D33" t="n">
-        <v>11.95</v>
+        <v>11.7</v>
       </c>
       <c r="E33" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F33" t="n">
-        <v>300013.4274</v>
+        <v>7199.2027</v>
       </c>
       <c r="G33" t="n">
-        <v>11.93133333333334</v>
+        <v>-1122322.810333212</v>
       </c>
       <c r="H33" t="n">
-        <v>11.83866666666668</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1563,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C34" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="D34" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="E34" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F34" t="n">
-        <v>5271.7874</v>
+        <v>18012.8154</v>
       </c>
       <c r="G34" t="n">
-        <v>11.92533333333334</v>
+        <v>-1104309.994933212</v>
       </c>
       <c r="H34" t="n">
-        <v>11.83550000000001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1604,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="C35" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="D35" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="E35" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="F35" t="n">
-        <v>11710.0562</v>
+        <v>236.6424</v>
       </c>
       <c r="G35" t="n">
-        <v>11.91333333333334</v>
+        <v>-1104073.352533212</v>
       </c>
       <c r="H35" t="n">
-        <v>11.83383333333334</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1645,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="C36" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="D36" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="E36" t="n">
-        <v>11.72</v>
+        <v>11.77</v>
       </c>
       <c r="F36" t="n">
-        <v>2900.2859</v>
+        <v>36687.8368</v>
       </c>
       <c r="G36" t="n">
-        <v>11.90133333333334</v>
+        <v>-1140761.189333212</v>
       </c>
       <c r="H36" t="n">
-        <v>11.83066666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1686,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="C37" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="D37" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="E37" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="F37" t="n">
-        <v>200560.3043</v>
+        <v>9363.270500000001</v>
       </c>
       <c r="G37" t="n">
-        <v>11.89466666666667</v>
+        <v>-1140761.189333212</v>
       </c>
       <c r="H37" t="n">
-        <v>11.82750000000001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1727,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C38" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="D38" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E38" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="F38" t="n">
-        <v>317803.0321</v>
+        <v>21157.3828</v>
       </c>
       <c r="G38" t="n">
-        <v>11.88866666666667</v>
+        <v>-1161918.572133212</v>
       </c>
       <c r="H38" t="n">
-        <v>11.82766666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1768,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.79</v>
+        <v>11.76</v>
       </c>
       <c r="C39" t="n">
-        <v>11.72</v>
+        <v>11.76</v>
       </c>
       <c r="D39" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="E39" t="n">
-        <v>11.72</v>
+        <v>11.76</v>
       </c>
       <c r="F39" t="n">
-        <v>103012.6074</v>
+        <v>43</v>
       </c>
       <c r="G39" t="n">
-        <v>11.87733333333334</v>
+        <v>-1161875.572133212</v>
       </c>
       <c r="H39" t="n">
-        <v>11.82316666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1809,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.9</v>
+        <v>11.69</v>
       </c>
       <c r="C40" t="n">
-        <v>11.9</v>
+        <v>11.69</v>
       </c>
       <c r="D40" t="n">
-        <v>11.9</v>
+        <v>11.69</v>
       </c>
       <c r="E40" t="n">
-        <v>11.9</v>
+        <v>11.69</v>
       </c>
       <c r="F40" t="n">
-        <v>18050.7965</v>
+        <v>8912.5996</v>
       </c>
       <c r="G40" t="n">
-        <v>11.88333333333334</v>
+        <v>-1170788.171733212</v>
       </c>
       <c r="H40" t="n">
-        <v>11.82150000000001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1850,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.73</v>
+        <v>11.76</v>
       </c>
       <c r="C41" t="n">
-        <v>11.73</v>
+        <v>11.76</v>
       </c>
       <c r="D41" t="n">
-        <v>11.73</v>
+        <v>11.76</v>
       </c>
       <c r="E41" t="n">
-        <v>11.73</v>
+        <v>11.76</v>
       </c>
       <c r="F41" t="n">
-        <v>18315.9625</v>
+        <v>56650.48</v>
       </c>
       <c r="G41" t="n">
-        <v>11.87800000000001</v>
+        <v>-1114137.691733212</v>
       </c>
       <c r="H41" t="n">
-        <v>11.81700000000001</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1891,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="C42" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="D42" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="E42" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="F42" t="n">
-        <v>42.0522</v>
+        <v>86</v>
       </c>
       <c r="G42" t="n">
-        <v>11.88333333333334</v>
+        <v>-1114137.691733212</v>
       </c>
       <c r="H42" t="n">
-        <v>11.81533333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1932,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.89</v>
+        <v>11.69</v>
       </c>
       <c r="C43" t="n">
-        <v>11.74</v>
+        <v>11.69</v>
       </c>
       <c r="D43" t="n">
-        <v>11.89</v>
+        <v>11.69</v>
       </c>
       <c r="E43" t="n">
-        <v>11.74</v>
+        <v>11.69</v>
       </c>
       <c r="F43" t="n">
-        <v>167455.9039</v>
+        <v>26083.1437</v>
       </c>
       <c r="G43" t="n">
-        <v>11.86866666666667</v>
+        <v>-1140220.835433212</v>
       </c>
       <c r="H43" t="n">
-        <v>11.81116666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1973,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.74</v>
+        <v>11.68</v>
       </c>
       <c r="C44" t="n">
-        <v>11.88</v>
+        <v>11.68</v>
       </c>
       <c r="D44" t="n">
-        <v>11.88</v>
+        <v>11.68</v>
       </c>
       <c r="E44" t="n">
-        <v>11.74</v>
+        <v>11.68</v>
       </c>
       <c r="F44" t="n">
-        <v>12914.5437</v>
+        <v>4081.9701</v>
       </c>
       <c r="G44" t="n">
-        <v>11.862</v>
+        <v>-1144302.805533212</v>
       </c>
       <c r="H44" t="n">
-        <v>11.80933333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2014,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.95</v>
+        <v>11.76</v>
       </c>
       <c r="C45" t="n">
-        <v>11.95</v>
+        <v>11.76</v>
       </c>
       <c r="D45" t="n">
-        <v>11.95</v>
+        <v>11.76</v>
       </c>
       <c r="E45" t="n">
-        <v>11.95</v>
+        <v>11.76</v>
       </c>
       <c r="F45" t="n">
-        <v>41.8411</v>
+        <v>43</v>
       </c>
       <c r="G45" t="n">
-        <v>11.84666666666667</v>
+        <v>-1144259.805533212</v>
       </c>
       <c r="H45" t="n">
-        <v>11.81200000000001</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2055,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="C46" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="D46" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="E46" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="F46" t="n">
-        <v>7440.9644</v>
+        <v>1229264.8005</v>
       </c>
       <c r="G46" t="n">
-        <v>11.84533333333334</v>
+        <v>-1144259.805533212</v>
       </c>
       <c r="H46" t="n">
-        <v>11.81366666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2096,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.93</v>
+        <v>11.79</v>
       </c>
       <c r="C47" t="n">
-        <v>11.93</v>
+        <v>11.8</v>
       </c>
       <c r="D47" t="n">
-        <v>11.93</v>
+        <v>11.8</v>
       </c>
       <c r="E47" t="n">
-        <v>11.93</v>
+        <v>11.79</v>
       </c>
       <c r="F47" t="n">
-        <v>43</v>
+        <v>29203.3429</v>
       </c>
       <c r="G47" t="n">
-        <v>11.82866666666667</v>
+        <v>-1115056.462633212</v>
       </c>
       <c r="H47" t="n">
-        <v>11.81266666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2137,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="C48" t="n">
-        <v>11.88</v>
+        <v>11.89</v>
       </c>
       <c r="D48" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="E48" t="n">
-        <v>11.88</v>
+        <v>11.89</v>
       </c>
       <c r="F48" t="n">
-        <v>202</v>
+        <v>896.4351</v>
       </c>
       <c r="G48" t="n">
-        <v>11.834</v>
+        <v>-1114160.027533212</v>
       </c>
       <c r="H48" t="n">
-        <v>11.81416666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2178,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="C49" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="D49" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="E49" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>11.84066666666667</v>
+        <v>-1114110.027533212</v>
       </c>
       <c r="H49" t="n">
-        <v>11.81650000000001</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2219,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="C50" t="n">
-        <v>11.85</v>
+        <v>11.98</v>
       </c>
       <c r="D50" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="E50" t="n">
-        <v>11.85</v>
+        <v>11.98</v>
       </c>
       <c r="F50" t="n">
-        <v>89.43600000000001</v>
+        <v>17890.0403</v>
       </c>
       <c r="G50" t="n">
-        <v>11.844</v>
+        <v>-1114110.027533212</v>
       </c>
       <c r="H50" t="n">
-        <v>11.81800000000001</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2260,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
       <c r="C51" t="n">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
       <c r="D51" t="n">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
       <c r="E51" t="n">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
       <c r="F51" t="n">
-        <v>42</v>
+        <v>636.419</v>
       </c>
       <c r="G51" t="n">
-        <v>11.85266666666667</v>
+        <v>-1114746.446533212</v>
       </c>
       <c r="H51" t="n">
-        <v>11.82100000000001</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2301,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.77</v>
+        <v>11.89</v>
       </c>
       <c r="C52" t="n">
-        <v>11.74</v>
+        <v>11.89</v>
       </c>
       <c r="D52" t="n">
-        <v>11.77</v>
+        <v>11.89</v>
       </c>
       <c r="E52" t="n">
-        <v>11.74</v>
+        <v>11.89</v>
       </c>
       <c r="F52" t="n">
-        <v>388221.2182</v>
+        <v>739.2152</v>
       </c>
       <c r="G52" t="n">
-        <v>11.84866666666667</v>
+        <v>-1115485.661733212</v>
       </c>
       <c r="H52" t="n">
-        <v>11.81883333333334</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2342,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.75</v>
+        <v>11.89</v>
       </c>
       <c r="C53" t="n">
-        <v>11.75</v>
+        <v>11.89</v>
       </c>
       <c r="D53" t="n">
-        <v>11.75</v>
+        <v>11.89</v>
       </c>
       <c r="E53" t="n">
-        <v>11.75</v>
+        <v>11.89</v>
       </c>
       <c r="F53" t="n">
-        <v>141.9677</v>
+        <v>59.6917</v>
       </c>
       <c r="G53" t="n">
-        <v>11.84533333333333</v>
+        <v>-1115485.661733212</v>
       </c>
       <c r="H53" t="n">
-        <v>11.81683333333334</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2383,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.74</v>
+        <v>11.81</v>
       </c>
       <c r="C54" t="n">
-        <v>11.74</v>
+        <v>11.81</v>
       </c>
       <c r="D54" t="n">
-        <v>11.74</v>
+        <v>11.81</v>
       </c>
       <c r="E54" t="n">
-        <v>11.74</v>
+        <v>11.81</v>
       </c>
       <c r="F54" t="n">
-        <v>207.8034</v>
+        <v>20745.131</v>
       </c>
       <c r="G54" t="n">
-        <v>11.84666666666667</v>
+        <v>-1136230.792733212</v>
       </c>
       <c r="H54" t="n">
-        <v>11.81300000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2424,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.75</v>
+        <v>11.81</v>
       </c>
       <c r="C55" t="n">
-        <v>11.74</v>
+        <v>11.81</v>
       </c>
       <c r="D55" t="n">
-        <v>11.75</v>
+        <v>11.81</v>
       </c>
       <c r="E55" t="n">
-        <v>11.74</v>
+        <v>11.81</v>
       </c>
       <c r="F55" t="n">
-        <v>52129.185</v>
+        <v>196.3248</v>
       </c>
       <c r="G55" t="n">
-        <v>11.836</v>
+        <v>-1136230.792733212</v>
       </c>
       <c r="H55" t="n">
-        <v>11.81416666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2465,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.74</v>
+        <v>11.81</v>
       </c>
       <c r="C56" t="n">
-        <v>11.72</v>
+        <v>11.81</v>
       </c>
       <c r="D56" t="n">
-        <v>11.74</v>
+        <v>11.81</v>
       </c>
       <c r="E56" t="n">
-        <v>11.72</v>
+        <v>11.81</v>
       </c>
       <c r="F56" t="n">
-        <v>113162.9885</v>
+        <v>8679.080900000001</v>
       </c>
       <c r="G56" t="n">
-        <v>11.83533333333333</v>
+        <v>-1136230.792733212</v>
       </c>
       <c r="H56" t="n">
-        <v>11.81483333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2506,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.72</v>
+        <v>11.96</v>
       </c>
       <c r="C57" t="n">
-        <v>11.72</v>
+        <v>11.96</v>
       </c>
       <c r="D57" t="n">
-        <v>11.72</v>
+        <v>11.96</v>
       </c>
       <c r="E57" t="n">
-        <v>11.72</v>
+        <v>11.96</v>
       </c>
       <c r="F57" t="n">
-        <v>14359.5957</v>
+        <v>196.3248</v>
       </c>
       <c r="G57" t="n">
-        <v>11.824</v>
+        <v>-1136034.467933212</v>
       </c>
       <c r="H57" t="n">
-        <v>11.81600000000001</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2547,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.72</v>
+        <v>11.98</v>
       </c>
       <c r="C58" t="n">
-        <v>11.72</v>
+        <v>11.98</v>
       </c>
       <c r="D58" t="n">
-        <v>11.72</v>
+        <v>11.98</v>
       </c>
       <c r="E58" t="n">
-        <v>11.72</v>
+        <v>11.98</v>
       </c>
       <c r="F58" t="n">
-        <v>9013.5967</v>
+        <v>9175.5394</v>
       </c>
       <c r="G58" t="n">
-        <v>11.82266666666667</v>
+        <v>-1126858.928533212</v>
       </c>
       <c r="H58" t="n">
-        <v>11.81750000000001</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2588,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.69</v>
+        <v>11.98</v>
       </c>
       <c r="C59" t="n">
-        <v>11.72</v>
+        <v>12.18</v>
       </c>
       <c r="D59" t="n">
-        <v>11.72</v>
+        <v>12.18</v>
       </c>
       <c r="E59" t="n">
-        <v>11.69</v>
+        <v>11.98</v>
       </c>
       <c r="F59" t="n">
-        <v>963.6743</v>
+        <v>3597.169466502463</v>
       </c>
       <c r="G59" t="n">
-        <v>11.812</v>
+        <v>-1123261.759066709</v>
       </c>
       <c r="H59" t="n">
-        <v>11.81883333333334</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,37 +2629,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.72</v>
+        <v>11.91</v>
       </c>
       <c r="C60" t="n">
-        <v>11.72</v>
+        <v>11.91</v>
       </c>
       <c r="D60" t="n">
-        <v>11.72</v>
+        <v>11.91</v>
       </c>
       <c r="E60" t="n">
-        <v>11.72</v>
+        <v>11.91</v>
       </c>
       <c r="F60" t="n">
-        <v>51.2281</v>
+        <v>212.3437</v>
       </c>
       <c r="G60" t="n">
-        <v>11.79666666666667</v>
+        <v>-1123474.102766709</v>
       </c>
       <c r="H60" t="n">
-        <v>11.81616666666668</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>1.012948717948718</v>
       </c>
     </row>
     <row r="61">
@@ -2680,36 +2670,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.72</v>
+        <v>12.18</v>
       </c>
       <c r="C61" t="n">
-        <v>11.94</v>
+        <v>12.18</v>
       </c>
       <c r="D61" t="n">
-        <v>11.94</v>
+        <v>12.18</v>
       </c>
       <c r="E61" t="n">
-        <v>11.72</v>
+        <v>12.18</v>
       </c>
       <c r="F61" t="n">
-        <v>100914.9724</v>
+        <v>42</v>
       </c>
       <c r="G61" t="n">
-        <v>11.8</v>
+        <v>-1123432.102766709</v>
       </c>
       <c r="H61" t="n">
-        <v>11.82033333333334</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2705,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.8</v>
+        <v>11.95</v>
       </c>
       <c r="C62" t="n">
         <v>11.8</v>
       </c>
       <c r="D62" t="n">
-        <v>11.8</v>
+        <v>11.95</v>
       </c>
       <c r="E62" t="n">
         <v>11.8</v>
       </c>
       <c r="F62" t="n">
-        <v>86311.5744</v>
+        <v>300013.4274</v>
       </c>
       <c r="G62" t="n">
-        <v>11.79133333333333</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H62" t="n">
-        <v>11.82200000000001</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2740,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C63" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D63" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E63" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F63" t="n">
-        <v>113688.4256</v>
+        <v>5271.7874</v>
       </c>
       <c r="G63" t="n">
-        <v>11.77933333333333</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H63" t="n">
-        <v>11.82200000000001</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2775,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C64" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="D64" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E64" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="F64" t="n">
-        <v>91766.3458</v>
+        <v>11710.0562</v>
       </c>
       <c r="G64" t="n">
-        <v>11.76466666666667</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H64" t="n">
-        <v>11.82166666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2810,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C65" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D65" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E65" t="n">
-        <v>11.9</v>
+        <v>11.72</v>
       </c>
       <c r="F65" t="n">
-        <v>43</v>
+        <v>2900.2859</v>
       </c>
       <c r="G65" t="n">
-        <v>11.768</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H65" t="n">
-        <v>11.82383333333334</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2845,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F66" t="n">
-        <v>46188.1296</v>
+        <v>200560.3043</v>
       </c>
       <c r="G66" t="n">
-        <v>11.766</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H66" t="n">
-        <v>11.82566666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2880,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="C67" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="D67" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="E67" t="n">
-        <v>11.92</v>
+        <v>11.8</v>
       </c>
       <c r="F67" t="n">
-        <v>42</v>
+        <v>317803.0321</v>
       </c>
       <c r="G67" t="n">
-        <v>11.778</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H67" t="n">
-        <v>11.82816666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2915,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.73</v>
+        <v>11.79</v>
       </c>
       <c r="C68" t="n">
-        <v>11.73</v>
+        <v>11.72</v>
       </c>
       <c r="D68" t="n">
-        <v>11.73</v>
+        <v>11.8</v>
       </c>
       <c r="E68" t="n">
-        <v>11.73</v>
+        <v>11.72</v>
       </c>
       <c r="F68" t="n">
-        <v>65.7826</v>
+        <v>103012.6074</v>
       </c>
       <c r="G68" t="n">
-        <v>11.77666666666667</v>
+        <v>-1526458.137566709</v>
       </c>
       <c r="H68" t="n">
-        <v>11.82750000000001</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2950,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.73</v>
+        <v>11.9</v>
       </c>
       <c r="C69" t="n">
-        <v>11.73</v>
+        <v>11.9</v>
       </c>
       <c r="D69" t="n">
-        <v>11.73</v>
+        <v>11.9</v>
       </c>
       <c r="E69" t="n">
-        <v>11.73</v>
+        <v>11.9</v>
       </c>
       <c r="F69" t="n">
-        <v>51.3966</v>
+        <v>18050.7965</v>
       </c>
       <c r="G69" t="n">
-        <v>11.776</v>
+        <v>-1508407.341066709</v>
       </c>
       <c r="H69" t="n">
-        <v>11.82816666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2985,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.72</v>
+        <v>11.73</v>
       </c>
       <c r="C70" t="n">
-        <v>11.7</v>
+        <v>11.73</v>
       </c>
       <c r="D70" t="n">
-        <v>11.72</v>
+        <v>11.73</v>
       </c>
       <c r="E70" t="n">
-        <v>11.7</v>
+        <v>11.73</v>
       </c>
       <c r="F70" t="n">
-        <v>78223.58809999999</v>
+        <v>18315.9625</v>
       </c>
       <c r="G70" t="n">
-        <v>11.77333333333333</v>
+        <v>-1526723.303566709</v>
       </c>
       <c r="H70" t="n">
-        <v>11.82716666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +3020,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="C71" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="D71" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="E71" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="F71" t="n">
-        <v>1470.9124</v>
+        <v>42.0522</v>
       </c>
       <c r="G71" t="n">
-        <v>11.77199999999999</v>
+        <v>-1526681.251366709</v>
       </c>
       <c r="H71" t="n">
-        <v>11.82733333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3055,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="C72" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="D72" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="E72" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="F72" t="n">
-        <v>13841.7187</v>
+        <v>167455.9039</v>
       </c>
       <c r="G72" t="n">
-        <v>11.77066666666666</v>
+        <v>-1694137.155266709</v>
       </c>
       <c r="H72" t="n">
-        <v>11.82633333333334</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3090,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.69</v>
+        <v>11.74</v>
       </c>
       <c r="C73" t="n">
-        <v>11.69</v>
+        <v>11.88</v>
       </c>
       <c r="D73" t="n">
-        <v>11.69</v>
+        <v>11.88</v>
       </c>
       <c r="E73" t="n">
-        <v>11.69</v>
+        <v>11.74</v>
       </c>
       <c r="F73" t="n">
-        <v>45</v>
+        <v>12914.5437</v>
       </c>
       <c r="G73" t="n">
-        <v>11.76866666666666</v>
+        <v>-1681222.611566709</v>
       </c>
       <c r="H73" t="n">
-        <v>11.82516666666668</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3125,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.7</v>
+        <v>11.95</v>
       </c>
       <c r="C74" t="n">
-        <v>11.7</v>
+        <v>11.95</v>
       </c>
       <c r="D74" t="n">
-        <v>11.7</v>
+        <v>11.95</v>
       </c>
       <c r="E74" t="n">
-        <v>11.7</v>
+        <v>11.95</v>
       </c>
       <c r="F74" t="n">
-        <v>445.9176</v>
+        <v>41.8411</v>
       </c>
       <c r="G74" t="n">
-        <v>11.76733333333333</v>
+        <v>-1681180.770466709</v>
       </c>
       <c r="H74" t="n">
-        <v>11.82533333333334</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3160,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="C75" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="D75" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="E75" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="F75" t="n">
-        <v>28932.1365</v>
+        <v>7440.9644</v>
       </c>
       <c r="G75" t="n">
-        <v>11.76599999999999</v>
+        <v>-1688621.734866709</v>
       </c>
       <c r="H75" t="n">
-        <v>11.82566666666668</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3195,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.69</v>
+        <v>11.93</v>
       </c>
       <c r="C76" t="n">
-        <v>11.7</v>
+        <v>11.93</v>
       </c>
       <c r="D76" t="n">
-        <v>11.7</v>
+        <v>11.93</v>
       </c>
       <c r="E76" t="n">
-        <v>11.69</v>
+        <v>11.93</v>
       </c>
       <c r="F76" t="n">
-        <v>106328.5879</v>
+        <v>43</v>
       </c>
       <c r="G76" t="n">
-        <v>11.74999999999999</v>
+        <v>-1688578.734866709</v>
       </c>
       <c r="H76" t="n">
-        <v>11.82466666666668</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3230,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C77" t="n">
-        <v>11.67</v>
+        <v>11.88</v>
       </c>
       <c r="D77" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E77" t="n">
-        <v>11.67</v>
+        <v>11.88</v>
       </c>
       <c r="F77" t="n">
-        <v>59752.8523</v>
+        <v>202</v>
       </c>
       <c r="G77" t="n">
-        <v>11.74133333333332</v>
+        <v>-1688780.734866709</v>
       </c>
       <c r="H77" t="n">
-        <v>11.82316666666668</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3265,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C78" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D78" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E78" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F78" t="n">
-        <v>114.052</v>
+        <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>11.74133333333332</v>
+        <v>-1688680.734866709</v>
       </c>
       <c r="H78" t="n">
-        <v>11.82150000000001</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3300,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.67</v>
+        <v>11.9</v>
       </c>
       <c r="C79" t="n">
-        <v>11.67</v>
+        <v>11.85</v>
       </c>
       <c r="D79" t="n">
-        <v>11.67</v>
+        <v>11.9</v>
       </c>
       <c r="E79" t="n">
-        <v>11.67</v>
+        <v>11.85</v>
       </c>
       <c r="F79" t="n">
-        <v>45</v>
+        <v>89.43600000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>11.74066666666666</v>
+        <v>-1688770.170866709</v>
       </c>
       <c r="H79" t="n">
-        <v>11.81783333333335</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3335,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.68</v>
+        <v>11.93</v>
       </c>
       <c r="C80" t="n">
-        <v>11.8</v>
+        <v>11.93</v>
       </c>
       <c r="D80" t="n">
-        <v>11.8</v>
+        <v>11.93</v>
       </c>
       <c r="E80" t="n">
-        <v>11.68</v>
+        <v>11.93</v>
       </c>
       <c r="F80" t="n">
-        <v>199.3744</v>
+        <v>42</v>
       </c>
       <c r="G80" t="n">
-        <v>11.73399999999999</v>
+        <v>-1688728.170866709</v>
       </c>
       <c r="H80" t="n">
-        <v>11.81483333333335</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3370,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.79</v>
+        <v>11.77</v>
       </c>
       <c r="C81" t="n">
-        <v>11.87</v>
+        <v>11.74</v>
       </c>
       <c r="D81" t="n">
-        <v>11.87</v>
+        <v>11.77</v>
       </c>
       <c r="E81" t="n">
-        <v>11.79</v>
+        <v>11.74</v>
       </c>
       <c r="F81" t="n">
-        <v>1430</v>
+        <v>388221.2182</v>
       </c>
       <c r="G81" t="n">
-        <v>11.73199999999999</v>
+        <v>-2076949.389066709</v>
       </c>
       <c r="H81" t="n">
-        <v>11.81300000000001</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3405,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.67</v>
+        <v>11.75</v>
       </c>
       <c r="C82" t="n">
-        <v>11.67</v>
+        <v>11.75</v>
       </c>
       <c r="D82" t="n">
-        <v>11.67</v>
+        <v>11.75</v>
       </c>
       <c r="E82" t="n">
-        <v>11.67</v>
+        <v>11.75</v>
       </c>
       <c r="F82" t="n">
-        <v>45</v>
+        <v>141.9677</v>
       </c>
       <c r="G82" t="n">
-        <v>11.71533333333332</v>
+        <v>-2076807.421366709</v>
       </c>
       <c r="H82" t="n">
-        <v>11.80916666666668</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3440,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="C83" t="n">
-        <v>11.68</v>
+        <v>11.74</v>
       </c>
       <c r="D83" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="E83" t="n">
-        <v>11.68</v>
+        <v>11.74</v>
       </c>
       <c r="F83" t="n">
-        <v>348.8704</v>
+        <v>207.8034</v>
       </c>
       <c r="G83" t="n">
-        <v>11.71199999999999</v>
+        <v>-2077015.224766709</v>
       </c>
       <c r="H83" t="n">
-        <v>11.80566666666668</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3475,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.7</v>
+        <v>11.75</v>
       </c>
       <c r="C84" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="D84" t="n">
-        <v>11.7</v>
+        <v>11.75</v>
       </c>
       <c r="E84" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="F84" t="n">
-        <v>556.5667</v>
+        <v>52129.185</v>
       </c>
       <c r="G84" t="n">
-        <v>11.70999999999999</v>
+        <v>-2077015.224766709</v>
       </c>
       <c r="H84" t="n">
-        <v>11.80250000000001</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3510,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.68</v>
+        <v>11.74</v>
       </c>
       <c r="C85" t="n">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
       <c r="D85" t="n">
-        <v>11.68</v>
+        <v>11.74</v>
       </c>
       <c r="E85" t="n">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
       <c r="F85" t="n">
-        <v>45</v>
+        <v>113162.9885</v>
       </c>
       <c r="G85" t="n">
-        <v>11.70866666666666</v>
+        <v>-2190178.213266709</v>
       </c>
       <c r="H85" t="n">
-        <v>11.80033333333335</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3545,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="C86" t="n">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="D86" t="n">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="E86" t="n">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="F86" t="n">
-        <v>43456.5603</v>
+        <v>14359.5957</v>
       </c>
       <c r="G86" t="n">
-        <v>11.70866666666666</v>
+        <v>-2190178.213266709</v>
       </c>
       <c r="H86" t="n">
-        <v>11.79850000000001</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,40 +3580,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="C87" t="n">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="D87" t="n">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="E87" t="n">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="F87" t="n">
-        <v>55416.9708</v>
+        <v>9013.5967</v>
       </c>
       <c r="G87" t="n">
-        <v>11.70866666666666</v>
+        <v>-2190178.213266709</v>
       </c>
       <c r="H87" t="n">
-        <v>11.79666666666668</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3713,1689 +3618,2552 @@
         <v>11.69</v>
       </c>
       <c r="C88" t="n">
-        <v>11.69</v>
+        <v>11.72</v>
       </c>
       <c r="D88" t="n">
-        <v>11.69</v>
+        <v>11.72</v>
       </c>
       <c r="E88" t="n">
         <v>11.69</v>
       </c>
       <c r="F88" t="n">
+        <v>963.6743</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-2190178.213266709</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="C89" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F89" t="n">
+        <v>51.2281</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-2190178.213266709</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E90" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F90" t="n">
+        <v>100914.9724</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-2089263.240866709</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C91" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>86311.5744</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-2175574.815266709</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D92" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>113688.4256</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-2289263.24086671</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C93" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F93" t="n">
+        <v>91766.3458</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-2381029.586666709</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>43</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-2380986.586666709</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>46188.1296</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-2380986.586666709</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C96" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E96" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F96" t="n">
+        <v>42</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-2380944.586666709</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C97" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E97" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F97" t="n">
+        <v>65.7826</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-2381010.369266709</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C98" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E98" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F98" t="n">
+        <v>51.3966</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-2381010.369266709</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="C99" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D99" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="E99" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F99" t="n">
+        <v>78223.58809999999</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-2459233.957366709</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C100" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D100" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1470.9124</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-2459233.957366709</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C101" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D101" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13841.7187</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-2459233.957366709</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C102" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D102" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E102" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F102" t="n">
         <v>45</v>
       </c>
-      <c r="G88" t="n">
-        <v>11.70866666666666</v>
-      </c>
-      <c r="H88" t="n">
-        <v>11.79216666666668</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M88" t="inlineStr">
+      <c r="G102" t="n">
+        <v>-2459278.957366709</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D103" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>445.9176</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-2458833.039766709</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>28932.1365</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-2458833.039766709</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C105" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D105" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E105" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F105" t="n">
+        <v>106328.5879</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2458833.039766709</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F106" t="n">
+        <v>59752.8523</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-2518585.892066709</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>114.052</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-2518471.840066709</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C108" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D108" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E108" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F108" t="n">
+        <v>45</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-2518516.840066709</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C109" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F109" t="n">
+        <v>199.3744</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2518317.465666709</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C110" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D110" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="E110" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1430</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2516887.465666709</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F111" t="n">
+        <v>45</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2516932.465666709</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F112" t="n">
+        <v>348.8704</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2516583.595266709</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F113" t="n">
+        <v>556.5667</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2516027.028566709</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C114" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E114" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F114" t="n">
+        <v>45</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2516072.028566709</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C115" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>43456.5603</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2472615.468266709</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>55416.9708</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2472615.468266709</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C117" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E117" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F117" t="n">
+        <v>45</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2472660.468266709</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K117" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C118" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D118" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F118" t="n">
+        <v>45</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2472705.468266709</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>151</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2472554.468266709</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
         <v>11.68</v>
       </c>
-      <c r="C89" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D89" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="E89" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F89" t="n">
-        <v>45</v>
-      </c>
-      <c r="G89" t="n">
-        <v>11.70733333333333</v>
-      </c>
-      <c r="H89" t="n">
-        <v>11.78716666666668</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M89" t="inlineStr">
+      <c r="K119" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>151</v>
-      </c>
-      <c r="G90" t="n">
-        <v>11.70733333333333</v>
-      </c>
-      <c r="H90" t="n">
-        <v>11.77916666666668</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="L90" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F120" t="n">
         <v>0.9798</v>
       </c>
-      <c r="G91" t="n">
-        <v>11.70733333333333</v>
-      </c>
-      <c r="H91" t="n">
-        <v>11.77566666666668</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="M91" t="inlineStr">
+      <c r="G120" t="n">
+        <v>-2472554.468266709</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>137.778</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2472554.468266709</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>138.8426</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2472554.468266709</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>23.3794</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2472554.468266709</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>143</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2472411.468266709</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F125" t="n">
+        <v>43</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2472454.468266709</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5496.9448</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2477951.413066709</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F127" t="n">
+        <v>85.03410422297297</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2477866.378962487</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="F128" t="n">
+        <v>298</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2478164.378962487</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10298.3164</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2488462.695362486</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>332023.5931</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2488462.695362486</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>55.9865</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2488462.695362486</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C132" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E132" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2487412.695362486</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C133" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F133" t="n">
+        <v>49924.8912</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2537337.586562486</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C134" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F134" t="n">
+        <v>86715.0543</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2624052.640862486</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C135" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E135" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F135" t="n">
+        <v>59470.0104</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2683522.651262486</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C136" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D136" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E136" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F136" t="n">
+        <v>146.6596</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2683522.651262486</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>50</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2683472.651262486</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K137" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>893.8201</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2683472.651262486</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D92" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E92" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>137.778</v>
-      </c>
-      <c r="G92" t="n">
-        <v>11.70933333333333</v>
-      </c>
-      <c r="H92" t="n">
-        <v>11.76766666666668</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F93" t="n">
-        <v>138.8426</v>
-      </c>
-      <c r="G93" t="n">
-        <v>11.70933333333333</v>
-      </c>
-      <c r="H93" t="n">
-        <v>11.76600000000002</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C94" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D94" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E94" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F94" t="n">
-        <v>23.3794</v>
-      </c>
-      <c r="G94" t="n">
-        <v>11.71133333333333</v>
-      </c>
-      <c r="H94" t="n">
-        <v>11.76433333333335</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C95" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D95" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F95" t="n">
-        <v>143</v>
-      </c>
-      <c r="G95" t="n">
-        <v>11.71399999999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>11.76500000000002</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C96" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="D96" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="E96" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F96" t="n">
-        <v>43</v>
-      </c>
-      <c r="G96" t="n">
-        <v>11.71133333333333</v>
-      </c>
-      <c r="H96" t="n">
-        <v>11.76550000000002</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C97" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D97" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E97" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F97" t="n">
-        <v>5496.9448</v>
-      </c>
-      <c r="G97" t="n">
-        <v>11.71333333333333</v>
-      </c>
-      <c r="H97" t="n">
-        <v>11.76383333333336</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C98" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D98" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E98" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F98" t="n">
-        <v>85.03410422297297</v>
-      </c>
-      <c r="G98" t="n">
-        <v>11.72399999999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>11.76450000000003</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="C99" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="D99" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="E99" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="F99" t="n">
-        <v>298</v>
-      </c>
-      <c r="G99" t="n">
-        <v>11.73199999999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>11.76616666666669</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C100" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D100" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E100" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F100" t="n">
-        <v>10298.3164</v>
-      </c>
-      <c r="G100" t="n">
-        <v>11.73333333333333</v>
-      </c>
-      <c r="H100" t="n">
-        <v>11.76283333333336</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C101" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D101" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E101" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F101" t="n">
-        <v>332023.5931</v>
-      </c>
-      <c r="G101" t="n">
-        <v>11.73333333333333</v>
-      </c>
-      <c r="H101" t="n">
-        <v>11.76233333333336</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C102" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D102" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E102" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>55.9865</v>
-      </c>
-      <c r="G102" t="n">
-        <v>11.73333333333333</v>
-      </c>
-      <c r="H102" t="n">
-        <v>11.7591666666667</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C103" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D103" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E103" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G103" t="n">
-        <v>11.73933333333333</v>
-      </c>
-      <c r="H103" t="n">
-        <v>11.75983333333336</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C104" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D104" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E104" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F104" t="n">
-        <v>49924.8912</v>
-      </c>
-      <c r="G104" t="n">
-        <v>11.73999999999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>11.7566666666667</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C105" t="n">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
         <v>11.67</v>
       </c>
-      <c r="D105" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E105" t="n">
+      <c r="C139" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D139" t="n">
         <v>11.67</v>
       </c>
-      <c r="F105" t="n">
-        <v>86715.0543</v>
-      </c>
-      <c r="G105" t="n">
-        <v>11.73799999999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>11.75200000000003</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
+      <c r="E139" t="n">
         <v>11.66</v>
       </c>
-      <c r="C106" t="n">
+      <c r="F139" t="n">
+        <v>48195.8077</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2731668.458962486</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
         <v>11.66</v>
       </c>
-      <c r="D106" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E106" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F106" t="n">
-        <v>59470.0104</v>
-      </c>
-      <c r="G106" t="n">
-        <v>11.73533333333333</v>
-      </c>
-      <c r="H106" t="n">
-        <v>11.74816666666669</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C107" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D107" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E107" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F107" t="n">
-        <v>146.6596</v>
-      </c>
-      <c r="G107" t="n">
-        <v>11.73266666666666</v>
-      </c>
-      <c r="H107" t="n">
-        <v>11.74366666666669</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F108" t="n">
-        <v>50</v>
-      </c>
-      <c r="G108" t="n">
-        <v>11.73266666666666</v>
-      </c>
-      <c r="H108" t="n">
-        <v>11.7406666666667</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L108" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F109" t="n">
-        <v>893.8201</v>
-      </c>
-      <c r="G109" t="n">
-        <v>11.73266666666666</v>
-      </c>
-      <c r="H109" t="n">
-        <v>11.73733333333336</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L109" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C110" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D110" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E110" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F110" t="n">
-        <v>48195.8077</v>
-      </c>
-      <c r="G110" t="n">
-        <v>11.72066666666666</v>
-      </c>
-      <c r="H110" t="n">
-        <v>11.7341666666667</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="M110" t="inlineStr">
+      <c r="L139" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
         <v>11.66</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C140" t="n">
         <v>11.66</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D140" t="n">
         <v>11.66</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E140" t="n">
         <v>11.66</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F140" t="n">
         <v>30051.2177</v>
       </c>
-      <c r="G111" t="n">
-        <v>11.70933333333332</v>
-      </c>
-      <c r="H111" t="n">
-        <v>11.7296666666667</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
+      <c r="G140" t="n">
+        <v>-2731668.458962486</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
         <v>11.66</v>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>11.65</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C141" t="n">
         <v>11.65</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D141" t="n">
         <v>11.65</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E141" t="n">
         <v>11.65</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F141" t="n">
         <v>17591.4425</v>
       </c>
-      <c r="G112" t="n">
-        <v>11.70599999999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>11.7281666666667</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
+      <c r="G141" t="n">
+        <v>-2749259.901462486</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
         <v>11.66</v>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
         <v>11.65</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C142" t="n">
         <v>11.65</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D142" t="n">
         <v>11.65</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E142" t="n">
         <v>11.65</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F142" t="n">
         <v>95626.8493</v>
       </c>
-      <c r="G113" t="n">
-        <v>11.69333333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>11.72650000000003</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
+      <c r="G142" t="n">
+        <v>-2749259.901462486</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
         <v>11.66</v>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
         <v>11.65</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C143" t="n">
         <v>11.65</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D143" t="n">
         <v>11.65</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E143" t="n">
         <v>11.65</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F143" t="n">
         <v>3495.5741</v>
       </c>
-      <c r="G114" t="n">
-        <v>11.68199999999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>11.72500000000003</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
+      <c r="G143" t="n">
+        <v>-2749259.901462486</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
         <v>11.66</v>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
         <v>11.64</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C144" t="n">
         <v>11.64</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D144" t="n">
         <v>11.64</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E144" t="n">
         <v>11.64</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F144" t="n">
         <v>45</v>
       </c>
-      <c r="G115" t="n">
-        <v>11.67799999999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>11.72333333333336</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="L115" t="n">
+      <c r="G144" t="n">
+        <v>-2749304.901462486</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
         <v>11.66</v>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
         <v>11.65</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C145" t="n">
         <v>11.65</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D145" t="n">
         <v>11.65</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E145" t="n">
         <v>11.65</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F145" t="n">
         <v>4806.1848</v>
       </c>
-      <c r="G116" t="n">
-        <v>11.67466666666666</v>
-      </c>
-      <c r="H116" t="n">
-        <v>11.72216666666669</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="L116" t="n">
+      <c r="G145" t="n">
+        <v>-2744498.716662486</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
         <v>11.66</v>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
         <v>11.67</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C146" t="n">
         <v>11.67</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D146" t="n">
         <v>11.67</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E146" t="n">
         <v>11.67</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F146" t="n">
         <v>45</v>
       </c>
-      <c r="G117" t="n">
-        <v>11.67266666666666</v>
-      </c>
-      <c r="H117" t="n">
-        <v>11.72133333333336</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="L117" t="n">
+      <c r="G146" t="n">
+        <v>-2744453.716662486</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
         <v>11.66</v>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
         <v>11.67</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C147" t="n">
         <v>11.67</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D147" t="n">
         <v>11.67</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E147" t="n">
         <v>11.67</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F147" t="n">
         <v>53587.8672</v>
       </c>
-      <c r="G118" t="n">
-        <v>11.66533333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>11.72050000000002</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
+      <c r="G147" t="n">
+        <v>-2744453.716662486</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
         <v>11.67</v>
       </c>
-      <c r="L118" t="n">
+      <c r="K147" t="n">
         <v>11.66</v>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
         <v>11.64</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C148" t="n">
         <v>11.64</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D148" t="n">
         <v>11.64</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E148" t="n">
         <v>11.64</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F148" t="n">
         <v>45</v>
       </c>
-      <c r="G119" t="n">
-        <v>11.66199999999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>11.71916666666669</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L119" t="n">
+      <c r="G148" t="n">
+        <v>-2744498.716662486</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
         <v>11.66</v>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
         <v>11.67</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C149" t="n">
         <v>11.67</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D149" t="n">
         <v>11.67</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E149" t="n">
         <v>11.67</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F149" t="n">
         <v>5000</v>
       </c>
-      <c r="G120" t="n">
-        <v>11.66199999999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>11.71833333333336</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
+      <c r="G149" t="n">
+        <v>-2739498.716662486</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
         <v>11.64</v>
       </c>
-      <c r="L120" t="n">
+      <c r="K149" t="n">
         <v>11.66</v>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>11.67</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C150" t="n">
         <v>11.67</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D150" t="n">
         <v>11.67</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E150" t="n">
         <v>11.67</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F150" t="n">
         <v>2000</v>
       </c>
-      <c r="G121" t="n">
-        <v>11.66266666666666</v>
-      </c>
-      <c r="H121" t="n">
-        <v>11.71383333333335</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="G150" t="n">
+        <v>-2739498.716662486</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
         <v>11.66</v>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>11.67</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C151" t="n">
         <v>11.69</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D151" t="n">
         <v>11.69</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E151" t="n">
         <v>11.67</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F151" t="n">
         <v>21070.3002</v>
       </c>
-      <c r="G122" t="n">
-        <v>11.66466666666666</v>
-      </c>
-      <c r="H122" t="n">
-        <v>11.71200000000002</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
+      <c r="G151" t="n">
+        <v>-2718428.416462486</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
         <v>11.67</v>
       </c>
-      <c r="L122" t="n">
+      <c r="K151" t="n">
         <v>11.66</v>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
         <v>11.69</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C152" t="n">
         <v>11.69</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D152" t="n">
         <v>11.69</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E152" t="n">
         <v>11.69</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F152" t="n">
         <v>5000</v>
       </c>
-      <c r="G123" t="n">
-        <v>11.66399999999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>11.71183333333336</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L123" t="n">
+      <c r="G152" t="n">
+        <v>-2718428.416462486</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
         <v>11.66</v>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
         <v>11.69</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C153" t="n">
         <v>11.69</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D153" t="n">
         <v>11.69</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E153" t="n">
         <v>11.69</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F153" t="n">
         <v>5000</v>
       </c>
-      <c r="G124" t="n">
-        <v>11.66333333333333</v>
-      </c>
-      <c r="H124" t="n">
-        <v>11.71200000000002</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L124" t="n">
+      <c r="G153" t="n">
+        <v>-2718428.416462486</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
         <v>11.66</v>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
         <v>11.69</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C154" t="n">
         <v>11.74</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D154" t="n">
         <v>11.74</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E154" t="n">
         <v>11.69</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F154" t="n">
         <v>57813.0389</v>
       </c>
-      <c r="G125" t="n">
-        <v>11.66866666666666</v>
-      </c>
-      <c r="H125" t="n">
-        <v>11.70933333333336</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L125" t="n">
+      <c r="G154" t="n">
+        <v>-2660615.377562486</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
         <v>11.66</v>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>11.74</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C155" t="n">
         <v>11.74</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D155" t="n">
         <v>11.74</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E155" t="n">
         <v>11.74</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F155" t="n">
         <v>5000</v>
       </c>
-      <c r="G126" t="n">
-        <v>11.674</v>
-      </c>
-      <c r="H126" t="n">
-        <v>11.70666666666669</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="L126" t="n">
+      <c r="G155" t="n">
+        <v>-2660615.377562486</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
         <v>11.66</v>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>11.74</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C156" t="n">
         <v>11.74</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D156" t="n">
         <v>11.74</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E156" t="n">
         <v>11.74</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F156" t="n">
         <v>7000</v>
       </c>
-      <c r="G127" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="H127" t="n">
-        <v>11.70366666666669</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="L127" t="n">
+      <c r="G156" t="n">
+        <v>-2660615.377562486</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
         <v>11.66</v>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N127" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.99</v>
+        <v>11.68</v>
       </c>
       <c r="C2" t="n">
-        <v>11.99</v>
+        <v>11.68</v>
       </c>
       <c r="D2" t="n">
-        <v>11.99</v>
+        <v>11.68</v>
       </c>
       <c r="E2" t="n">
-        <v>11.99</v>
+        <v>11.68</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>4081.9701</v>
       </c>
       <c r="G2" t="n">
-        <v>-918407.4174332117</v>
+        <v>-1144302.805533212</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.99</v>
+        <v>11.76</v>
       </c>
       <c r="C3" t="n">
-        <v>11.99</v>
+        <v>11.76</v>
       </c>
       <c r="D3" t="n">
-        <v>11.99</v>
+        <v>11.76</v>
       </c>
       <c r="E3" t="n">
-        <v>11.99</v>
+        <v>11.76</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>-918407.4174332117</v>
+        <v>-1144259.805533212</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9</v>
+        <v>11.76</v>
       </c>
       <c r="C4" t="n">
-        <v>11.9</v>
+        <v>11.76</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9</v>
+        <v>11.76</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9</v>
+        <v>11.76</v>
       </c>
       <c r="F4" t="n">
-        <v>25675.9086</v>
+        <v>1229264.8005</v>
       </c>
       <c r="G4" t="n">
-        <v>-944083.3260332117</v>
+        <v>-1144259.805533212</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C5" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="E5" t="n">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="F5" t="n">
-        <v>50482.9519</v>
+        <v>29203.3429</v>
       </c>
       <c r="G5" t="n">
-        <v>-893600.3741332117</v>
+        <v>-1115056.462633212</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="C6" t="n">
-        <v>11.99</v>
+        <v>11.89</v>
       </c>
       <c r="D6" t="n">
-        <v>11.99</v>
+        <v>11.89</v>
       </c>
       <c r="E6" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="F6" t="n">
-        <v>1182.7173</v>
+        <v>896.4351</v>
       </c>
       <c r="G6" t="n">
-        <v>-893600.3741332117</v>
+        <v>-1114160.027533212</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="C7" t="n">
-        <v>11.79</v>
+        <v>11.98</v>
       </c>
       <c r="D7" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="E7" t="n">
-        <v>11.79</v>
+        <v>11.98</v>
       </c>
       <c r="F7" t="n">
-        <v>40822.3338</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>-934422.7079332117</v>
+        <v>-1114110.027533212</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="C8" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="D8" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="E8" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="F8" t="n">
-        <v>42</v>
+        <v>17890.0403</v>
       </c>
       <c r="G8" t="n">
-        <v>-934380.7079332117</v>
+        <v>-1114110.027533212</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E9" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="F9" t="n">
-        <v>30039.6757</v>
+        <v>636.419</v>
       </c>
       <c r="G9" t="n">
-        <v>-904341.0322332117</v>
+        <v>-1114746.446533212</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>11.89</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>11.89</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>11.89</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>11.89</v>
       </c>
       <c r="F10" t="n">
-        <v>136421.0897</v>
+        <v>739.2152</v>
       </c>
       <c r="G10" t="n">
-        <v>-904341.0322332117</v>
+        <v>-1115485.661733212</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.99</v>
+        <v>11.89</v>
       </c>
       <c r="C11" t="n">
-        <v>11.99</v>
+        <v>11.89</v>
       </c>
       <c r="D11" t="n">
-        <v>11.99</v>
+        <v>11.89</v>
       </c>
       <c r="E11" t="n">
-        <v>11.99</v>
+        <v>11.89</v>
       </c>
       <c r="F11" t="n">
-        <v>364.4738</v>
+        <v>59.6917</v>
       </c>
       <c r="G11" t="n">
-        <v>-904705.5060332117</v>
+        <v>-1115485.661733212</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="C12" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="D12" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="E12" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="F12" t="n">
-        <v>196.9341</v>
+        <v>20745.131</v>
       </c>
       <c r="G12" t="n">
-        <v>-904705.5060332117</v>
+        <v>-1136230.792733212</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>11.81</v>
       </c>
       <c r="C13" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>11.81</v>
       </c>
       <c r="E13" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="F13" t="n">
-        <v>243.0763</v>
+        <v>196.3248</v>
       </c>
       <c r="G13" t="n">
-        <v>-904705.5060332117</v>
+        <v>-1136230.792733212</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9</v>
+        <v>11.81</v>
       </c>
       <c r="C14" t="n">
-        <v>11.79</v>
+        <v>11.81</v>
       </c>
       <c r="D14" t="n">
-        <v>11.9</v>
+        <v>11.81</v>
       </c>
       <c r="E14" t="n">
-        <v>11.79</v>
+        <v>11.81</v>
       </c>
       <c r="F14" t="n">
-        <v>95340.5229</v>
+        <v>8679.080900000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-1000046.028933212</v>
+        <v>-1136230.792733212</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.79</v>
+        <v>11.96</v>
       </c>
       <c r="C15" t="n">
-        <v>11.79</v>
+        <v>11.96</v>
       </c>
       <c r="D15" t="n">
-        <v>11.79</v>
+        <v>11.96</v>
       </c>
       <c r="E15" t="n">
-        <v>11.79</v>
+        <v>11.96</v>
       </c>
       <c r="F15" t="n">
-        <v>93891.5295</v>
+        <v>196.3248</v>
       </c>
       <c r="G15" t="n">
-        <v>-1000046.028933212</v>
+        <v>-1136034.467933212</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="C16" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="D16" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="E16" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="F16" t="n">
-        <v>42</v>
+        <v>9175.5394</v>
       </c>
       <c r="G16" t="n">
-        <v>-1000004.028933212</v>
+        <v>-1126858.928533212</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.79</v>
+        <v>11.98</v>
       </c>
       <c r="C17" t="n">
-        <v>11.79</v>
+        <v>12.18</v>
       </c>
       <c r="D17" t="n">
-        <v>11.79</v>
+        <v>12.18</v>
       </c>
       <c r="E17" t="n">
-        <v>11.79</v>
+        <v>11.98</v>
       </c>
       <c r="F17" t="n">
-        <v>2166.5412</v>
+        <v>3597.169466502463</v>
       </c>
       <c r="G17" t="n">
-        <v>-1002170.570133212</v>
+        <v>-1123261.759066709</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.76</v>
+        <v>11.91</v>
       </c>
       <c r="C18" t="n">
-        <v>11.76</v>
+        <v>11.91</v>
       </c>
       <c r="D18" t="n">
-        <v>11.76</v>
+        <v>11.91</v>
       </c>
       <c r="E18" t="n">
-        <v>11.76</v>
+        <v>11.91</v>
       </c>
       <c r="F18" t="n">
-        <v>10611.8934</v>
+        <v>212.3437</v>
       </c>
       <c r="G18" t="n">
-        <v>-1012782.463533212</v>
+        <v>-1123474.102766709</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.76</v>
+        <v>12.18</v>
       </c>
       <c r="C19" t="n">
-        <v>11.76</v>
+        <v>12.18</v>
       </c>
       <c r="D19" t="n">
-        <v>11.76</v>
+        <v>12.18</v>
       </c>
       <c r="E19" t="n">
-        <v>11.76</v>
+        <v>12.18</v>
       </c>
       <c r="F19" t="n">
-        <v>4550.7041</v>
+        <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>-1012782.463533212</v>
+        <v>-1123432.102766709</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.75</v>
+        <v>11.95</v>
       </c>
       <c r="C20" t="n">
-        <v>11.75</v>
+        <v>11.8</v>
       </c>
       <c r="D20" t="n">
-        <v>11.75</v>
+        <v>11.95</v>
       </c>
       <c r="E20" t="n">
-        <v>11.75</v>
+        <v>11.8</v>
       </c>
       <c r="F20" t="n">
-        <v>3768.6869</v>
+        <v>300013.4274</v>
       </c>
       <c r="G20" t="n">
-        <v>-1016551.150433212</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="C21" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="D21" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="E21" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="F21" t="n">
-        <v>22556.1611</v>
+        <v>5271.7874</v>
       </c>
       <c r="G21" t="n">
-        <v>-993994.9893332117</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="C22" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="D22" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="E22" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="F22" t="n">
-        <v>35901</v>
+        <v>11710.0562</v>
       </c>
       <c r="G22" t="n">
-        <v>-993994.9893332117</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.97</v>
+        <v>11.8</v>
       </c>
       <c r="C23" t="n">
-        <v>11.97</v>
+        <v>11.8</v>
       </c>
       <c r="D23" t="n">
-        <v>11.97</v>
+        <v>11.8</v>
       </c>
       <c r="E23" t="n">
-        <v>11.97</v>
+        <v>11.72</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>2900.2859</v>
       </c>
       <c r="G23" t="n">
-        <v>-993952.9893332117</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="C24" t="n">
-        <v>11.67</v>
+        <v>11.8</v>
       </c>
       <c r="D24" t="n">
-        <v>11.87</v>
+        <v>11.8</v>
       </c>
       <c r="E24" t="n">
-        <v>11.67</v>
+        <v>11.8</v>
       </c>
       <c r="F24" t="n">
-        <v>9673.2376</v>
+        <v>200560.3043</v>
       </c>
       <c r="G24" t="n">
-        <v>-1003626.226933212</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="C25" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="D25" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="E25" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="F25" t="n">
-        <v>386.5928</v>
+        <v>317803.0321</v>
       </c>
       <c r="G25" t="n">
-        <v>-1003239.634133212</v>
+        <v>-1423445.530166709</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.67</v>
+        <v>11.79</v>
       </c>
       <c r="C26" t="n">
-        <v>11.65</v>
+        <v>11.72</v>
       </c>
       <c r="D26" t="n">
-        <v>11.67</v>
+        <v>11.8</v>
       </c>
       <c r="E26" t="n">
-        <v>11.65</v>
+        <v>11.72</v>
       </c>
       <c r="F26" t="n">
-        <v>55122.9253</v>
+        <v>103012.6074</v>
       </c>
       <c r="G26" t="n">
-        <v>-1058362.559433212</v>
+        <v>-1526458.137566709</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.65</v>
+        <v>11.9</v>
       </c>
       <c r="C27" t="n">
-        <v>11.63</v>
+        <v>11.9</v>
       </c>
       <c r="D27" t="n">
-        <v>11.65</v>
+        <v>11.9</v>
       </c>
       <c r="E27" t="n">
-        <v>11.63</v>
+        <v>11.9</v>
       </c>
       <c r="F27" t="n">
-        <v>78417.0729</v>
+        <v>18050.7965</v>
       </c>
       <c r="G27" t="n">
-        <v>-1136779.632333212</v>
+        <v>-1508407.341066709</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.7</v>
+        <v>11.73</v>
       </c>
       <c r="C28" t="n">
-        <v>11.64</v>
+        <v>11.73</v>
       </c>
       <c r="D28" t="n">
-        <v>11.7</v>
+        <v>11.73</v>
       </c>
       <c r="E28" t="n">
-        <v>11.64</v>
+        <v>11.73</v>
       </c>
       <c r="F28" t="n">
-        <v>14576.0323</v>
+        <v>18315.9625</v>
       </c>
       <c r="G28" t="n">
-        <v>-1122203.600033212</v>
+        <v>-1526723.303566709</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.57</v>
+        <v>11.89</v>
       </c>
       <c r="C29" t="n">
-        <v>11.88</v>
+        <v>11.89</v>
       </c>
       <c r="D29" t="n">
-        <v>11.88</v>
+        <v>11.89</v>
       </c>
       <c r="E29" t="n">
-        <v>11.56</v>
+        <v>11.89</v>
       </c>
       <c r="F29" t="n">
-        <v>14795.2141</v>
+        <v>42.0522</v>
       </c>
       <c r="G29" t="n">
-        <v>-1107408.385933212</v>
+        <v>-1526681.251366709</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.69</v>
+        <v>11.89</v>
       </c>
       <c r="C30" t="n">
-        <v>11.69</v>
+        <v>11.74</v>
       </c>
       <c r="D30" t="n">
-        <v>11.69</v>
+        <v>11.89</v>
       </c>
       <c r="E30" t="n">
-        <v>11.69</v>
+        <v>11.74</v>
       </c>
       <c r="F30" t="n">
-        <v>15077.597</v>
+        <v>167455.9039</v>
       </c>
       <c r="G30" t="n">
-        <v>-1122485.982933212</v>
+        <v>-1694137.155266709</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="C31" t="n">
-        <v>11.7</v>
+        <v>11.88</v>
       </c>
       <c r="D31" t="n">
-        <v>11.7</v>
+        <v>11.88</v>
       </c>
       <c r="E31" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="F31" t="n">
-        <v>163.1726</v>
+        <v>12914.5437</v>
       </c>
       <c r="G31" t="n">
-        <v>-1122322.810333212</v>
+        <v>-1681222.611566709</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,67 +1511,65 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.7</v>
+        <v>11.95</v>
       </c>
       <c r="C32" t="n">
-        <v>11.7</v>
+        <v>11.95</v>
       </c>
       <c r="D32" t="n">
-        <v>11.7</v>
+        <v>11.95</v>
       </c>
       <c r="E32" t="n">
-        <v>11.7</v>
+        <v>11.95</v>
       </c>
       <c r="F32" t="n">
-        <v>91.8304</v>
+        <v>41.8411</v>
       </c>
       <c r="G32" t="n">
-        <v>-1122322.810333212</v>
+        <v>-1681180.770466709</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="C33" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="D33" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="E33" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="F33" t="n">
-        <v>7199.2027</v>
+        <v>7440.9644</v>
       </c>
       <c r="G33" t="n">
-        <v>-1122322.810333212</v>
+        <v>-1688621.734866709</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1546,39 +1578,34 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.7</v>
+        <v>11.93</v>
       </c>
       <c r="C34" t="n">
-        <v>11.77</v>
+        <v>11.93</v>
       </c>
       <c r="D34" t="n">
-        <v>11.77</v>
+        <v>11.93</v>
       </c>
       <c r="E34" t="n">
-        <v>11.7</v>
+        <v>11.93</v>
       </c>
       <c r="F34" t="n">
-        <v>18012.8154</v>
+        <v>43</v>
       </c>
       <c r="G34" t="n">
-        <v>-1104309.994933212</v>
+        <v>-1688578.734866709</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1587,39 +1614,34 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.79</v>
+        <v>11.9</v>
       </c>
       <c r="C35" t="n">
-        <v>11.79</v>
+        <v>11.88</v>
       </c>
       <c r="D35" t="n">
-        <v>11.79</v>
+        <v>11.9</v>
       </c>
       <c r="E35" t="n">
-        <v>11.79</v>
+        <v>11.88</v>
       </c>
       <c r="F35" t="n">
-        <v>236.6424</v>
+        <v>202</v>
       </c>
       <c r="G35" t="n">
-        <v>-1104073.352533212</v>
+        <v>-1688780.734866709</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1628,39 +1650,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="C36" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="D36" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="E36" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="F36" t="n">
-        <v>36687.8368</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>-1140761.189333212</v>
+        <v>-1688680.734866709</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1669,39 +1686,34 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="C37" t="n">
-        <v>11.77</v>
+        <v>11.85</v>
       </c>
       <c r="D37" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="E37" t="n">
-        <v>11.77</v>
+        <v>11.85</v>
       </c>
       <c r="F37" t="n">
-        <v>9363.270500000001</v>
+        <v>89.43600000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>-1140761.189333212</v>
+        <v>-1688770.170866709</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1710,39 +1722,34 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.7</v>
+        <v>11.93</v>
       </c>
       <c r="C38" t="n">
-        <v>11.69</v>
+        <v>11.93</v>
       </c>
       <c r="D38" t="n">
-        <v>11.7</v>
+        <v>11.93</v>
       </c>
       <c r="E38" t="n">
-        <v>11.69</v>
+        <v>11.93</v>
       </c>
       <c r="F38" t="n">
-        <v>21157.3828</v>
+        <v>42</v>
       </c>
       <c r="G38" t="n">
-        <v>-1161918.572133212</v>
+        <v>-1688728.170866709</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1751,39 +1758,34 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.76</v>
+        <v>11.77</v>
       </c>
       <c r="C39" t="n">
-        <v>11.76</v>
+        <v>11.74</v>
       </c>
       <c r="D39" t="n">
-        <v>11.76</v>
+        <v>11.77</v>
       </c>
       <c r="E39" t="n">
-        <v>11.76</v>
+        <v>11.74</v>
       </c>
       <c r="F39" t="n">
-        <v>43</v>
+        <v>388221.2182</v>
       </c>
       <c r="G39" t="n">
-        <v>-1161875.572133212</v>
+        <v>-2076949.389066709</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1792,39 +1794,34 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.69</v>
+        <v>11.75</v>
       </c>
       <c r="C40" t="n">
-        <v>11.69</v>
+        <v>11.75</v>
       </c>
       <c r="D40" t="n">
-        <v>11.69</v>
+        <v>11.75</v>
       </c>
       <c r="E40" t="n">
-        <v>11.69</v>
+        <v>11.75</v>
       </c>
       <c r="F40" t="n">
-        <v>8912.5996</v>
+        <v>141.9677</v>
       </c>
       <c r="G40" t="n">
-        <v>-1170788.171733212</v>
+        <v>-2076807.421366709</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1833,39 +1830,34 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.76</v>
+        <v>11.74</v>
       </c>
       <c r="C41" t="n">
-        <v>11.76</v>
+        <v>11.74</v>
       </c>
       <c r="D41" t="n">
-        <v>11.76</v>
+        <v>11.74</v>
       </c>
       <c r="E41" t="n">
-        <v>11.76</v>
+        <v>11.74</v>
       </c>
       <c r="F41" t="n">
-        <v>56650.48</v>
+        <v>207.8034</v>
       </c>
       <c r="G41" t="n">
-        <v>-1114137.691733212</v>
+        <v>-2077015.224766709</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1874,39 +1866,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.76</v>
+        <v>11.75</v>
       </c>
       <c r="C42" t="n">
-        <v>11.76</v>
+        <v>11.74</v>
       </c>
       <c r="D42" t="n">
-        <v>11.76</v>
+        <v>11.75</v>
       </c>
       <c r="E42" t="n">
-        <v>11.76</v>
+        <v>11.74</v>
       </c>
       <c r="F42" t="n">
-        <v>86</v>
+        <v>52129.185</v>
       </c>
       <c r="G42" t="n">
-        <v>-1114137.691733212</v>
+        <v>-2077015.224766709</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1915,39 +1902,34 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.69</v>
+        <v>11.74</v>
       </c>
       <c r="C43" t="n">
-        <v>11.69</v>
+        <v>11.72</v>
       </c>
       <c r="D43" t="n">
-        <v>11.69</v>
+        <v>11.74</v>
       </c>
       <c r="E43" t="n">
-        <v>11.69</v>
+        <v>11.72</v>
       </c>
       <c r="F43" t="n">
-        <v>26083.1437</v>
+        <v>113162.9885</v>
       </c>
       <c r="G43" t="n">
-        <v>-1140220.835433212</v>
+        <v>-2190178.213266709</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1956,39 +1938,34 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
       <c r="C44" t="n">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
       <c r="D44" t="n">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
       <c r="E44" t="n">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
       <c r="F44" t="n">
-        <v>4081.9701</v>
+        <v>14359.5957</v>
       </c>
       <c r="G44" t="n">
-        <v>-1144302.805533212</v>
+        <v>-2190178.213266709</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1997,39 +1974,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.76</v>
+        <v>11.72</v>
       </c>
       <c r="C45" t="n">
-        <v>11.76</v>
+        <v>11.72</v>
       </c>
       <c r="D45" t="n">
-        <v>11.76</v>
+        <v>11.72</v>
       </c>
       <c r="E45" t="n">
-        <v>11.76</v>
+        <v>11.72</v>
       </c>
       <c r="F45" t="n">
-        <v>43</v>
+        <v>9013.5967</v>
       </c>
       <c r="G45" t="n">
-        <v>-1144259.805533212</v>
+        <v>-2190178.213266709</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2038,39 +2010,34 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.76</v>
+        <v>11.69</v>
       </c>
       <c r="C46" t="n">
-        <v>11.76</v>
+        <v>11.72</v>
       </c>
       <c r="D46" t="n">
-        <v>11.76</v>
+        <v>11.72</v>
       </c>
       <c r="E46" t="n">
-        <v>11.76</v>
+        <v>11.69</v>
       </c>
       <c r="F46" t="n">
-        <v>1229264.8005</v>
+        <v>963.6743</v>
       </c>
       <c r="G46" t="n">
-        <v>-1144259.805533212</v>
+        <v>-2190178.213266709</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2079,39 +2046,34 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.79</v>
+        <v>11.72</v>
       </c>
       <c r="C47" t="n">
-        <v>11.8</v>
+        <v>11.72</v>
       </c>
       <c r="D47" t="n">
-        <v>11.8</v>
+        <v>11.72</v>
       </c>
       <c r="E47" t="n">
-        <v>11.79</v>
+        <v>11.72</v>
       </c>
       <c r="F47" t="n">
-        <v>29203.3429</v>
+        <v>51.2281</v>
       </c>
       <c r="G47" t="n">
-        <v>-1115056.462633212</v>
+        <v>-2190178.213266709</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2120,39 +2082,34 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.89</v>
+        <v>11.72</v>
       </c>
       <c r="C48" t="n">
-        <v>11.89</v>
+        <v>11.94</v>
       </c>
       <c r="D48" t="n">
-        <v>11.89</v>
+        <v>11.94</v>
       </c>
       <c r="E48" t="n">
-        <v>11.89</v>
+        <v>11.72</v>
       </c>
       <c r="F48" t="n">
-        <v>896.4351</v>
+        <v>100914.9724</v>
       </c>
       <c r="G48" t="n">
-        <v>-1114160.027533212</v>
+        <v>-2089263.240866709</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2161,39 +2118,34 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.98</v>
+        <v>11.8</v>
       </c>
       <c r="C49" t="n">
-        <v>11.98</v>
+        <v>11.8</v>
       </c>
       <c r="D49" t="n">
-        <v>11.98</v>
+        <v>11.8</v>
       </c>
       <c r="E49" t="n">
-        <v>11.98</v>
+        <v>11.8</v>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>86311.5744</v>
       </c>
       <c r="G49" t="n">
-        <v>-1114110.027533212</v>
+        <v>-2175574.815266709</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2202,39 +2154,34 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
       <c r="C50" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
       <c r="D50" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
       <c r="E50" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
       <c r="F50" t="n">
-        <v>17890.0403</v>
+        <v>113688.4256</v>
       </c>
       <c r="G50" t="n">
-        <v>-1114110.027533212</v>
+        <v>-2289263.24086671</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2243,17 +2190,12 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2263,19 +2205,19 @@
         <v>11.9</v>
       </c>
       <c r="C51" t="n">
-        <v>11.9</v>
+        <v>11.68</v>
       </c>
       <c r="D51" t="n">
         <v>11.9</v>
       </c>
       <c r="E51" t="n">
-        <v>11.9</v>
+        <v>11.68</v>
       </c>
       <c r="F51" t="n">
-        <v>636.419</v>
+        <v>91766.3458</v>
       </c>
       <c r="G51" t="n">
-        <v>-1114746.446533212</v>
+        <v>-2381029.586666709</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2284,39 +2226,34 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="C52" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="D52" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="E52" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="F52" t="n">
-        <v>739.2152</v>
+        <v>43</v>
       </c>
       <c r="G52" t="n">
-        <v>-1115485.661733212</v>
+        <v>-2380986.586666709</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2325,39 +2262,34 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="C53" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="D53" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="E53" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="F53" t="n">
-        <v>59.6917</v>
+        <v>46188.1296</v>
       </c>
       <c r="G53" t="n">
-        <v>-1115485.661733212</v>
+        <v>-2380986.586666709</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2366,39 +2298,34 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="C54" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="D54" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="E54" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="F54" t="n">
-        <v>20745.131</v>
+        <v>42</v>
       </c>
       <c r="G54" t="n">
-        <v>-1136230.792733212</v>
+        <v>-2380944.586666709</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2407,39 +2334,34 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.81</v>
+        <v>11.73</v>
       </c>
       <c r="C55" t="n">
-        <v>11.81</v>
+        <v>11.73</v>
       </c>
       <c r="D55" t="n">
-        <v>11.81</v>
+        <v>11.73</v>
       </c>
       <c r="E55" t="n">
-        <v>11.81</v>
+        <v>11.73</v>
       </c>
       <c r="F55" t="n">
-        <v>196.3248</v>
+        <v>65.7826</v>
       </c>
       <c r="G55" t="n">
-        <v>-1136230.792733212</v>
+        <v>-2381010.369266709</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2448,39 +2370,34 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.81</v>
+        <v>11.73</v>
       </c>
       <c r="C56" t="n">
-        <v>11.81</v>
+        <v>11.73</v>
       </c>
       <c r="D56" t="n">
-        <v>11.81</v>
+        <v>11.73</v>
       </c>
       <c r="E56" t="n">
-        <v>11.81</v>
+        <v>11.73</v>
       </c>
       <c r="F56" t="n">
-        <v>8679.080900000001</v>
+        <v>51.3966</v>
       </c>
       <c r="G56" t="n">
-        <v>-1136230.792733212</v>
+        <v>-2381010.369266709</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2489,39 +2406,34 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.96</v>
+        <v>11.72</v>
       </c>
       <c r="C57" t="n">
-        <v>11.96</v>
+        <v>11.7</v>
       </c>
       <c r="D57" t="n">
-        <v>11.96</v>
+        <v>11.72</v>
       </c>
       <c r="E57" t="n">
-        <v>11.96</v>
+        <v>11.7</v>
       </c>
       <c r="F57" t="n">
-        <v>196.3248</v>
+        <v>78223.58809999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-1136034.467933212</v>
+        <v>-2459233.957366709</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2530,39 +2442,34 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
       <c r="C58" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
       <c r="D58" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
       <c r="E58" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
       <c r="F58" t="n">
-        <v>9175.5394</v>
+        <v>1470.9124</v>
       </c>
       <c r="G58" t="n">
-        <v>-1126858.928533212</v>
+        <v>-2459233.957366709</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2571,39 +2478,34 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
       <c r="C59" t="n">
-        <v>12.18</v>
+        <v>11.7</v>
       </c>
       <c r="D59" t="n">
-        <v>12.18</v>
+        <v>11.7</v>
       </c>
       <c r="E59" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
       <c r="F59" t="n">
-        <v>3597.169466502463</v>
+        <v>13841.7187</v>
       </c>
       <c r="G59" t="n">
-        <v>-1123261.759066709</v>
+        <v>-2459233.957366709</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2612,80 +2514,70 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.91</v>
+        <v>11.69</v>
       </c>
       <c r="C60" t="n">
-        <v>11.91</v>
+        <v>11.69</v>
       </c>
       <c r="D60" t="n">
-        <v>11.91</v>
+        <v>11.69</v>
       </c>
       <c r="E60" t="n">
-        <v>11.91</v>
+        <v>11.69</v>
       </c>
       <c r="F60" t="n">
-        <v>212.3437</v>
+        <v>45</v>
       </c>
       <c r="G60" t="n">
-        <v>-1123474.102766709</v>
+        <v>-2459278.957366709</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>1.012948717948718</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.18</v>
+        <v>11.7</v>
       </c>
       <c r="C61" t="n">
-        <v>12.18</v>
+        <v>11.7</v>
       </c>
       <c r="D61" t="n">
-        <v>12.18</v>
+        <v>11.7</v>
       </c>
       <c r="E61" t="n">
-        <v>12.18</v>
+        <v>11.7</v>
       </c>
       <c r="F61" t="n">
-        <v>42</v>
+        <v>445.9176</v>
       </c>
       <c r="G61" t="n">
-        <v>-1123432.102766709</v>
+        <v>-2458833.039766709</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2699,34 +2591,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.95</v>
+        <v>11.7</v>
       </c>
       <c r="C62" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D62" t="n">
-        <v>11.95</v>
+        <v>11.7</v>
       </c>
       <c r="E62" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F62" t="n">
-        <v>300013.4274</v>
+        <v>28932.1365</v>
       </c>
       <c r="G62" t="n">
-        <v>-1423445.530166709</v>
+        <v>-2458833.039766709</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2734,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="C63" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D63" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E63" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="F63" t="n">
-        <v>5271.7874</v>
+        <v>106328.5879</v>
       </c>
       <c r="G63" t="n">
-        <v>-1423445.530166709</v>
+        <v>-2458833.039766709</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2769,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C64" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="D64" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E64" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="F64" t="n">
-        <v>11710.0562</v>
+        <v>59752.8523</v>
       </c>
       <c r="G64" t="n">
-        <v>-1423445.530166709</v>
+        <v>-2518585.892066709</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2804,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C65" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D65" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E65" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="F65" t="n">
-        <v>2900.2859</v>
+        <v>114.052</v>
       </c>
       <c r="G65" t="n">
-        <v>-1423445.530166709</v>
+        <v>-2518471.840066709</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2839,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="C66" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="D66" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="E66" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="F66" t="n">
-        <v>200560.3043</v>
+        <v>45</v>
       </c>
       <c r="G66" t="n">
-        <v>-1423445.530166709</v>
+        <v>-2518516.840066709</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2874,13 +2771,14 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.8</v>
+        <v>11.68</v>
       </c>
       <c r="C67" t="n">
         <v>11.8</v>
@@ -2889,13 +2787,13 @@
         <v>11.8</v>
       </c>
       <c r="E67" t="n">
-        <v>11.8</v>
+        <v>11.68</v>
       </c>
       <c r="F67" t="n">
-        <v>317803.0321</v>
+        <v>199.3744</v>
       </c>
       <c r="G67" t="n">
-        <v>-1423445.530166709</v>
+        <v>-2518317.465666709</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2909,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2918,19 +2817,19 @@
         <v>11.79</v>
       </c>
       <c r="C68" t="n">
-        <v>11.72</v>
+        <v>11.87</v>
       </c>
       <c r="D68" t="n">
-        <v>11.8</v>
+        <v>11.87</v>
       </c>
       <c r="E68" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="F68" t="n">
-        <v>103012.6074</v>
+        <v>1430</v>
       </c>
       <c r="G68" t="n">
-        <v>-1526458.137566709</v>
+        <v>-2516887.465666709</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2944,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="C69" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="D69" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="E69" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="F69" t="n">
-        <v>18050.7965</v>
+        <v>45</v>
       </c>
       <c r="G69" t="n">
-        <v>-1508407.341066709</v>
+        <v>-2516932.465666709</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2979,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.73</v>
+        <v>11.7</v>
       </c>
       <c r="C70" t="n">
-        <v>11.73</v>
+        <v>11.68</v>
       </c>
       <c r="D70" t="n">
-        <v>11.73</v>
+        <v>11.7</v>
       </c>
       <c r="E70" t="n">
-        <v>11.73</v>
+        <v>11.68</v>
       </c>
       <c r="F70" t="n">
-        <v>18315.9625</v>
+        <v>348.8704</v>
       </c>
       <c r="G70" t="n">
-        <v>-1526723.303566709</v>
+        <v>-2516583.595266709</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3014,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.89</v>
+        <v>11.7</v>
       </c>
       <c r="C71" t="n">
-        <v>11.89</v>
+        <v>11.7</v>
       </c>
       <c r="D71" t="n">
-        <v>11.89</v>
+        <v>11.7</v>
       </c>
       <c r="E71" t="n">
-        <v>11.89</v>
+        <v>11.7</v>
       </c>
       <c r="F71" t="n">
-        <v>42.0522</v>
+        <v>556.5667</v>
       </c>
       <c r="G71" t="n">
-        <v>-1526681.251366709</v>
+        <v>-2516027.028566709</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3049,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.89</v>
+        <v>11.68</v>
       </c>
       <c r="C72" t="n">
-        <v>11.74</v>
+        <v>11.68</v>
       </c>
       <c r="D72" t="n">
-        <v>11.89</v>
+        <v>11.68</v>
       </c>
       <c r="E72" t="n">
-        <v>11.74</v>
+        <v>11.68</v>
       </c>
       <c r="F72" t="n">
-        <v>167455.9039</v>
+        <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>-1694137.155266709</v>
+        <v>-2516072.028566709</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3084,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.74</v>
+        <v>11.7</v>
       </c>
       <c r="C73" t="n">
-        <v>11.88</v>
+        <v>11.7</v>
       </c>
       <c r="D73" t="n">
-        <v>11.88</v>
+        <v>11.7</v>
       </c>
       <c r="E73" t="n">
-        <v>11.74</v>
+        <v>11.7</v>
       </c>
       <c r="F73" t="n">
-        <v>12914.5437</v>
+        <v>43456.5603</v>
       </c>
       <c r="G73" t="n">
-        <v>-1681222.611566709</v>
+        <v>-2472615.468266709</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3119,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.95</v>
+        <v>11.7</v>
       </c>
       <c r="C74" t="n">
-        <v>11.95</v>
+        <v>11.7</v>
       </c>
       <c r="D74" t="n">
-        <v>11.95</v>
+        <v>11.7</v>
       </c>
       <c r="E74" t="n">
-        <v>11.95</v>
+        <v>11.7</v>
       </c>
       <c r="F74" t="n">
-        <v>41.8411</v>
+        <v>55416.9708</v>
       </c>
       <c r="G74" t="n">
-        <v>-1681180.770466709</v>
+        <v>-2472615.468266709</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3154,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.89</v>
+        <v>11.69</v>
       </c>
       <c r="C75" t="n">
-        <v>11.89</v>
+        <v>11.69</v>
       </c>
       <c r="D75" t="n">
-        <v>11.89</v>
+        <v>11.69</v>
       </c>
       <c r="E75" t="n">
-        <v>11.89</v>
+        <v>11.69</v>
       </c>
       <c r="F75" t="n">
-        <v>7440.9644</v>
+        <v>45</v>
       </c>
       <c r="G75" t="n">
-        <v>-1688621.734866709</v>
+        <v>-2472660.468266709</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3189,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.93</v>
+        <v>11.68</v>
       </c>
       <c r="C76" t="n">
-        <v>11.93</v>
+        <v>11.68</v>
       </c>
       <c r="D76" t="n">
-        <v>11.93</v>
+        <v>11.68</v>
       </c>
       <c r="E76" t="n">
-        <v>11.93</v>
+        <v>11.68</v>
       </c>
       <c r="F76" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G76" t="n">
-        <v>-1688578.734866709</v>
+        <v>-2472705.468266709</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3224,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C77" t="n">
-        <v>11.88</v>
+        <v>11.7</v>
       </c>
       <c r="D77" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E77" t="n">
-        <v>11.88</v>
+        <v>11.7</v>
       </c>
       <c r="F77" t="n">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="G77" t="n">
-        <v>-1688780.734866709</v>
+        <v>-2472554.468266709</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3259,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C78" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D78" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E78" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>0.9798</v>
       </c>
       <c r="G78" t="n">
-        <v>-1688680.734866709</v>
+        <v>-2472554.468266709</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3294,203 +3203,245 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C79" t="n">
-        <v>11.85</v>
+        <v>11.7</v>
       </c>
       <c r="D79" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E79" t="n">
-        <v>11.85</v>
+        <v>11.7</v>
       </c>
       <c r="F79" t="n">
-        <v>89.43600000000001</v>
+        <v>137.778</v>
       </c>
       <c r="G79" t="n">
-        <v>-1688770.170866709</v>
+        <v>-2472554.468266709</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K79" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.93</v>
+        <v>11.7</v>
       </c>
       <c r="C80" t="n">
-        <v>11.93</v>
+        <v>11.7</v>
       </c>
       <c r="D80" t="n">
-        <v>11.93</v>
+        <v>11.7</v>
       </c>
       <c r="E80" t="n">
-        <v>11.93</v>
+        <v>11.7</v>
       </c>
       <c r="F80" t="n">
-        <v>42</v>
+        <v>138.8426</v>
       </c>
       <c r="G80" t="n">
-        <v>-1688728.170866709</v>
+        <v>-2472554.468266709</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K80" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="C81" t="n">
-        <v>11.74</v>
+        <v>11.7</v>
       </c>
       <c r="D81" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="E81" t="n">
-        <v>11.74</v>
+        <v>11.7</v>
       </c>
       <c r="F81" t="n">
-        <v>388221.2182</v>
+        <v>23.3794</v>
       </c>
       <c r="G81" t="n">
-        <v>-2076949.389066709</v>
+        <v>-2472554.468266709</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K81" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.75</v>
+        <v>11.7</v>
       </c>
       <c r="C82" t="n">
-        <v>11.75</v>
+        <v>11.84</v>
       </c>
       <c r="D82" t="n">
-        <v>11.75</v>
+        <v>11.84</v>
       </c>
       <c r="E82" t="n">
-        <v>11.75</v>
+        <v>11.7</v>
       </c>
       <c r="F82" t="n">
-        <v>141.9677</v>
+        <v>143</v>
       </c>
       <c r="G82" t="n">
-        <v>-2076807.421366709</v>
+        <v>-2472411.468266709</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K82" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.74</v>
+        <v>11.83</v>
       </c>
       <c r="C83" t="n">
-        <v>11.74</v>
+        <v>11.83</v>
       </c>
       <c r="D83" t="n">
-        <v>11.74</v>
+        <v>11.83</v>
       </c>
       <c r="E83" t="n">
-        <v>11.74</v>
+        <v>11.83</v>
       </c>
       <c r="F83" t="n">
-        <v>207.8034</v>
+        <v>43</v>
       </c>
       <c r="G83" t="n">
-        <v>-2077015.224766709</v>
+        <v>-2472454.468266709</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="K83" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.75</v>
+        <v>11.7</v>
       </c>
       <c r="C84" t="n">
-        <v>11.74</v>
+        <v>11.7</v>
       </c>
       <c r="D84" t="n">
-        <v>11.75</v>
+        <v>11.7</v>
       </c>
       <c r="E84" t="n">
-        <v>11.74</v>
+        <v>11.7</v>
       </c>
       <c r="F84" t="n">
-        <v>52129.185</v>
+        <v>5496.9448</v>
       </c>
       <c r="G84" t="n">
-        <v>-2077015.224766709</v>
+        <v>-2477951.413066709</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3499,33 +3450,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.74</v>
+        <v>11.83</v>
       </c>
       <c r="C85" t="n">
-        <v>11.72</v>
+        <v>11.84</v>
       </c>
       <c r="D85" t="n">
-        <v>11.74</v>
+        <v>11.84</v>
       </c>
       <c r="E85" t="n">
-        <v>11.72</v>
+        <v>11.83</v>
       </c>
       <c r="F85" t="n">
-        <v>113162.9885</v>
+        <v>85.03410422297297</v>
       </c>
       <c r="G85" t="n">
-        <v>-2190178.213266709</v>
+        <v>-2477866.378962487</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3534,33 +3492,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.72</v>
+        <v>11.82</v>
       </c>
       <c r="C86" t="n">
-        <v>11.72</v>
+        <v>11.82</v>
       </c>
       <c r="D86" t="n">
-        <v>11.72</v>
+        <v>11.82</v>
       </c>
       <c r="E86" t="n">
-        <v>11.72</v>
+        <v>11.82</v>
       </c>
       <c r="F86" t="n">
-        <v>14359.5957</v>
+        <v>298</v>
       </c>
       <c r="G86" t="n">
-        <v>-2190178.213266709</v>
+        <v>-2478164.378962487</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3569,33 +3534,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="C87" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="D87" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="E87" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="F87" t="n">
-        <v>9013.5967</v>
+        <v>10298.3164</v>
       </c>
       <c r="G87" t="n">
-        <v>-2190178.213266709</v>
+        <v>-2488462.695362486</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3604,33 +3576,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="C88" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="D88" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="E88" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="F88" t="n">
-        <v>963.6743</v>
+        <v>332023.5931</v>
       </c>
       <c r="G88" t="n">
-        <v>-2190178.213266709</v>
+        <v>-2488462.695362486</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3639,33 +3618,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="C89" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="D89" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="E89" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="F89" t="n">
-        <v>51.2281</v>
+        <v>55.9865</v>
       </c>
       <c r="G89" t="n">
-        <v>-2190178.213266709</v>
+        <v>-2488462.695362486</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3674,33 +3660,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.72</v>
+        <v>11.69</v>
       </c>
       <c r="C90" t="n">
-        <v>11.94</v>
+        <v>11.78</v>
       </c>
       <c r="D90" t="n">
-        <v>11.94</v>
+        <v>11.78</v>
       </c>
       <c r="E90" t="n">
-        <v>11.72</v>
+        <v>11.69</v>
       </c>
       <c r="F90" t="n">
-        <v>100914.9724</v>
+        <v>1050</v>
       </c>
       <c r="G90" t="n">
-        <v>-2089263.240866709</v>
+        <v>-2487412.695362486</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3709,33 +3702,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="C91" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="D91" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="E91" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="F91" t="n">
-        <v>86311.5744</v>
+        <v>49924.8912</v>
       </c>
       <c r="G91" t="n">
-        <v>-2175574.815266709</v>
+        <v>-2537337.586562486</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3744,33 +3744,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C92" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="D92" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="E92" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="F92" t="n">
-        <v>113688.4256</v>
+        <v>86715.0543</v>
       </c>
       <c r="G92" t="n">
-        <v>-2289263.24086671</v>
+        <v>-2624052.640862486</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3779,33 +3786,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.9</v>
+        <v>11.66</v>
       </c>
       <c r="C93" t="n">
-        <v>11.68</v>
+        <v>11.66</v>
       </c>
       <c r="D93" t="n">
-        <v>11.9</v>
+        <v>11.66</v>
       </c>
       <c r="E93" t="n">
-        <v>11.68</v>
+        <v>11.66</v>
       </c>
       <c r="F93" t="n">
-        <v>91766.3458</v>
+        <v>59470.0104</v>
       </c>
       <c r="G93" t="n">
-        <v>-2381029.586666709</v>
+        <v>-2683522.651262486</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3814,33 +3828,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.9</v>
+        <v>11.66</v>
       </c>
       <c r="C94" t="n">
-        <v>11.9</v>
+        <v>11.66</v>
       </c>
       <c r="D94" t="n">
-        <v>11.9</v>
+        <v>11.66</v>
       </c>
       <c r="E94" t="n">
-        <v>11.9</v>
+        <v>11.66</v>
       </c>
       <c r="F94" t="n">
-        <v>43</v>
+        <v>146.6596</v>
       </c>
       <c r="G94" t="n">
-        <v>-2380986.586666709</v>
+        <v>-2683522.651262486</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3849,33 +3870,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C95" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D95" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E95" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F95" t="n">
-        <v>46188.1296</v>
+        <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>-2380986.586666709</v>
+        <v>-2683472.651262486</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3884,33 +3912,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.92</v>
+        <v>11.7</v>
       </c>
       <c r="C96" t="n">
-        <v>11.92</v>
+        <v>11.7</v>
       </c>
       <c r="D96" t="n">
-        <v>11.92</v>
+        <v>11.7</v>
       </c>
       <c r="E96" t="n">
-        <v>11.92</v>
+        <v>11.7</v>
       </c>
       <c r="F96" t="n">
-        <v>42</v>
+        <v>893.8201</v>
       </c>
       <c r="G96" t="n">
-        <v>-2380944.586666709</v>
+        <v>-2683472.651262486</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3919,33 +3954,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="C97" t="n">
-        <v>11.73</v>
+        <v>11.66</v>
       </c>
       <c r="D97" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="E97" t="n">
-        <v>11.73</v>
+        <v>11.66</v>
       </c>
       <c r="F97" t="n">
-        <v>65.7826</v>
+        <v>48195.8077</v>
       </c>
       <c r="G97" t="n">
-        <v>-2381010.369266709</v>
+        <v>-2731668.458962486</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3954,68 +3996,84 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.73</v>
+        <v>11.66</v>
       </c>
       <c r="C98" t="n">
-        <v>11.73</v>
+        <v>11.66</v>
       </c>
       <c r="D98" t="n">
-        <v>11.73</v>
+        <v>11.66</v>
       </c>
       <c r="E98" t="n">
-        <v>11.73</v>
+        <v>11.66</v>
       </c>
       <c r="F98" t="n">
-        <v>51.3966</v>
+        <v>30051.2177</v>
       </c>
       <c r="G98" t="n">
-        <v>-2381010.369266709</v>
+        <v>-2731668.458962486</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K98" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.72</v>
+        <v>11.65</v>
       </c>
       <c r="C99" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="D99" t="n">
-        <v>11.72</v>
+        <v>11.65</v>
       </c>
       <c r="E99" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="F99" t="n">
-        <v>78223.58809999999</v>
+        <v>17591.4425</v>
       </c>
       <c r="G99" t="n">
-        <v>-2459233.957366709</v>
+        <v>-2749259.901462486</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4024,103 +4082,128 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="C100" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="D100" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="E100" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="F100" t="n">
-        <v>1470.9124</v>
+        <v>95626.8493</v>
       </c>
       <c r="G100" t="n">
-        <v>-2459233.957366709</v>
+        <v>-2749259.901462486</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K100" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="C101" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="D101" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="E101" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="F101" t="n">
-        <v>13841.7187</v>
+        <v>3495.5741</v>
       </c>
       <c r="G101" t="n">
-        <v>-2459233.957366709</v>
+        <v>-2749259.901462486</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K101" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.69</v>
+        <v>11.64</v>
       </c>
       <c r="C102" t="n">
-        <v>11.69</v>
+        <v>11.64</v>
       </c>
       <c r="D102" t="n">
-        <v>11.69</v>
+        <v>11.64</v>
       </c>
       <c r="E102" t="n">
-        <v>11.69</v>
+        <v>11.64</v>
       </c>
       <c r="F102" t="n">
         <v>45</v>
       </c>
       <c r="G102" t="n">
-        <v>-2459278.957366709</v>
+        <v>-2749304.901462486</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4129,33 +4212,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="C103" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="D103" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="E103" t="n">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="F103" t="n">
-        <v>445.9176</v>
+        <v>4806.1848</v>
       </c>
       <c r="G103" t="n">
-        <v>-2458833.039766709</v>
+        <v>-2744498.716662486</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4164,33 +4254,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="C104" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="D104" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="E104" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="F104" t="n">
-        <v>28932.1365</v>
+        <v>45</v>
       </c>
       <c r="G104" t="n">
-        <v>-2458833.039766709</v>
+        <v>-2744453.716662486</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4199,68 +4296,84 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.69</v>
+        <v>11.67</v>
       </c>
       <c r="C105" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="D105" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="E105" t="n">
-        <v>11.69</v>
+        <v>11.67</v>
       </c>
       <c r="F105" t="n">
-        <v>106328.5879</v>
+        <v>53587.8672</v>
       </c>
       <c r="G105" t="n">
-        <v>-2458833.039766709</v>
+        <v>-2744453.716662486</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K105" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.7</v>
+        <v>11.64</v>
       </c>
       <c r="C106" t="n">
-        <v>11.67</v>
+        <v>11.64</v>
       </c>
       <c r="D106" t="n">
-        <v>11.7</v>
+        <v>11.64</v>
       </c>
       <c r="E106" t="n">
-        <v>11.67</v>
+        <v>11.64</v>
       </c>
       <c r="F106" t="n">
-        <v>59752.8523</v>
+        <v>45</v>
       </c>
       <c r="G106" t="n">
-        <v>-2518585.892066709</v>
+        <v>-2744498.716662486</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4269,33 +4382,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="C107" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="D107" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="E107" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="F107" t="n">
-        <v>114.052</v>
+        <v>5000</v>
       </c>
       <c r="G107" t="n">
-        <v>-2518471.840066709</v>
+        <v>-2739498.716662486</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4304,11 +4424,18 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4327,10 +4454,10 @@
         <v>11.67</v>
       </c>
       <c r="F108" t="n">
-        <v>45</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="n">
-        <v>-2518516.840066709</v>
+        <v>-2739498.716662486</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4339,33 +4466,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.68</v>
+        <v>11.67</v>
       </c>
       <c r="C109" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="D109" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="E109" t="n">
-        <v>11.68</v>
+        <v>11.67</v>
       </c>
       <c r="F109" t="n">
-        <v>199.3744</v>
+        <v>21070.3002</v>
       </c>
       <c r="G109" t="n">
-        <v>-2518317.465666709</v>
+        <v>-2718428.416462486</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4374,33 +4508,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.79</v>
+        <v>11.69</v>
       </c>
       <c r="C110" t="n">
-        <v>11.87</v>
+        <v>11.69</v>
       </c>
       <c r="D110" t="n">
-        <v>11.87</v>
+        <v>11.69</v>
       </c>
       <c r="E110" t="n">
-        <v>11.79</v>
+        <v>11.69</v>
       </c>
       <c r="F110" t="n">
-        <v>1430</v>
+        <v>5000</v>
       </c>
       <c r="G110" t="n">
-        <v>-2516887.465666709</v>
+        <v>-2718428.416462486</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4409,33 +4550,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="C111" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="D111" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="E111" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="F111" t="n">
-        <v>45</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>-2516932.465666709</v>
+        <v>-2718428.416462486</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4444,33 +4592,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C112" t="n">
-        <v>11.68</v>
+        <v>11.74</v>
       </c>
       <c r="D112" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="E112" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="F112" t="n">
-        <v>348.8704</v>
+        <v>57813.0389</v>
       </c>
       <c r="G112" t="n">
-        <v>-2516583.595266709</v>
+        <v>-2660615.377562486</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4479,33 +4634,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="C113" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="D113" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="E113" t="n">
-        <v>11.7</v>
+        <v>11.74</v>
       </c>
       <c r="F113" t="n">
-        <v>556.5667</v>
+        <v>5000</v>
       </c>
       <c r="G113" t="n">
-        <v>-2516027.028566709</v>
+        <v>-2660615.377562486</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4514,1658 +4676,62 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.68</v>
+        <v>11.74</v>
       </c>
       <c r="C114" t="n">
-        <v>11.68</v>
+        <v>11.74</v>
       </c>
       <c r="D114" t="n">
-        <v>11.68</v>
+        <v>11.74</v>
       </c>
       <c r="E114" t="n">
-        <v>11.68</v>
+        <v>11.74</v>
       </c>
       <c r="F114" t="n">
-        <v>45</v>
+        <v>7000</v>
       </c>
       <c r="G114" t="n">
-        <v>-2516072.028566709</v>
+        <v>-2660615.377562486</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C115" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D115" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E115" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F115" t="n">
-        <v>43456.5603</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-2472615.468266709</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C116" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D116" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E116" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>55416.9708</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-2472615.468266709</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C117" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D117" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E117" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F117" t="n">
-        <v>45</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-2472660.468266709</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K117" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="C118" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D118" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="E118" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F118" t="n">
-        <v>45</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-2472705.468266709</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C119" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D119" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E119" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F119" t="n">
-        <v>151</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="K119" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C120" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D120" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E120" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.9798</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C121" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D121" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E121" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F121" t="n">
-        <v>137.778</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C122" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E122" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>138.8426</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C123" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D123" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E123" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F123" t="n">
-        <v>23.3794</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C124" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D124" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E124" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F124" t="n">
-        <v>143</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-2472411.468266709</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C125" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="D125" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="E125" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F125" t="n">
-        <v>43</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-2472454.468266709</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C126" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D126" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E126" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F126" t="n">
-        <v>5496.9448</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-2477951.413066709</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C127" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D127" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E127" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F127" t="n">
-        <v>85.03410422297297</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-2477866.378962487</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="C128" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="D128" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="E128" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="F128" t="n">
-        <v>298</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-2478164.378962487</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C129" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E129" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>10298.3164</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-2488462.695362486</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E130" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>332023.5931</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-2488462.695362486</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C131" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D131" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E131" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>55.9865</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-2488462.695362486</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C132" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D132" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E132" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-2487412.695362486</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C133" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D133" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E133" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F133" t="n">
-        <v>49924.8912</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-2537337.586562486</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C134" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D134" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E134" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F134" t="n">
-        <v>86715.0543</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-2624052.640862486</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C135" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D135" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E135" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F135" t="n">
-        <v>59470.0104</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-2683522.651262486</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C136" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D136" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E136" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F136" t="n">
-        <v>146.6596</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-2683522.651262486</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E137" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>50</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-2683472.651262486</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K137" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>893.8201</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2683472.651262486</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C139" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D139" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E139" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F139" t="n">
-        <v>48195.8077</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-2731668.458962486</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C140" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D140" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E140" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F140" t="n">
-        <v>30051.2177</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-2731668.458962486</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="J114" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K114" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C141" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D141" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E141" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F141" t="n">
-        <v>17591.4425</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C142" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D142" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E142" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F142" t="n">
-        <v>95626.8493</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C143" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D143" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E143" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3495.5741</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C144" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D144" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="E144" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F144" t="n">
-        <v>45</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-2749304.901462486</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C145" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D145" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E145" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4806.1848</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-2744498.716662486</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C146" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D146" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E146" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F146" t="n">
-        <v>45</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-2744453.716662486</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C147" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D147" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E147" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F147" t="n">
-        <v>53587.8672</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-2744453.716662486</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K147" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C148" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D148" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="E148" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F148" t="n">
-        <v>45</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-2744498.716662486</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C149" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D149" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E149" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F149" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-2739498.716662486</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="K149" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C150" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D150" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E150" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-2739498.716662486</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C151" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D151" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E151" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F151" t="n">
-        <v>21070.3002</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-2718428.416462486</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K151" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C152" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D152" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E152" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F152" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-2718428.416462486</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C153" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D153" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E153" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F153" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-2718428.416462486</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C154" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D154" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E154" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F154" t="n">
-        <v>57813.0389</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-2660615.377562486</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C155" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D155" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E155" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="F155" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-2660615.377562486</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C156" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D156" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E156" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="F156" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-2660615.377562486</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.68</v>
+        <v>11.6</v>
       </c>
       <c r="C2" t="n">
-        <v>11.68</v>
+        <v>11.6</v>
       </c>
       <c r="D2" t="n">
-        <v>11.68</v>
+        <v>11.6</v>
       </c>
       <c r="E2" t="n">
-        <v>11.68</v>
+        <v>11.6</v>
       </c>
       <c r="F2" t="n">
-        <v>4081.9701</v>
+        <v>90330.9768</v>
       </c>
       <c r="G2" t="n">
-        <v>-1144302.805533212</v>
+        <v>-641295.7815177487</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.76</v>
+        <v>11.6</v>
       </c>
       <c r="C3" t="n">
-        <v>11.76</v>
+        <v>11.59</v>
       </c>
       <c r="D3" t="n">
-        <v>11.76</v>
+        <v>11.6</v>
       </c>
       <c r="E3" t="n">
-        <v>11.76</v>
+        <v>11.59</v>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>42556.1611</v>
       </c>
       <c r="G3" t="n">
-        <v>-1144259.805533212</v>
+        <v>-683851.9426177487</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.76</v>
+        <v>11.57</v>
       </c>
       <c r="C4" t="n">
-        <v>11.76</v>
+        <v>11.57</v>
       </c>
       <c r="D4" t="n">
-        <v>11.76</v>
+        <v>11.57</v>
       </c>
       <c r="E4" t="n">
-        <v>11.76</v>
+        <v>11.57</v>
       </c>
       <c r="F4" t="n">
-        <v>1229264.8005</v>
+        <v>65343</v>
       </c>
       <c r="G4" t="n">
-        <v>-1144259.805533212</v>
+        <v>-749194.9426177487</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.79</v>
+        <v>11.55</v>
       </c>
       <c r="C5" t="n">
-        <v>11.8</v>
+        <v>11.55</v>
       </c>
       <c r="D5" t="n">
-        <v>11.8</v>
+        <v>11.56</v>
       </c>
       <c r="E5" t="n">
-        <v>11.79</v>
+        <v>11.55</v>
       </c>
       <c r="F5" t="n">
-        <v>29203.3429</v>
+        <v>105993.0236</v>
       </c>
       <c r="G5" t="n">
-        <v>-1115056.462633212</v>
+        <v>-855187.9662177487</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="C6" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="D6" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="E6" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="F6" t="n">
-        <v>896.4351</v>
+        <v>43</v>
       </c>
       <c r="G6" t="n">
-        <v>-1114160.027533212</v>
+        <v>-855144.9662177487</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="C7" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="D7" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="E7" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>20221.505</v>
       </c>
       <c r="G7" t="n">
-        <v>-1114110.027533212</v>
+        <v>-875366.4712177487</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.98</v>
+        <v>11.77</v>
       </c>
       <c r="C8" t="n">
-        <v>11.98</v>
+        <v>11.81</v>
       </c>
       <c r="D8" t="n">
-        <v>11.98</v>
+        <v>11.81</v>
       </c>
       <c r="E8" t="n">
-        <v>11.98</v>
+        <v>11.77</v>
       </c>
       <c r="F8" t="n">
-        <v>17890.0403</v>
+        <v>22338.8492</v>
       </c>
       <c r="G8" t="n">
-        <v>-1114110.027533212</v>
+        <v>-853027.6220177487</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -702,16 +702,16 @@
         <v>11.9</v>
       </c>
       <c r="F9" t="n">
-        <v>636.419</v>
+        <v>53618.5653</v>
       </c>
       <c r="G9" t="n">
-        <v>-1114746.446533212</v>
+        <v>-799409.0567177486</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="C10" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="D10" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="E10" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="F10" t="n">
-        <v>739.2152</v>
+        <v>18660.127</v>
       </c>
       <c r="G10" t="n">
-        <v>-1115485.661733212</v>
+        <v>-780748.9297177487</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="C11" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="D11" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="E11" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="F11" t="n">
-        <v>59.6917</v>
+        <v>99950.1902</v>
       </c>
       <c r="G11" t="n">
-        <v>-1115485.661733212</v>
+        <v>-780748.9297177487</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="C12" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="D12" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="E12" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="F12" t="n">
-        <v>20745.131</v>
+        <v>219.4368</v>
       </c>
       <c r="G12" t="n">
-        <v>-1136230.792733212</v>
+        <v>-780968.3665177487</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="C13" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="D13" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="E13" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="F13" t="n">
-        <v>196.3248</v>
+        <v>574.873</v>
       </c>
       <c r="G13" t="n">
-        <v>-1136230.792733212</v>
+        <v>-781543.2395177487</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="C14" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="D14" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="E14" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="F14" t="n">
-        <v>8679.080900000001</v>
+        <v>317.652</v>
       </c>
       <c r="G14" t="n">
-        <v>-1136230.792733212</v>
+        <v>-781543.2395177487</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.96</v>
+        <v>11.8</v>
       </c>
       <c r="C15" t="n">
-        <v>11.96</v>
+        <v>11.74</v>
       </c>
       <c r="D15" t="n">
-        <v>11.96</v>
+        <v>11.8</v>
       </c>
       <c r="E15" t="n">
-        <v>11.96</v>
+        <v>11.74</v>
       </c>
       <c r="F15" t="n">
-        <v>196.3248</v>
+        <v>7385.8862</v>
       </c>
       <c r="G15" t="n">
-        <v>-1136034.467933212</v>
+        <v>-788929.1257177487</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.98</v>
+        <v>11.8</v>
       </c>
       <c r="C16" t="n">
-        <v>11.98</v>
+        <v>11.8</v>
       </c>
       <c r="D16" t="n">
-        <v>11.98</v>
+        <v>11.8</v>
       </c>
       <c r="E16" t="n">
-        <v>11.98</v>
+        <v>11.8</v>
       </c>
       <c r="F16" t="n">
-        <v>9175.5394</v>
+        <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>-1126858.928533212</v>
+        <v>-788884.1257177487</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.98</v>
+        <v>11.61</v>
       </c>
       <c r="C17" t="n">
-        <v>12.18</v>
+        <v>11.61</v>
       </c>
       <c r="D17" t="n">
-        <v>12.18</v>
+        <v>11.61</v>
       </c>
       <c r="E17" t="n">
-        <v>11.98</v>
+        <v>11.61</v>
       </c>
       <c r="F17" t="n">
-        <v>3597.169466502463</v>
+        <v>21533.161</v>
       </c>
       <c r="G17" t="n">
-        <v>-1123261.759066709</v>
+        <v>-810417.2867177486</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.91</v>
+        <v>11.6</v>
       </c>
       <c r="C18" t="n">
-        <v>11.91</v>
+        <v>11.56</v>
       </c>
       <c r="D18" t="n">
-        <v>11.91</v>
+        <v>11.6</v>
       </c>
       <c r="E18" t="n">
-        <v>11.91</v>
+        <v>11.56</v>
       </c>
       <c r="F18" t="n">
-        <v>212.3437</v>
+        <v>55122.9252</v>
       </c>
       <c r="G18" t="n">
-        <v>-1123474.102766709</v>
+        <v>-865540.2119177487</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.18</v>
+        <v>11.56</v>
       </c>
       <c r="C19" t="n">
-        <v>12.18</v>
+        <v>11.56</v>
       </c>
       <c r="D19" t="n">
-        <v>12.18</v>
+        <v>11.56</v>
       </c>
       <c r="E19" t="n">
-        <v>12.18</v>
+        <v>11.56</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>52829.9751</v>
       </c>
       <c r="G19" t="n">
-        <v>-1123432.102766709</v>
+        <v>-865540.2119177487</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.95</v>
+        <v>11.73</v>
       </c>
       <c r="C20" t="n">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="D20" t="n">
-        <v>11.95</v>
+        <v>11.77</v>
       </c>
       <c r="E20" t="n">
-        <v>11.8</v>
+        <v>11.73</v>
       </c>
       <c r="F20" t="n">
-        <v>300013.4274</v>
+        <v>784.9933845369584</v>
       </c>
       <c r="G20" t="n">
-        <v>-1423445.530166709</v>
+        <v>-864755.2185332117</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1134,16 +1134,16 @@
         <v>11.8</v>
       </c>
       <c r="F21" t="n">
-        <v>5271.7874</v>
+        <v>57972.2574</v>
       </c>
       <c r="G21" t="n">
-        <v>-1423445.530166709</v>
+        <v>-806782.9611332117</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1161,19 +1161,19 @@
         <v>11.8</v>
       </c>
       <c r="C22" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="D22" t="n">
         <v>11.8</v>
       </c>
       <c r="E22" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="F22" t="n">
-        <v>11710.0562</v>
+        <v>111838.8896</v>
       </c>
       <c r="G22" t="n">
-        <v>-1423445.530166709</v>
+        <v>-918621.8507332117</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="C23" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="D23" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="E23" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="F23" t="n">
-        <v>2900.2859</v>
+        <v>2266.3643</v>
       </c>
       <c r="G23" t="n">
-        <v>-1423445.530166709</v>
+        <v>-918621.8507332117</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="C24" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D24" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E24" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="F24" t="n">
-        <v>200560.3043</v>
+        <v>38657.2282</v>
       </c>
       <c r="G24" t="n">
-        <v>-1423445.530166709</v>
+        <v>-879964.6225332117</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="C25" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="D25" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="E25" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="F25" t="n">
-        <v>317803.0321</v>
+        <v>6498.7993</v>
       </c>
       <c r="G25" t="n">
-        <v>-1423445.530166709</v>
+        <v>-886463.4218332117</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>11.79</v>
       </c>
       <c r="C26" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="D26" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="E26" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="F26" t="n">
-        <v>103012.6074</v>
+        <v>32665.7595</v>
       </c>
       <c r="G26" t="n">
-        <v>-1526458.137566709</v>
+        <v>-886463.4218332117</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>11.9</v>
       </c>
       <c r="F27" t="n">
-        <v>18050.7965</v>
+        <v>217.43</v>
       </c>
       <c r="G27" t="n">
-        <v>-1508407.341066709</v>
+        <v>-886245.9918332116</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.73</v>
+        <v>11.8</v>
       </c>
       <c r="C28" t="n">
-        <v>11.73</v>
+        <v>11.79</v>
       </c>
       <c r="D28" t="n">
-        <v>11.73</v>
+        <v>11.8</v>
       </c>
       <c r="E28" t="n">
-        <v>11.73</v>
+        <v>11.79</v>
       </c>
       <c r="F28" t="n">
-        <v>18315.9625</v>
+        <v>47053.1439</v>
       </c>
       <c r="G28" t="n">
-        <v>-1526723.303566709</v>
+        <v>-933299.1357332116</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="C29" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="D29" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="E29" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="F29" t="n">
-        <v>42.0522</v>
+        <v>14650.2453</v>
       </c>
       <c r="G29" t="n">
-        <v>-1526681.251366709</v>
+        <v>-918648.8904332117</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="C30" t="n">
-        <v>11.74</v>
+        <v>11.99</v>
       </c>
       <c r="D30" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="E30" t="n">
-        <v>11.74</v>
+        <v>11.99</v>
       </c>
       <c r="F30" t="n">
-        <v>167455.9039</v>
+        <v>241.473</v>
       </c>
       <c r="G30" t="n">
-        <v>-1694137.155266709</v>
+        <v>-918407.4174332117</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.74</v>
+        <v>11.99</v>
       </c>
       <c r="C31" t="n">
-        <v>11.88</v>
+        <v>11.99</v>
       </c>
       <c r="D31" t="n">
-        <v>11.88</v>
+        <v>11.99</v>
       </c>
       <c r="E31" t="n">
-        <v>11.74</v>
+        <v>11.99</v>
       </c>
       <c r="F31" t="n">
-        <v>12914.5437</v>
+        <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>-1681222.611566709</v>
+        <v>-918407.4174332117</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.95</v>
+        <v>11.99</v>
       </c>
       <c r="C32" t="n">
-        <v>11.95</v>
+        <v>11.99</v>
       </c>
       <c r="D32" t="n">
-        <v>11.95</v>
+        <v>11.99</v>
       </c>
       <c r="E32" t="n">
-        <v>11.95</v>
+        <v>11.99</v>
       </c>
       <c r="F32" t="n">
-        <v>41.8411</v>
+        <v>42</v>
       </c>
       <c r="G32" t="n">
-        <v>-1681180.770466709</v>
+        <v>-918407.4174332117</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="C33" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="D33" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="E33" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>7440.9644</v>
+        <v>25675.9086</v>
       </c>
       <c r="G33" t="n">
-        <v>-1688621.734866709</v>
+        <v>-944083.3260332117</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.93</v>
+        <v>11.99</v>
       </c>
       <c r="C34" t="n">
-        <v>11.93</v>
+        <v>11.99</v>
       </c>
       <c r="D34" t="n">
-        <v>11.93</v>
+        <v>11.99</v>
       </c>
       <c r="E34" t="n">
-        <v>11.93</v>
+        <v>11.99</v>
       </c>
       <c r="F34" t="n">
-        <v>43</v>
+        <v>50482.9519</v>
       </c>
       <c r="G34" t="n">
-        <v>-1688578.734866709</v>
+        <v>-893600.3741332117</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1629,19 +1629,19 @@
         <v>11.9</v>
       </c>
       <c r="C35" t="n">
-        <v>11.88</v>
+        <v>11.99</v>
       </c>
       <c r="D35" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E35" t="n">
         <v>11.9</v>
       </c>
-      <c r="E35" t="n">
-        <v>11.88</v>
-      </c>
       <c r="F35" t="n">
-        <v>202</v>
+        <v>1182.7173</v>
       </c>
       <c r="G35" t="n">
-        <v>-1688780.734866709</v>
+        <v>-893600.3741332117</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1665,19 +1665,19 @@
         <v>11.9</v>
       </c>
       <c r="C36" t="n">
-        <v>11.9</v>
+        <v>11.79</v>
       </c>
       <c r="D36" t="n">
         <v>11.9</v>
       </c>
       <c r="E36" t="n">
-        <v>11.9</v>
+        <v>11.79</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>40822.3338</v>
       </c>
       <c r="G36" t="n">
-        <v>-1688680.734866709</v>
+        <v>-934422.7079332117</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.9</v>
+        <v>11.99</v>
       </c>
       <c r="C37" t="n">
-        <v>11.85</v>
+        <v>11.99</v>
       </c>
       <c r="D37" t="n">
-        <v>11.9</v>
+        <v>11.99</v>
       </c>
       <c r="E37" t="n">
-        <v>11.85</v>
+        <v>11.99</v>
       </c>
       <c r="F37" t="n">
-        <v>89.43600000000001</v>
+        <v>42</v>
       </c>
       <c r="G37" t="n">
-        <v>-1688770.170866709</v>
+        <v>-934380.7079332117</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.93</v>
+        <v>11.99</v>
       </c>
       <c r="C38" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>11.93</v>
+        <v>11.99</v>
       </c>
       <c r="F38" t="n">
-        <v>42</v>
+        <v>30039.6757</v>
       </c>
       <c r="G38" t="n">
-        <v>-1688728.170866709</v>
+        <v>-904341.0322332117</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.77</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>11.74</v>
+        <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>11.77</v>
+        <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>11.74</v>
+        <v>12</v>
       </c>
       <c r="F39" t="n">
-        <v>388221.2182</v>
+        <v>136421.0897</v>
       </c>
       <c r="G39" t="n">
-        <v>-2076949.389066709</v>
+        <v>-904341.0322332117</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.75</v>
+        <v>11.99</v>
       </c>
       <c r="C40" t="n">
-        <v>11.75</v>
+        <v>11.99</v>
       </c>
       <c r="D40" t="n">
-        <v>11.75</v>
+        <v>11.99</v>
       </c>
       <c r="E40" t="n">
-        <v>11.75</v>
+        <v>11.99</v>
       </c>
       <c r="F40" t="n">
-        <v>141.9677</v>
+        <v>364.4738</v>
       </c>
       <c r="G40" t="n">
-        <v>-2076807.421366709</v>
+        <v>-904705.5060332117</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.74</v>
+        <v>11.99</v>
       </c>
       <c r="C41" t="n">
-        <v>11.74</v>
+        <v>11.99</v>
       </c>
       <c r="D41" t="n">
-        <v>11.74</v>
+        <v>11.99</v>
       </c>
       <c r="E41" t="n">
-        <v>11.74</v>
+        <v>11.99</v>
       </c>
       <c r="F41" t="n">
-        <v>207.8034</v>
+        <v>196.9341</v>
       </c>
       <c r="G41" t="n">
-        <v>-2077015.224766709</v>
+        <v>-904705.5060332117</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>11.74</v>
+        <v>11.99</v>
       </c>
       <c r="D42" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>11.74</v>
+        <v>11.99</v>
       </c>
       <c r="F42" t="n">
-        <v>52129.185</v>
+        <v>243.0763</v>
       </c>
       <c r="G42" t="n">
-        <v>-2077015.224766709</v>
+        <v>-904705.5060332117</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.74</v>
+        <v>11.9</v>
       </c>
       <c r="C43" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="D43" t="n">
-        <v>11.74</v>
+        <v>11.9</v>
       </c>
       <c r="E43" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="F43" t="n">
-        <v>113162.9885</v>
+        <v>95340.5229</v>
       </c>
       <c r="G43" t="n">
-        <v>-2190178.213266709</v>
+        <v>-1000046.028933212</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="C44" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="D44" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="E44" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="F44" t="n">
-        <v>14359.5957</v>
+        <v>93891.5295</v>
       </c>
       <c r="G44" t="n">
-        <v>-2190178.213266709</v>
+        <v>-1000046.028933212</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.72</v>
+        <v>11.99</v>
       </c>
       <c r="C45" t="n">
-        <v>11.72</v>
+        <v>11.99</v>
       </c>
       <c r="D45" t="n">
-        <v>11.72</v>
+        <v>11.99</v>
       </c>
       <c r="E45" t="n">
-        <v>11.72</v>
+        <v>11.99</v>
       </c>
       <c r="F45" t="n">
-        <v>9013.5967</v>
+        <v>42</v>
       </c>
       <c r="G45" t="n">
-        <v>-2190178.213266709</v>
+        <v>-1000004.028933212</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.69</v>
+        <v>11.79</v>
       </c>
       <c r="C46" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="D46" t="n">
-        <v>11.72</v>
+        <v>11.79</v>
       </c>
       <c r="E46" t="n">
-        <v>11.69</v>
+        <v>11.79</v>
       </c>
       <c r="F46" t="n">
-        <v>963.6743</v>
+        <v>2166.5412</v>
       </c>
       <c r="G46" t="n">
-        <v>-2190178.213266709</v>
+        <v>-1002170.570133212</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.72</v>
+        <v>11.76</v>
       </c>
       <c r="C47" t="n">
-        <v>11.72</v>
+        <v>11.76</v>
       </c>
       <c r="D47" t="n">
-        <v>11.72</v>
+        <v>11.76</v>
       </c>
       <c r="E47" t="n">
-        <v>11.72</v>
+        <v>11.76</v>
       </c>
       <c r="F47" t="n">
-        <v>51.2281</v>
+        <v>10611.8934</v>
       </c>
       <c r="G47" t="n">
-        <v>-2190178.213266709</v>
+        <v>-1012782.463533212</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.72</v>
+        <v>11.76</v>
       </c>
       <c r="C48" t="n">
-        <v>11.94</v>
+        <v>11.76</v>
       </c>
       <c r="D48" t="n">
-        <v>11.94</v>
+        <v>11.76</v>
       </c>
       <c r="E48" t="n">
-        <v>11.72</v>
+        <v>11.76</v>
       </c>
       <c r="F48" t="n">
-        <v>100914.9724</v>
+        <v>4550.7041</v>
       </c>
       <c r="G48" t="n">
-        <v>-2089263.240866709</v>
+        <v>-1012782.463533212</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.8</v>
+        <v>11.75</v>
       </c>
       <c r="C49" t="n">
-        <v>11.8</v>
+        <v>11.75</v>
       </c>
       <c r="D49" t="n">
-        <v>11.8</v>
+        <v>11.75</v>
       </c>
       <c r="E49" t="n">
-        <v>11.8</v>
+        <v>11.75</v>
       </c>
       <c r="F49" t="n">
-        <v>86311.5744</v>
+        <v>3768.6869</v>
       </c>
       <c r="G49" t="n">
-        <v>-2175574.815266709</v>
+        <v>-1016551.150433212</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.7</v>
+        <v>11.87</v>
       </c>
       <c r="C50" t="n">
-        <v>11.7</v>
+        <v>11.87</v>
       </c>
       <c r="D50" t="n">
-        <v>11.7</v>
+        <v>11.87</v>
       </c>
       <c r="E50" t="n">
-        <v>11.7</v>
+        <v>11.87</v>
       </c>
       <c r="F50" t="n">
-        <v>113688.4256</v>
+        <v>22556.1611</v>
       </c>
       <c r="G50" t="n">
-        <v>-2289263.24086671</v>
+        <v>-993994.9893332117</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="C51" t="n">
-        <v>11.68</v>
+        <v>11.87</v>
       </c>
       <c r="D51" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="E51" t="n">
-        <v>11.68</v>
+        <v>11.87</v>
       </c>
       <c r="F51" t="n">
-        <v>91766.3458</v>
+        <v>35901</v>
       </c>
       <c r="G51" t="n">
-        <v>-2381029.586666709</v>
+        <v>-993994.9893332117</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.9</v>
+        <v>11.97</v>
       </c>
       <c r="C52" t="n">
-        <v>11.9</v>
+        <v>11.97</v>
       </c>
       <c r="D52" t="n">
-        <v>11.9</v>
+        <v>11.97</v>
       </c>
       <c r="E52" t="n">
-        <v>11.9</v>
+        <v>11.97</v>
       </c>
       <c r="F52" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G52" t="n">
-        <v>-2380986.586666709</v>
+        <v>-993952.9893332117</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="C53" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="D53" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="E53" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="F53" t="n">
-        <v>46188.1296</v>
+        <v>9673.2376</v>
       </c>
       <c r="G53" t="n">
-        <v>-2380986.586666709</v>
+        <v>-1003626.226933212</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.92</v>
+        <v>11.68</v>
       </c>
       <c r="C54" t="n">
-        <v>11.92</v>
+        <v>11.68</v>
       </c>
       <c r="D54" t="n">
-        <v>11.92</v>
+        <v>11.68</v>
       </c>
       <c r="E54" t="n">
-        <v>11.92</v>
+        <v>11.68</v>
       </c>
       <c r="F54" t="n">
-        <v>42</v>
+        <v>386.5928</v>
       </c>
       <c r="G54" t="n">
-        <v>-2380944.586666709</v>
+        <v>-1003239.634133212</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="C55" t="n">
-        <v>11.73</v>
+        <v>11.65</v>
       </c>
       <c r="D55" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="E55" t="n">
-        <v>11.73</v>
+        <v>11.65</v>
       </c>
       <c r="F55" t="n">
-        <v>65.7826</v>
+        <v>55122.9253</v>
       </c>
       <c r="G55" t="n">
-        <v>-2381010.369266709</v>
+        <v>-1058362.559433212</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.73</v>
+        <v>11.65</v>
       </c>
       <c r="C56" t="n">
-        <v>11.73</v>
+        <v>11.63</v>
       </c>
       <c r="D56" t="n">
-        <v>11.73</v>
+        <v>11.65</v>
       </c>
       <c r="E56" t="n">
-        <v>11.73</v>
+        <v>11.63</v>
       </c>
       <c r="F56" t="n">
-        <v>51.3966</v>
+        <v>78417.0729</v>
       </c>
       <c r="G56" t="n">
-        <v>-2381010.369266709</v>
+        <v>-1136779.632333212</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="C57" t="n">
-        <v>11.7</v>
+        <v>11.64</v>
       </c>
       <c r="D57" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="E57" t="n">
-        <v>11.7</v>
+        <v>11.64</v>
       </c>
       <c r="F57" t="n">
-        <v>78223.58809999999</v>
+        <v>14576.0323</v>
       </c>
       <c r="G57" t="n">
-        <v>-2459233.957366709</v>
+        <v>-1122203.600033212</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.7</v>
+        <v>11.57</v>
       </c>
       <c r="C58" t="n">
-        <v>11.7</v>
+        <v>11.88</v>
       </c>
       <c r="D58" t="n">
-        <v>11.7</v>
+        <v>11.88</v>
       </c>
       <c r="E58" t="n">
-        <v>11.7</v>
+        <v>11.56</v>
       </c>
       <c r="F58" t="n">
-        <v>1470.9124</v>
+        <v>14795.2141</v>
       </c>
       <c r="G58" t="n">
-        <v>-2459233.957366709</v>
+        <v>-1107408.385933212</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C59" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="D59" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="E59" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="F59" t="n">
-        <v>13841.7187</v>
+        <v>15077.597</v>
       </c>
       <c r="G59" t="n">
-        <v>-2459233.957366709</v>
+        <v>-1122485.982933212</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="C60" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="D60" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="E60" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="F60" t="n">
-        <v>45</v>
+        <v>163.1726</v>
       </c>
       <c r="G60" t="n">
-        <v>-2459278.957366709</v>
+        <v>-1122322.810333212</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>11.7</v>
       </c>
       <c r="F61" t="n">
-        <v>445.9176</v>
+        <v>91.8304</v>
       </c>
       <c r="G61" t="n">
-        <v>-2458833.039766709</v>
+        <v>-1122322.810333212</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>11.7</v>
       </c>
       <c r="F62" t="n">
-        <v>28932.1365</v>
+        <v>7199.2027</v>
       </c>
       <c r="G62" t="n">
-        <v>-2458833.039766709</v>
+        <v>-1122322.810333212</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="C63" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="D63" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="E63" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="F63" t="n">
-        <v>106328.5879</v>
+        <v>18012.8154</v>
       </c>
       <c r="G63" t="n">
-        <v>-2458833.039766709</v>
+        <v>-1104309.994933212</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="C64" t="n">
-        <v>11.67</v>
+        <v>11.79</v>
       </c>
       <c r="D64" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="E64" t="n">
-        <v>11.67</v>
+        <v>11.79</v>
       </c>
       <c r="F64" t="n">
-        <v>59752.8523</v>
+        <v>236.6424</v>
       </c>
       <c r="G64" t="n">
-        <v>-2518585.892066709</v>
+        <v>-1104073.352533212</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="C65" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="D65" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="E65" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="F65" t="n">
-        <v>114.052</v>
+        <v>36687.8368</v>
       </c>
       <c r="G65" t="n">
-        <v>-2518471.840066709</v>
+        <v>-1140761.189333212</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="C66" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="D66" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="E66" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="F66" t="n">
-        <v>45</v>
+        <v>9363.270500000001</v>
       </c>
       <c r="G66" t="n">
-        <v>-2518516.840066709</v>
+        <v>-1140761.189333212</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="C67" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="D67" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E67" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="F67" t="n">
-        <v>199.3744</v>
+        <v>21157.3828</v>
       </c>
       <c r="G67" t="n">
-        <v>-2518317.465666709</v>
+        <v>-1161918.572133212</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.79</v>
+        <v>11.76</v>
       </c>
       <c r="C68" t="n">
-        <v>11.87</v>
+        <v>11.76</v>
       </c>
       <c r="D68" t="n">
-        <v>11.87</v>
+        <v>11.76</v>
       </c>
       <c r="E68" t="n">
-        <v>11.79</v>
+        <v>11.76</v>
       </c>
       <c r="F68" t="n">
-        <v>1430</v>
+        <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>-2516887.465666709</v>
+        <v>-1161875.572133212</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="C69" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="D69" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="E69" t="n">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="F69" t="n">
-        <v>45</v>
+        <v>8912.5996</v>
       </c>
       <c r="G69" t="n">
-        <v>-2516932.465666709</v>
+        <v>-1170788.171733212</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="C70" t="n">
-        <v>11.68</v>
+        <v>11.76</v>
       </c>
       <c r="D70" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="E70" t="n">
-        <v>11.68</v>
+        <v>11.76</v>
       </c>
       <c r="F70" t="n">
-        <v>348.8704</v>
+        <v>56650.48</v>
       </c>
       <c r="G70" t="n">
-        <v>-2516583.595266709</v>
+        <v>-1114137.691733212</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="C71" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="D71" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="E71" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="F71" t="n">
-        <v>556.5667</v>
+        <v>86</v>
       </c>
       <c r="G71" t="n">
-        <v>-2516027.028566709</v>
+        <v>-1114137.691733212</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="C72" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="D72" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="E72" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="F72" t="n">
-        <v>45</v>
+        <v>26083.1437</v>
       </c>
       <c r="G72" t="n">
-        <v>-2516072.028566709</v>
+        <v>-1140220.835433212</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="C73" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="D73" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="E73" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="F73" t="n">
-        <v>43456.5603</v>
+        <v>4081.9701</v>
       </c>
       <c r="G73" t="n">
-        <v>-2472615.468266709</v>
+        <v>-1144302.805533212</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="C74" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="D74" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="E74" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="F74" t="n">
-        <v>55416.9708</v>
+        <v>43</v>
       </c>
       <c r="G74" t="n">
-        <v>-2472615.468266709</v>
+        <v>-1144259.805533212</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="C75" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="D75" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="E75" t="n">
-        <v>11.69</v>
+        <v>11.76</v>
       </c>
       <c r="F75" t="n">
-        <v>45</v>
+        <v>1229264.8005</v>
       </c>
       <c r="G75" t="n">
-        <v>-2472660.468266709</v>
+        <v>-1144259.805533212</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.68</v>
+        <v>11.79</v>
       </c>
       <c r="C76" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="D76" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="E76" t="n">
-        <v>11.68</v>
+        <v>11.79</v>
       </c>
       <c r="F76" t="n">
-        <v>45</v>
+        <v>29203.3429</v>
       </c>
       <c r="G76" t="n">
-        <v>-2472705.468266709</v>
+        <v>-1115056.462633212</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="C77" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="D77" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="E77" t="n">
-        <v>11.7</v>
+        <v>11.89</v>
       </c>
       <c r="F77" t="n">
-        <v>151</v>
+        <v>896.4351</v>
       </c>
       <c r="G77" t="n">
-        <v>-2472554.468266709</v>
+        <v>-1114160.027533212</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.7</v>
+        <v>11.98</v>
       </c>
       <c r="C78" t="n">
-        <v>11.7</v>
+        <v>11.98</v>
       </c>
       <c r="D78" t="n">
-        <v>11.7</v>
+        <v>11.98</v>
       </c>
       <c r="E78" t="n">
-        <v>11.7</v>
+        <v>11.98</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9798</v>
+        <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>-2472554.468266709</v>
+        <v>-1114110.027533212</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,35 +3210,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.7</v>
+        <v>11.98</v>
       </c>
       <c r="C79" t="n">
-        <v>11.7</v>
+        <v>11.98</v>
       </c>
       <c r="D79" t="n">
-        <v>11.7</v>
+        <v>11.98</v>
       </c>
       <c r="E79" t="n">
-        <v>11.7</v>
+        <v>11.98</v>
       </c>
       <c r="F79" t="n">
-        <v>137.778</v>
+        <v>17890.0403</v>
       </c>
       <c r="G79" t="n">
-        <v>-2472554.468266709</v>
+        <v>-1114110.027533212</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K79" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3250,1488 +3246,3948 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C80" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D80" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E80" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F80" t="n">
+        <v>636.419</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1114746.446533212</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C81" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F81" t="n">
+        <v>739.2152</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1115485.661733212</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E82" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F82" t="n">
+        <v>59.6917</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1115485.661733212</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20745.131</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1136230.792733212</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D84" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E84" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F84" t="n">
+        <v>196.3248</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1136230.792733212</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C85" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E85" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8679.080900000001</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1136230.792733212</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C86" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E86" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F86" t="n">
+        <v>196.3248</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1136034.467933212</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="C87" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F87" t="n">
+        <v>9175.5394</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1126858.928533212</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="C88" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="D88" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3597.169466502463</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1123261.759066709</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C89" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F89" t="n">
+        <v>212.3437</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1123474.102766709</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="C90" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="D90" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="E90" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="F90" t="n">
+        <v>42</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1123432.102766709</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C91" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E91" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>300013.4274</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1423445.530166709</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5271.7874</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1423445.530166709</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11710.0562</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1423445.530166709</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C94" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2900.2859</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1423445.530166709</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>200560.3043</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1423445.530166709</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>317803.0321</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1423445.530166709</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C97" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F97" t="n">
+        <v>103012.6074</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1526458.137566709</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F98" t="n">
+        <v>18050.7965</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1508407.341066709</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C99" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D99" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E99" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F99" t="n">
+        <v>18315.9625</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1526723.303566709</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C100" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D100" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E100" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F100" t="n">
+        <v>42.0522</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1526681.251366709</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C101" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D101" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F101" t="n">
+        <v>167455.9039</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1694137.155266709</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C102" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D102" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E102" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12914.5437</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1681222.611566709</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C103" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D103" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E103" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F103" t="n">
+        <v>41.8411</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1681180.770466709</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C104" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7440.9644</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1688621.734866709</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C105" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D105" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E105" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F105" t="n">
+        <v>43</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1688578.734866709</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F106" t="n">
+        <v>202</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1688780.734866709</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>100</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1688680.734866709</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C108" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D108" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E108" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F108" t="n">
+        <v>89.43600000000001</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1688770.170866709</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C109" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E109" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F109" t="n">
+        <v>42</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1688728.170866709</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="C110" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D110" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E110" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F110" t="n">
+        <v>388221.2182</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2076949.389066709</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F111" t="n">
+        <v>141.9677</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2076807.421366709</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F112" t="n">
+        <v>207.8034</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2077015.224766709</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E113" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F113" t="n">
+        <v>52129.185</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2077015.224766709</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C114" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E114" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F114" t="n">
+        <v>113162.9885</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2190178.213266709</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="C115" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="E115" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F115" t="n">
+        <v>14359.5957</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2190178.213266709</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="E116" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9013.5967</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2190178.213266709</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C117" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="E117" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F117" t="n">
+        <v>963.6743</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2190178.213266709</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="C118" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D118" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F118" t="n">
+        <v>51.2281</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2190178.213266709</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E119" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F119" t="n">
+        <v>100914.9724</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2089263.240866709</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>86311.5744</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2175574.815266709</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>113688.4256</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2289263.24086671</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F122" t="n">
+        <v>91766.3458</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2381029.586666709</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>43</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2380986.586666709</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F124" t="n">
+        <v>46188.1296</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2380986.586666709</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F125" t="n">
+        <v>42</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2380944.586666709</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C126" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F126" t="n">
+        <v>65.7826</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2381010.369266709</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F127" t="n">
+        <v>51.3966</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2381010.369266709</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>78223.58809999999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2459233.957366709</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1470.9124</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2459233.957366709</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>13841.7187</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2459233.957366709</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C131" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F131" t="n">
+        <v>45</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2459278.957366709</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>445.9176</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2458833.039766709</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>28932.1365</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2458833.039766709</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C134" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F134" t="n">
+        <v>106328.5879</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2458833.039766709</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F135" t="n">
+        <v>59752.8523</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2518585.892066709</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>114.052</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2518471.840066709</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C137" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F137" t="n">
+        <v>45</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2518516.840066709</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C138" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F138" t="n">
+        <v>199.3744</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2518317.465666709</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C139" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D139" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="E139" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1430</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2516887.465666709</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C140" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E140" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F140" t="n">
+        <v>45</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2516932.465666709</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D141" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F141" t="n">
+        <v>348.8704</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2516583.595266709</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>556.5667</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2516027.028566709</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E143" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F143" t="n">
+        <v>45</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2516072.028566709</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>43456.5603</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2472615.468266709</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>55416.9708</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2472615.468266709</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C146" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D146" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E146" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F146" t="n">
+        <v>45</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2472660.468266709</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C147" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D147" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E147" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F147" t="n">
+        <v>45</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2472705.468266709</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>151</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2472554.468266709</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.9798</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2472554.468266709</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>137.778</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2472554.468266709</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F151" t="n">
         <v>138.8426</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G151" t="n">
         <v>-2472554.468266709</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K80" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>23.3794</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2472554.468266709</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>143</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2472411.468266709</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F154" t="n">
+        <v>43</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2472454.468266709</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5496.9448</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2477951.413066709</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F156" t="n">
+        <v>85.03410422297297</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2477866.378962487</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="F157" t="n">
+        <v>298</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-2478164.378962487</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10298.3164</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2488462.695362486</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>332023.5931</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2488462.695362486</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>55.9865</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2488462.695362486</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2487412.695362486</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F162" t="n">
+        <v>49924.8912</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-2537337.586562486</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F163" t="n">
+        <v>86715.0543</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2624052.640862486</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F164" t="n">
+        <v>59470.0104</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2683522.651262486</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K164" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F165" t="n">
+        <v>146.6596</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2683522.651262486</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K165" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C81" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D81" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E81" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F81" t="n">
-        <v>23.3794</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K81" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>50</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-2683472.651262486</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K166" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C82" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D82" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E82" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F82" t="n">
-        <v>143</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-2472411.468266709</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K82" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>893.8201</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2683472.651262486</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F168" t="n">
+        <v>48195.8077</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2731668.458962486</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F169" t="n">
+        <v>30051.2177</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2731668.458962486</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17591.4425</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-2749259.901462486</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K170" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F171" t="n">
+        <v>95626.8493</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2749259.901462486</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K171" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3495.5741</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-2749259.901462486</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K172" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F173" t="n">
+        <v>45</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-2749304.901462486</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K173" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4806.1848</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2744498.716662486</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="K174" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F175" t="n">
+        <v>45</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2744453.716662486</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K175" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F176" t="n">
+        <v>53587.8672</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-2744453.716662486</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F177" t="n">
+        <v>45</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-2744498.716662486</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K177" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-2739498.716662486</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="K178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-2739498.716662486</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F180" t="n">
+        <v>21070.3002</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-2718428.416462486</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K180" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C83" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="D83" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="E83" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F83" t="n">
-        <v>43</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-2472454.468266709</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="K83" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-2718428.416462486</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K181" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C84" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D84" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E84" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F84" t="n">
-        <v>5496.9448</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-2477951.413066709</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-2718428.416462486</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K182" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C85" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D85" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E85" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F85" t="n">
-        <v>85.03410422297297</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-2477866.378962487</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F183" t="n">
+        <v>57813.0389</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-2660615.377562486</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="K183" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="C86" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="D86" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="E86" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="F86" t="n">
-        <v>298</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-2478164.378962487</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-2660615.377562486</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K184" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F87" t="n">
-        <v>10298.3164</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-2488462.695362486</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F185" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-2660615.377562486</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K185" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>332023.5931</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-2488462.695362486</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>55.9865</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-2488462.695362486</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C90" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D90" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E90" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-2487412.695362486</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C91" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D91" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E91" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F91" t="n">
-        <v>49924.8912</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-2537337.586562486</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C92" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D92" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E92" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F92" t="n">
-        <v>86715.0543</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-2624052.640862486</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C93" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D93" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E93" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F93" t="n">
-        <v>59470.0104</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-2683522.651262486</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C94" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D94" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E94" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F94" t="n">
-        <v>146.6596</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-2683522.651262486</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F95" t="n">
-        <v>50</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-2683472.651262486</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D96" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E96" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>893.8201</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-2683472.651262486</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C97" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D97" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E97" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F97" t="n">
-        <v>48195.8077</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-2731668.458962486</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C98" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D98" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E98" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F98" t="n">
-        <v>30051.2177</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-2731668.458962486</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K98" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C99" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D99" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E99" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F99" t="n">
-        <v>17591.4425</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C100" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D100" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E100" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F100" t="n">
-        <v>95626.8493</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K100" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C101" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D101" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E101" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F101" t="n">
-        <v>3495.5741</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K101" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C102" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D102" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="E102" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F102" t="n">
-        <v>45</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-2749304.901462486</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C103" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D103" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E103" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4806.1848</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-2744498.716662486</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C104" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D104" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E104" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F104" t="n">
-        <v>45</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-2744453.716662486</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C105" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D105" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E105" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F105" t="n">
-        <v>53587.8672</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-2744453.716662486</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K105" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C106" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D106" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="E106" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F106" t="n">
-        <v>45</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-2744498.716662486</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C107" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D107" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E107" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-2739498.716662486</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C108" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D108" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E108" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-2739498.716662486</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C109" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D109" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E109" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F109" t="n">
-        <v>21070.3002</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-2718428.416462486</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C110" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D110" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E110" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F110" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-2718428.416462486</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C111" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D111" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E111" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2718428.416462486</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C112" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D112" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E112" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F112" t="n">
-        <v>57813.0389</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2660615.377562486</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C113" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D113" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E113" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="F113" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-2660615.377562486</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C114" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D114" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E114" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="F114" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2660615.377562486</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K114" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N185"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-780748.9297177487</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-781543.2395177487</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-918407.4174332117</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-893600.3741332117</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-934422.7079332117</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-1000046.028933212</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-1000046.028933212</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-1114160.027533212</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-1114110.027533212</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-1115485.661733212</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-1423445.530166709</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-1423445.530166709</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-1423445.530166709</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,18 +5500,15 @@
         <v>-2477951.413066709</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6288,22 +5797,19 @@
         <v>-2683522.651262486</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="J164" t="n">
         <v>11.67</v>
       </c>
-      <c r="K164" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6328,26 +5834,23 @@
         <v>-2683522.651262486</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>11.66</v>
       </c>
       <c r="J165" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K165" t="n">
         <v>11.67</v>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6372,26 +5875,23 @@
         <v>-2683472.651262486</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>11.66</v>
       </c>
       <c r="J166" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K166" t="n">
         <v>11.67</v>
       </c>
-      <c r="L166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6416,18 +5916,19 @@
         <v>-2683472.651262486</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="J167" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6452,18 +5953,23 @@
         <v>-2731668.458962486</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="J168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6490,16 +5996,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6524,22 +6033,21 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K170" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6564,26 +6072,21 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K171" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6608,26 +6111,21 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K172" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6652,22 +6150,21 @@
         <v>-2749304.901462486</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K173" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6692,26 +6189,21 @@
         <v>-2744498.716662486</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="K174" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="L174" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6738,24 +6230,19 @@
       <c r="H175" t="n">
         <v>1</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K175" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="L175" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6780,22 +6267,21 @@
         <v>-2744453.716662486</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K176" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6820,26 +6306,21 @@
         <v>-2744498.716662486</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K177" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L177" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6864,26 +6345,21 @@
         <v>-2739498.716662486</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="K178" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L178" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6908,22 +6384,23 @@
         <v>-2739498.716662486</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="J179" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K179" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6948,26 +6425,23 @@
         <v>-2718428.416462486</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="J180" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K180" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6992,26 +6466,23 @@
         <v>-2718428.416462486</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>11.69</v>
       </c>
       <c r="J181" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K181" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7036,26 +6507,23 @@
         <v>-2718428.416462486</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>11.69</v>
       </c>
       <c r="J182" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K182" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L182" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7080,26 +6548,21 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K183" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L183" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7124,26 +6587,23 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>11.74</v>
       </c>
       <c r="J184" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K184" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L184" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7170,26 +6630,21 @@
       <c r="H185" t="n">
         <v>1</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K185" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L185" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-641295.7815177487</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-683851.9426177487</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-749194.9426177487</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-855187.9662177487</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-855144.9662177487</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-875366.4712177487</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-853027.6220177487</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-799409.0567177486</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-780748.9297177487</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-781543.2395177487</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-918407.4174332117</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-918407.4174332117</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-893600.3741332117</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-934422.7079332117</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1000046.028933212</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1000046.028933212</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1114160.027533212</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1114110.027533212</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1115485.661733212</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1423445.530166709</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1423445.530166709</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1423445.530166709</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -5203,10 +5203,14 @@
         <v>-2472660.468266709</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J146" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5236,11 +5240,19 @@
         <v>-2472705.468266709</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="J147" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5281,19 @@
         <v>-2472554.468266709</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="J148" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5500,7 +5520,7 @@
         <v>-2477951.413066709</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5764,11 +5784,17 @@
         <v>-2624052.640862486</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>11.69</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,15 +5823,17 @@
         <v>-2683522.651262486</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>11.67</v>
       </c>
-      <c r="J164" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,17 +5862,15 @@
         <v>-2683522.651262486</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>11.66</v>
       </c>
-      <c r="J165" t="n">
-        <v>11.67</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -5875,17 +5901,15 @@
         <v>-2683472.651262486</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>11.66</v>
       </c>
-      <c r="J166" t="n">
-        <v>11.67</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -5916,15 +5940,17 @@
         <v>-2683472.651262486</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>11.7</v>
       </c>
-      <c r="J167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5953,17 +5979,15 @@
         <v>-2731668.458962486</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>11.7</v>
       </c>
-      <c r="J168" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L168" t="n">
@@ -5994,12 +6018,12 @@
         <v>-2731668.458962486</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>11.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6033,12 +6057,12 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>11.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6072,12 +6096,12 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>11.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6111,12 +6135,12 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>11.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6150,12 +6174,12 @@
         <v>-2749304.901462486</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>11.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6189,12 +6213,12 @@
         <v>-2744498.716662486</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>11.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,10 +6254,10 @@
       <c r="H175" t="n">
         <v>1</v>
       </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="I175" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6267,12 +6291,12 @@
         <v>-2744453.716662486</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>11.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6306,12 +6330,12 @@
         <v>-2744498.716662486</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>11.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6345,12 +6369,12 @@
         <v>-2739498.716662486</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>11.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6384,14 +6408,12 @@
         <v>-2739498.716662486</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>11.67</v>
       </c>
-      <c r="J179" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6425,14 +6447,12 @@
         <v>-2718428.416462486</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>11.67</v>
       </c>
-      <c r="J180" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6466,14 +6486,12 @@
         <v>-2718428.416462486</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>11.69</v>
       </c>
-      <c r="J181" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6507,14 +6525,12 @@
         <v>-2718428.416462486</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>11.69</v>
       </c>
-      <c r="J182" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6548,12 +6564,12 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>11.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,14 +6603,12 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>11.74</v>
       </c>
-      <c r="J184" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6630,10 +6644,10 @@
       <c r="H185" t="n">
         <v>1</v>
       </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="I185" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6645,6 +6659,6 @@
       <c r="M185" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-683851.9426177487</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-749194.9426177487</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-855187.9662177487</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-855144.9662177487</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-875366.4712177487</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-853027.6220177487</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-799409.0567177486</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-918648.8904332117</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-918407.4174332117</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-918407.4174332117</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-993952.9893332117</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1003239.634133212</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1058362.559433212</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1136779.632333212</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-2077015.224766709</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-2077015.224766709</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2190178.213266709</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2175574.815266709</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2289263.24086671</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5203,14 +5203,10 @@
         <v>-2472660.468266709</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J146" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5240,19 +5236,11 @@
         <v>-2472705.468266709</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J147" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5281,19 +5269,11 @@
         <v>-2472554.468266709</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="J148" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5784,680 +5764,620 @@
         <v>-2624052.640862486</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F164" t="n">
+        <v>59470.0104</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2683522.651262486</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F165" t="n">
+        <v>146.6596</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2683522.651262486</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>50</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-2683472.651262486</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>893.8201</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2683472.651262486</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F168" t="n">
+        <v>48195.8077</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2731668.458962486</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F169" t="n">
+        <v>30051.2177</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2731668.458962486</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17591.4425</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-2749259.901462486</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F171" t="n">
+        <v>95626.8493</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2749259.901462486</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3495.5741</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-2749259.901462486</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F173" t="n">
+        <v>45</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-2749304.901462486</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4806.1848</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2744498.716662486</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="J174" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F175" t="n">
+        <v>45</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2744453.716662486</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="J175" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F176" t="n">
+        <v>53587.8672</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-2744453.716662486</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J176" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F177" t="n">
+        <v>45</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-2744498.716662486</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J177" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-2739498.716662486</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="J178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-2739498.716662486</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J179" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C180" t="n">
         <v>11.69</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
+      <c r="D180" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F180" t="n">
+        <v>21070.3002</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-2718428.416462486</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J180" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C164" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D164" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E164" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F164" t="n">
-        <v>59470.0104</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-2683522.651262486</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E165" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F165" t="n">
-        <v>146.6596</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-2683522.651262486</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F166" t="n">
-        <v>50</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-2683472.651262486</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F167" t="n">
-        <v>893.8201</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-2683472.651262486</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C168" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D168" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E168" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F168" t="n">
-        <v>48195.8077</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-2731668.458962486</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C169" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D169" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E169" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F169" t="n">
-        <v>30051.2177</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-2731668.458962486</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C170" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D170" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E170" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F170" t="n">
-        <v>17591.4425</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C171" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D171" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E171" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F171" t="n">
-        <v>95626.8493</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C172" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D172" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E172" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F172" t="n">
-        <v>3495.5741</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C173" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D173" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="E173" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F173" t="n">
-        <v>45</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-2749304.901462486</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C174" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D174" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E174" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F174" t="n">
-        <v>4806.1848</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-2744498.716662486</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C175" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D175" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E175" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F175" t="n">
-        <v>45</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-2744453.716662486</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C176" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D176" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E176" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F176" t="n">
-        <v>53587.8672</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-2744453.716662486</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C177" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D177" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="E177" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F177" t="n">
-        <v>45</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-2744498.716662486</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D178" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E178" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F178" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-2739498.716662486</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D179" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E179" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-2739498.716662486</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C180" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D180" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E180" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F180" t="n">
-        <v>21070.3002</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-2718428.416462486</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6491,7 +6411,9 @@
       <c r="I181" t="n">
         <v>11.69</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6530,7 +6452,9 @@
       <c r="I182" t="n">
         <v>11.69</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6564,12 +6488,12 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6603,12 +6527,12 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6642,12 +6566,12 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6659,6 +6583,6 @@
       <c r="M185" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -451,7 +451,7 @@
         <v>-641295.7815177487</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-918648.8904332117</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-904341.0322332117</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1000046.028933212</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1000046.028933212</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-993952.9893332117</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1003626.226933212</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1003239.634133212</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1058362.559433212</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1136779.632333212</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1123474.102766709</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1423445.530166709</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-2077015.224766709</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-2077015.224766709</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2190178.213266709</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2175574.815266709</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2289263.24086671</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5896,10 +5896,14 @@
         <v>-2683472.651262486</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J167" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
@@ -5929,11 +5933,19 @@
         <v>-2731668.458962486</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +5974,19 @@
         <v>-2731668.458962486</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="J169" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6015,19 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="J170" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6056,19 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="J171" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6097,19 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6138,19 @@
         <v>-2749304.901462486</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="J173" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6133,9 +6185,13 @@
         <v>11.64</v>
       </c>
       <c r="J174" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6170,11 +6226,11 @@
         <v>11.65</v>
       </c>
       <c r="J175" t="n">
-        <v>11.64</v>
+        <v>11.7</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L175" t="n">
@@ -6211,11 +6267,11 @@
         <v>11.67</v>
       </c>
       <c r="J176" t="n">
-        <v>11.64</v>
+        <v>11.7</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
@@ -6252,9 +6308,13 @@
         <v>11.67</v>
       </c>
       <c r="J177" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6289,11 +6349,11 @@
         <v>11.64</v>
       </c>
       <c r="J178" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6330,11 +6390,11 @@
         <v>11.67</v>
       </c>
       <c r="J179" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6371,11 +6431,11 @@
         <v>11.67</v>
       </c>
       <c r="J180" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6412,7 +6472,7 @@
         <v>11.69</v>
       </c>
       <c r="J181" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6453,7 +6513,7 @@
         <v>11.69</v>
       </c>
       <c r="J182" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6488,11 +6548,13 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>11.69</v>
+      </c>
       <c r="J183" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6527,11 +6589,13 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>11.74</v>
+      </c>
       <c r="J184" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6566,11 +6630,13 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>11.74</v>
+      </c>
       <c r="J185" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>

--- a/BackTest/2020-01-12 BackTest TRV.xlsx
+++ b/BackTest/2020-01-12 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:L185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>90330.9768</v>
       </c>
       <c r="G2" t="n">
-        <v>-641295.7815177487</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>42556.1611</v>
       </c>
       <c r="G3" t="n">
-        <v>-683851.9426177487</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>65343</v>
       </c>
       <c r="G4" t="n">
-        <v>-749194.9426177487</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>105993.0236</v>
       </c>
       <c r="G5" t="n">
-        <v>-855187.9662177487</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>43</v>
       </c>
       <c r="G6" t="n">
-        <v>-855144.9662177487</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>20221.505</v>
       </c>
       <c r="G7" t="n">
-        <v>-875366.4712177487</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>22338.8492</v>
       </c>
       <c r="G8" t="n">
-        <v>-853027.6220177487</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>53618.5653</v>
       </c>
       <c r="G9" t="n">
-        <v>-799409.0567177486</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>18660.127</v>
       </c>
       <c r="G10" t="n">
-        <v>-780748.9297177487</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>99950.1902</v>
       </c>
       <c r="G11" t="n">
-        <v>-780748.9297177487</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>219.4368</v>
       </c>
       <c r="G12" t="n">
-        <v>-780968.3665177487</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>574.873</v>
       </c>
       <c r="G13" t="n">
-        <v>-781543.2395177487</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>317.652</v>
       </c>
       <c r="G14" t="n">
-        <v>-781543.2395177487</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>7385.8862</v>
       </c>
       <c r="G15" t="n">
-        <v>-788929.1257177487</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>-788884.1257177487</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>21533.161</v>
       </c>
       <c r="G17" t="n">
-        <v>-810417.2867177486</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>55122.9252</v>
       </c>
       <c r="G18" t="n">
-        <v>-865540.2119177487</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>52829.9751</v>
       </c>
       <c r="G19" t="n">
-        <v>-865540.2119177487</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,19 @@
         <v>784.9933845369584</v>
       </c>
       <c r="G20" t="n">
-        <v>-864755.2185332117</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>11.56</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.56</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1017,23 @@
         <v>57972.2574</v>
       </c>
       <c r="G21" t="n">
-        <v>-806782.9611332117</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>11.77</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1055,23 @@
         <v>111838.8896</v>
       </c>
       <c r="G22" t="n">
-        <v>-918621.8507332117</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1093,15 @@
         <v>2266.3643</v>
       </c>
       <c r="G23" t="n">
-        <v>-918621.8507332117</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1123,15 @@
         <v>38657.2282</v>
       </c>
       <c r="G24" t="n">
-        <v>-879964.6225332117</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1153,15 @@
         <v>6498.7993</v>
       </c>
       <c r="G25" t="n">
-        <v>-886463.4218332117</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1183,15 @@
         <v>32665.7595</v>
       </c>
       <c r="G26" t="n">
-        <v>-886463.4218332117</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1213,15 @@
         <v>217.43</v>
       </c>
       <c r="G27" t="n">
-        <v>-886245.9918332116</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1243,15 @@
         <v>47053.1439</v>
       </c>
       <c r="G28" t="n">
-        <v>-933299.1357332116</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1273,15 @@
         <v>14650.2453</v>
       </c>
       <c r="G29" t="n">
-        <v>-918648.8904332117</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1303,15 @@
         <v>241.473</v>
       </c>
       <c r="G30" t="n">
-        <v>-918407.4174332117</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1333,15 @@
         <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>-918407.4174332117</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1363,15 @@
         <v>42</v>
       </c>
       <c r="G32" t="n">
-        <v>-918407.4174332117</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1393,15 @@
         <v>25675.9086</v>
       </c>
       <c r="G33" t="n">
-        <v>-944083.3260332117</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1423,15 @@
         <v>50482.9519</v>
       </c>
       <c r="G34" t="n">
-        <v>-893600.3741332117</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1453,15 @@
         <v>1182.7173</v>
       </c>
       <c r="G35" t="n">
-        <v>-893600.3741332117</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1483,15 @@
         <v>40822.3338</v>
       </c>
       <c r="G36" t="n">
-        <v>-934422.7079332117</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1513,15 @@
         <v>42</v>
       </c>
       <c r="G37" t="n">
-        <v>-934380.7079332117</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1543,15 @@
         <v>30039.6757</v>
       </c>
       <c r="G38" t="n">
-        <v>-904341.0322332117</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1573,15 @@
         <v>136421.0897</v>
       </c>
       <c r="G39" t="n">
-        <v>-904341.0322332117</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1603,15 @@
         <v>364.4738</v>
       </c>
       <c r="G40" t="n">
-        <v>-904705.5060332117</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1633,15 @@
         <v>196.9341</v>
       </c>
       <c r="G41" t="n">
-        <v>-904705.5060332117</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1663,15 @@
         <v>243.0763</v>
       </c>
       <c r="G42" t="n">
-        <v>-904705.5060332117</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1693,15 @@
         <v>95340.5229</v>
       </c>
       <c r="G43" t="n">
-        <v>-1000046.028933212</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1723,15 @@
         <v>93891.5295</v>
       </c>
       <c r="G44" t="n">
-        <v>-1000046.028933212</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1753,15 @@
         <v>42</v>
       </c>
       <c r="G45" t="n">
-        <v>-1000004.028933212</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1783,15 @@
         <v>2166.5412</v>
       </c>
       <c r="G46" t="n">
-        <v>-1002170.570133212</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1813,15 @@
         <v>10611.8934</v>
       </c>
       <c r="G47" t="n">
-        <v>-1012782.463533212</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1843,15 @@
         <v>4550.7041</v>
       </c>
       <c r="G48" t="n">
-        <v>-1012782.463533212</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1873,15 @@
         <v>3768.6869</v>
       </c>
       <c r="G49" t="n">
-        <v>-1016551.150433212</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1903,15 @@
         <v>22556.1611</v>
       </c>
       <c r="G50" t="n">
-        <v>-993994.9893332117</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1933,15 @@
         <v>35901</v>
       </c>
       <c r="G51" t="n">
-        <v>-993994.9893332117</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1963,15 @@
         <v>42</v>
       </c>
       <c r="G52" t="n">
-        <v>-993952.9893332117</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1993,15 @@
         <v>9673.2376</v>
       </c>
       <c r="G53" t="n">
-        <v>-1003626.226933212</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2023,15 @@
         <v>386.5928</v>
       </c>
       <c r="G54" t="n">
-        <v>-1003239.634133212</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2053,15 @@
         <v>55122.9253</v>
       </c>
       <c r="G55" t="n">
-        <v>-1058362.559433212</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2083,15 @@
         <v>78417.0729</v>
       </c>
       <c r="G56" t="n">
-        <v>-1136779.632333212</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2113,15 @@
         <v>14576.0323</v>
       </c>
       <c r="G57" t="n">
-        <v>-1122203.600033212</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2143,15 @@
         <v>14795.2141</v>
       </c>
       <c r="G58" t="n">
-        <v>-1107408.385933212</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2173,15 @@
         <v>15077.597</v>
       </c>
       <c r="G59" t="n">
-        <v>-1122485.982933212</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2203,15 @@
         <v>163.1726</v>
       </c>
       <c r="G60" t="n">
-        <v>-1122322.810333212</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2233,15 @@
         <v>91.8304</v>
       </c>
       <c r="G61" t="n">
-        <v>-1122322.810333212</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2263,15 @@
         <v>7199.2027</v>
       </c>
       <c r="G62" t="n">
-        <v>-1122322.810333212</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2293,15 @@
         <v>18012.8154</v>
       </c>
       <c r="G63" t="n">
-        <v>-1104309.994933212</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2323,15 @@
         <v>236.6424</v>
       </c>
       <c r="G64" t="n">
-        <v>-1104073.352533212</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2353,15 @@
         <v>36687.8368</v>
       </c>
       <c r="G65" t="n">
-        <v>-1140761.189333212</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2383,15 @@
         <v>9363.270500000001</v>
       </c>
       <c r="G66" t="n">
-        <v>-1140761.189333212</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2413,15 @@
         <v>21157.3828</v>
       </c>
       <c r="G67" t="n">
-        <v>-1161918.572133212</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2443,15 @@
         <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>-1161875.572133212</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2473,15 @@
         <v>8912.5996</v>
       </c>
       <c r="G69" t="n">
-        <v>-1170788.171733212</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2503,15 @@
         <v>56650.48</v>
       </c>
       <c r="G70" t="n">
-        <v>-1114137.691733212</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2533,15 @@
         <v>86</v>
       </c>
       <c r="G71" t="n">
-        <v>-1114137.691733212</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2563,15 @@
         <v>26083.1437</v>
       </c>
       <c r="G72" t="n">
-        <v>-1140220.835433212</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2593,15 @@
         <v>4081.9701</v>
       </c>
       <c r="G73" t="n">
-        <v>-1144302.805533212</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2623,15 @@
         <v>43</v>
       </c>
       <c r="G74" t="n">
-        <v>-1144259.805533212</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2653,15 @@
         <v>1229264.8005</v>
       </c>
       <c r="G75" t="n">
-        <v>-1144259.805533212</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2683,15 @@
         <v>29203.3429</v>
       </c>
       <c r="G76" t="n">
-        <v>-1115056.462633212</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2713,15 @@
         <v>896.4351</v>
       </c>
       <c r="G77" t="n">
-        <v>-1114160.027533212</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2743,15 @@
         <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>-1114110.027533212</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2773,15 @@
         <v>17890.0403</v>
       </c>
       <c r="G79" t="n">
-        <v>-1114110.027533212</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2803,15 @@
         <v>636.419</v>
       </c>
       <c r="G80" t="n">
-        <v>-1114746.446533212</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2833,15 @@
         <v>739.2152</v>
       </c>
       <c r="G81" t="n">
-        <v>-1115485.661733212</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2863,15 @@
         <v>59.6917</v>
       </c>
       <c r="G82" t="n">
-        <v>-1115485.661733212</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2893,15 @@
         <v>20745.131</v>
       </c>
       <c r="G83" t="n">
-        <v>-1136230.792733212</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2923,15 @@
         <v>196.3248</v>
       </c>
       <c r="G84" t="n">
-        <v>-1136230.792733212</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2953,15 @@
         <v>8679.080900000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-1136230.792733212</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2983,15 @@
         <v>196.3248</v>
       </c>
       <c r="G86" t="n">
-        <v>-1136034.467933212</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3013,15 @@
         <v>9175.5394</v>
       </c>
       <c r="G87" t="n">
-        <v>-1126858.928533212</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3043,15 @@
         <v>3597.169466502463</v>
       </c>
       <c r="G88" t="n">
-        <v>-1123261.759066709</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3073,15 @@
         <v>212.3437</v>
       </c>
       <c r="G89" t="n">
-        <v>-1123474.102766709</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3103,15 @@
         <v>42</v>
       </c>
       <c r="G90" t="n">
-        <v>-1123432.102766709</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3133,15 @@
         <v>300013.4274</v>
       </c>
       <c r="G91" t="n">
-        <v>-1423445.530166709</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3163,15 @@
         <v>5271.7874</v>
       </c>
       <c r="G92" t="n">
-        <v>-1423445.530166709</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3193,15 @@
         <v>11710.0562</v>
       </c>
       <c r="G93" t="n">
-        <v>-1423445.530166709</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3223,15 @@
         <v>2900.2859</v>
       </c>
       <c r="G94" t="n">
-        <v>-1423445.530166709</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3253,15 @@
         <v>200560.3043</v>
       </c>
       <c r="G95" t="n">
-        <v>-1423445.530166709</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3283,15 @@
         <v>317803.0321</v>
       </c>
       <c r="G96" t="n">
-        <v>-1423445.530166709</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3313,15 @@
         <v>103012.6074</v>
       </c>
       <c r="G97" t="n">
-        <v>-1526458.137566709</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3343,15 @@
         <v>18050.7965</v>
       </c>
       <c r="G98" t="n">
-        <v>-1508407.341066709</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3373,15 @@
         <v>18315.9625</v>
       </c>
       <c r="G99" t="n">
-        <v>-1526723.303566709</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3403,15 @@
         <v>42.0522</v>
       </c>
       <c r="G100" t="n">
-        <v>-1526681.251366709</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3433,15 @@
         <v>167455.9039</v>
       </c>
       <c r="G101" t="n">
-        <v>-1694137.155266709</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3463,15 @@
         <v>12914.5437</v>
       </c>
       <c r="G102" t="n">
-        <v>-1681222.611566709</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3493,15 @@
         <v>41.8411</v>
       </c>
       <c r="G103" t="n">
-        <v>-1681180.770466709</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3523,15 @@
         <v>7440.9644</v>
       </c>
       <c r="G104" t="n">
-        <v>-1688621.734866709</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3553,15 @@
         <v>43</v>
       </c>
       <c r="G105" t="n">
-        <v>-1688578.734866709</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3583,15 @@
         <v>202</v>
       </c>
       <c r="G106" t="n">
-        <v>-1688780.734866709</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3613,15 @@
         <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>-1688680.734866709</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3643,15 @@
         <v>89.43600000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-1688770.170866709</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3673,15 @@
         <v>42</v>
       </c>
       <c r="G109" t="n">
-        <v>-1688728.170866709</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3703,15 @@
         <v>388221.2182</v>
       </c>
       <c r="G110" t="n">
-        <v>-2076949.389066709</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3733,15 @@
         <v>141.9677</v>
       </c>
       <c r="G111" t="n">
-        <v>-2076807.421366709</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3763,15 @@
         <v>207.8034</v>
       </c>
       <c r="G112" t="n">
-        <v>-2077015.224766709</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3793,15 @@
         <v>52129.185</v>
       </c>
       <c r="G113" t="n">
-        <v>-2077015.224766709</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3823,15 @@
         <v>113162.9885</v>
       </c>
       <c r="G114" t="n">
-        <v>-2190178.213266709</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3853,15 @@
         <v>14359.5957</v>
       </c>
       <c r="G115" t="n">
-        <v>-2190178.213266709</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3883,15 @@
         <v>9013.5967</v>
       </c>
       <c r="G116" t="n">
-        <v>-2190178.213266709</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3913,15 @@
         <v>963.6743</v>
       </c>
       <c r="G117" t="n">
-        <v>-2190178.213266709</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3943,15 @@
         <v>51.2281</v>
       </c>
       <c r="G118" t="n">
-        <v>-2190178.213266709</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3973,15 @@
         <v>100914.9724</v>
       </c>
       <c r="G119" t="n">
-        <v>-2089263.240866709</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4003,15 @@
         <v>86311.5744</v>
       </c>
       <c r="G120" t="n">
-        <v>-2175574.815266709</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4033,15 @@
         <v>113688.4256</v>
       </c>
       <c r="G121" t="n">
-        <v>-2289263.24086671</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4063,15 @@
         <v>91766.3458</v>
       </c>
       <c r="G122" t="n">
-        <v>-2381029.586666709</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4093,15 @@
         <v>43</v>
       </c>
       <c r="G123" t="n">
-        <v>-2380986.586666709</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4123,15 @@
         <v>46188.1296</v>
       </c>
       <c r="G124" t="n">
-        <v>-2380986.586666709</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4153,15 @@
         <v>42</v>
       </c>
       <c r="G125" t="n">
-        <v>-2380944.586666709</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4183,15 @@
         <v>65.7826</v>
       </c>
       <c r="G126" t="n">
-        <v>-2381010.369266709</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4213,15 @@
         <v>51.3966</v>
       </c>
       <c r="G127" t="n">
-        <v>-2381010.369266709</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4243,15 @@
         <v>78223.58809999999</v>
       </c>
       <c r="G128" t="n">
-        <v>-2459233.957366709</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4273,15 @@
         <v>1470.9124</v>
       </c>
       <c r="G129" t="n">
-        <v>-2459233.957366709</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4303,15 @@
         <v>13841.7187</v>
       </c>
       <c r="G130" t="n">
-        <v>-2459233.957366709</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4333,15 @@
         <v>45</v>
       </c>
       <c r="G131" t="n">
-        <v>-2459278.957366709</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4363,15 @@
         <v>445.9176</v>
       </c>
       <c r="G132" t="n">
-        <v>-2458833.039766709</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4393,15 @@
         <v>28932.1365</v>
       </c>
       <c r="G133" t="n">
-        <v>-2458833.039766709</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4423,15 @@
         <v>106328.5879</v>
       </c>
       <c r="G134" t="n">
-        <v>-2458833.039766709</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4453,15 @@
         <v>59752.8523</v>
       </c>
       <c r="G135" t="n">
-        <v>-2518585.892066709</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4483,15 @@
         <v>114.052</v>
       </c>
       <c r="G136" t="n">
-        <v>-2518471.840066709</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4513,15 @@
         <v>45</v>
       </c>
       <c r="G137" t="n">
-        <v>-2518516.840066709</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4543,15 @@
         <v>199.3744</v>
       </c>
       <c r="G138" t="n">
-        <v>-2518317.465666709</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4573,15 @@
         <v>1430</v>
       </c>
       <c r="G139" t="n">
-        <v>-2516887.465666709</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4603,15 @@
         <v>45</v>
       </c>
       <c r="G140" t="n">
-        <v>-2516932.465666709</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4633,15 @@
         <v>348.8704</v>
       </c>
       <c r="G141" t="n">
-        <v>-2516583.595266709</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4663,15 @@
         <v>556.5667</v>
       </c>
       <c r="G142" t="n">
-        <v>-2516027.028566709</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4693,15 @@
         <v>45</v>
       </c>
       <c r="G143" t="n">
-        <v>-2516072.028566709</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4723,15 @@
         <v>43456.5603</v>
       </c>
       <c r="G144" t="n">
-        <v>-2472615.468266709</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4753,15 @@
         <v>55416.9708</v>
       </c>
       <c r="G145" t="n">
-        <v>-2472615.468266709</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4783,15 @@
         <v>45</v>
       </c>
       <c r="G146" t="n">
-        <v>-2472660.468266709</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4813,15 @@
         <v>45</v>
       </c>
       <c r="G147" t="n">
-        <v>-2472705.468266709</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4843,15 @@
         <v>151</v>
       </c>
       <c r="G148" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4873,15 @@
         <v>0.9798</v>
       </c>
       <c r="G149" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4903,15 @@
         <v>137.778</v>
       </c>
       <c r="G150" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4933,15 @@
         <v>138.8426</v>
       </c>
       <c r="G151" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4963,15 @@
         <v>23.3794</v>
       </c>
       <c r="G152" t="n">
-        <v>-2472554.468266709</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4993,21 @@
         <v>143</v>
       </c>
       <c r="G153" t="n">
-        <v>-2472411.468266709</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5029,19 @@
         <v>43</v>
       </c>
       <c r="G154" t="n">
-        <v>-2472454.468266709</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5063,19 @@
         <v>5496.9448</v>
       </c>
       <c r="G155" t="n">
-        <v>-2477951.413066709</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5097,19 @@
         <v>85.03410422297297</v>
       </c>
       <c r="G156" t="n">
-        <v>-2477866.378962487</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5131,19 @@
         <v>298</v>
       </c>
       <c r="G157" t="n">
-        <v>-2478164.378962487</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5165,19 @@
         <v>10298.3164</v>
       </c>
       <c r="G158" t="n">
-        <v>-2488462.695362486</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5199,19 @@
         <v>332023.5931</v>
       </c>
       <c r="G159" t="n">
-        <v>-2488462.695362486</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5233,19 @@
         <v>55.9865</v>
       </c>
       <c r="G160" t="n">
-        <v>-2488462.695362486</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5267,19 @@
         <v>1050</v>
       </c>
       <c r="G161" t="n">
-        <v>-2487412.695362486</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5301,19 @@
         <v>49924.8912</v>
       </c>
       <c r="G162" t="n">
-        <v>-2537337.586562486</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5335,19 @@
         <v>86715.0543</v>
       </c>
       <c r="G163" t="n">
-        <v>-2624052.640862486</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5369,19 @@
         <v>59470.0104</v>
       </c>
       <c r="G164" t="n">
-        <v>-2683522.651262486</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5403,19 @@
         <v>146.6596</v>
       </c>
       <c r="G165" t="n">
-        <v>-2683522.651262486</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5437,19 @@
         <v>50</v>
       </c>
       <c r="G166" t="n">
-        <v>-2683472.651262486</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,22 +5471,19 @@
         <v>893.8201</v>
       </c>
       <c r="G167" t="n">
-        <v>-2683472.651262486</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5930,26 +5505,19 @@
         <v>48195.8077</v>
       </c>
       <c r="G168" t="n">
-        <v>-2731668.458962486</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J168" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5971,26 +5539,19 @@
         <v>30051.2177</v>
       </c>
       <c r="G169" t="n">
-        <v>-2731668.458962486</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="J169" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6012,26 +5573,19 @@
         <v>17591.4425</v>
       </c>
       <c r="G170" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="J170" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6053,26 +5607,21 @@
         <v>95626.8493</v>
       </c>
       <c r="G171" t="n">
-        <v>-2749259.901462486</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
         <v>11.65</v>
       </c>
-      <c r="J171" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6094,26 +5643,19 @@
         <v>3495.5741</v>
       </c>
       <c r="G172" t="n">
-        <v>-2749259.901462486</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="J172" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6135,26 +5677,21 @@
         <v>45</v>
       </c>
       <c r="G173" t="n">
-        <v>-2749304.901462486</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
         <v>11.65</v>
       </c>
-      <c r="J173" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6176,26 +5713,21 @@
         <v>4806.1848</v>
       </c>
       <c r="G174" t="n">
-        <v>-2744498.716662486</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
         <v>11.64</v>
       </c>
-      <c r="J174" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6217,26 +5749,21 @@
         <v>45</v>
       </c>
       <c r="G175" t="n">
-        <v>-2744453.716662486</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
         <v>11.65</v>
       </c>
-      <c r="J175" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6258,26 +5785,21 @@
         <v>53587.8672</v>
       </c>
       <c r="G176" t="n">
-        <v>-2744453.716662486</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
         <v>11.67</v>
       </c>
-      <c r="J176" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6299,26 +5821,21 @@
         <v>45</v>
       </c>
       <c r="G177" t="n">
-        <v>-2744498.716662486</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
         <v>11.67</v>
       </c>
-      <c r="J177" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6340,26 +5857,21 @@
         <v>5000</v>
       </c>
       <c r="G178" t="n">
-        <v>-2739498.716662486</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
         <v>11.64</v>
       </c>
-      <c r="J178" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6381,26 +5893,19 @@
         <v>2000</v>
       </c>
       <c r="G179" t="n">
-        <v>-2739498.716662486</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J179" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K179" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6422,26 +5927,19 @@
         <v>21070.3002</v>
       </c>
       <c r="G180" t="n">
-        <v>-2718428.416462486</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J180" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K180" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6463,26 +5961,19 @@
         <v>5000</v>
       </c>
       <c r="G181" t="n">
-        <v>-2718428.416462486</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J181" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K181" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6504,26 +5995,19 @@
         <v>5000</v>
       </c>
       <c r="G182" t="n">
-        <v>-2718428.416462486</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J182" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K182" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6545,26 +6029,19 @@
         <v>57813.0389</v>
       </c>
       <c r="G183" t="n">
-        <v>-2660615.377562486</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J183" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K183" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6586,26 +6063,19 @@
         <v>5000</v>
       </c>
       <c r="G184" t="n">
-        <v>-2660615.377562486</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J184" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6627,26 +6097,19 @@
         <v>7000</v>
       </c>
       <c r="G185" t="n">
-        <v>-2660615.377562486</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J185" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K185" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
